--- a/database/book_data1.xlsx
+++ b/database/book_data1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineer\KH\Bookdream\workspace\Bookdream_main\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85F742B-EFE5-4AB6-857B-062FC6509DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ver3" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5933" uniqueCount="4238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5994" uniqueCount="4290">
   <si>
     <t>book_no</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -12719,25 +12720,13 @@
     <t>Thames &amp; Hudson</t>
   </si>
   <si>
-    <t>https://image.aladin.co.kr/product/25544/93/cover/0500652600_2.jpg</t>
-  </si>
-  <si>
     <t>Our protagonist Zach develops a love of reading thanks to the stubborn efforts of his friend Ro, who reveals the imaginative power of books.</t>
   </si>
   <si>
     <t>The Vampires Next Door (Hardcover)</t>
   </si>
   <si>
-    <t>COHEN,SIGI (지은이)</t>
-  </si>
-  <si>
     <t>Larrikin House</t>
-  </si>
-  <si>
-    <t>https://image.aladin.co.kr/product/26201/60/cover/1922503088_2.jpg</t>
-  </si>
-  <si>
-    <t>&amp;quot;Lee has some serious concerns about her next door neighbours. When children in the street start to disappear, Lee knows something is terribly wrong. She feels a nibble on her neck one night and Horace appears, acting batty and in a bad-tempered manner.</t>
   </si>
   <si>
     <t>상세한 해설로 혼자서도 학습이 가능하도록 하였으며, NCS통합 및 모듈형&amp;PSAT형&amp;피듈형 온라인 모의고사를 무료로 응시할 수 있는 쿠폰을 발급하여 NCS 전 유형에 대한 연습과 함께 자신의 실력을 최종 점검할 수 있도록 하였다.</t>
@@ -12757,17 +12746,237 @@
   </si>
   <si>
     <t>개념 학습 이후의 수학 학습 방법으로 유형별 문제 학습을 선도적으로 제안하며 등장하여 최고의 자리를 지키고 있는 수학 문제 기본서의 대표 주자다. 문항 분석 방법, 보유하고 있는 방대한 데이터 베이스와 인프라를 바탕으로 한 쎈의 유형 분석과 문제 해결 방법을 수록하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬램덩크 20: 북산 vs. 산왕공고(5)(완결)(신장재편판)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COHEN,SIGI (지은이)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Takehiko Inoue 저자(글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대원씨아이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://image.aladin.co.kr/product/26201/60/cover/1922503088_2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;quot;Lee has some serious concerns about her next door neighbours. When children in the street start to disappear, Lee knows something is terribly wrong. She feels a nibble on her neck one night and Horace appears, acting batty and in a bad-tempered manner.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://image.aladin.co.kr/product/25544/93/cover/0500652600_2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://contents.kyobobook.co.kr/sih/fit-in/458x0/pdt/9791133487707.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90년대는 그야말로 ‘농구’의 시대였다. 당시의 중고등학생들은 유명한 NBA선수들만 뿐만 아니라 대학농구에서 활약하는 선수들의 이름을 외우고 다녔으며 거리에는 농구 드라마 ‘마지막 승부’의 주제곡이 흘러나왔다. 이렇게 한국뿐만 아니라 90년대에는 중국과 일본까지 동북아시아에는 농구의 인기가 치솟았다. 이 현상에 한 몫을 한 것이 바로 이노우에 타케히코의 《슬램덩크》라는 작품이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내도서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트렌드 코리아2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김난도 , 전미영 , 최지혜 , 이수진 , 권정윤 , 이준영 , 이향은 , 한다혜 , 이혜원 , 추예린 저자(글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래의 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://contents.kyobobook.co.kr/sih/fit-in/458x0/pdt/9788959897094.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세계화의 종말, 갈등과 분열, 그리고 전쟁. 수십 년간 이어져 온 평화와 공존의 시대는 막을 내리고 엄청난 위기감 속에서 사람들은 다가올 미래를 두려워한다. 자산시장 및 증시의 버블붕괴는 마치 2008년 글로벌 경제위기의 데자뷔를 보는 듯하다. 제2의 외환위기 경고도 들려온다. 매우 부정적인 전망이 압도하는 2023년을 목전에 두고 있는 지금, 소비 트렌드 전망에서 가장 중요한 것은 무엇이 반복되고 무엇이 달라질 것인가를 구별하는 작업일 것이다. 즉, ‘불황기의 소비 패턴’을 과거와 비교해보는 것이고, 또 하나는 ‘소비의 전형성’이 사라지는 시대의 흐름을 분석하는 것이다. 이른바 ‘평균 실종’이 가장 첫 번째 키워드인 이유다. 변화의 속도가 더욱 빨라지는 2023 대한민국. 소비자들은 어떤 선택을 할 것인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아몬드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손원평 저자(글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화와도 같은 강렬한 사건과 매혹적인 문체로 시선을 사로잡는 한국형 영 어덜트 소설 『아몬드』. 타인의 감정에 무감각해진 공감 불능인 이 시대에 큰 울림을 주는 이 작품은 감정을 느끼지 못하는 한 소년의 특별한 성장을 그리고 있다. 감정을 느끼는 데 어려움을 겪는 열여섯 살 소년 선윤재와 어두운 상처를 간직한 곤이, 그와 반대로 맑은 감성을 지닌 도라와 윤재를 돕고 싶어 하는 심 박사 사이에서 펼쳐지는 이야기가 우리로 하여금 타인의 감정을 이해한다는 것이 얼마나 어려운 일인지, 그럼에도 그것이 얼마나 소중한 일인지 다시 한 번 생각해 볼 기회를 전한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만일 내가 인생을 다시 산다면(10만 부 돌파기념 스페셜 에디션)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김혜남 저자(글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메이븐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://contents.kyobobook.co.kr/sih/fit-in/458x0/pdt/9791190538510.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 책은 2015년 ‘오늘 내가 사는 게 재미있는 이유’라는 제목으로 출간, 독자들의 사랑을 받으며 10만 부 돌파 베스트셀러가 된 것을 기념해 펴낸 스페셜 에디션으로 저자가 30년간 정신분석 전문의로 일하며 깨달은 인생의 비밀과 22년간 파킨슨병을 앓으면서도 유쾌하게 살 수 있는 이유를 전한다. 또한 ‘완벽한 때는 결코 오지 않는 법이다’, ‘때론 버티는 것이 답이다’, ‘제발 모든 것을 상처라고 말하지 말 것’, ‘가까운 사람일수록 해서는 안 될 것들이 있다’ 등 환자들에게 미처 하지 못했던 그러나 꼭 해 주고 싶은 이야기들을 담고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트폰을 떨어뜨렸을 뿐인데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시가 아키라 저자(글) · 김성미 번역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북플라자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://contents.kyobobook.co.kr/sih/fit-in/458x0/pdt/9788998274948.jpg</t>
+  </si>
+  <si>
+    <t>독자는 소설《스마트폰을 떨어뜨렸을 뿐인데》의 설정을 생각해 낸 저자의 비범함에 놀라지 않을 수 없다. 스마트폰을 택시 안에 깜빡 두고 내린다는, 현대인이라면 누구나 한번쯤 경험했을 법한 설정은 독자에게 압도적인 현실감을 불어 넣는다. 이 소설의 장르를 굳이 분류해 보자면, 「미스터리 성향이 강한 서스펜스 소설」이 되겠지만, 그것만으로 충분하지 않다. 호러소설로도, 근미래 SF소설로도, 어떤 면에서는 청춘소설이나 연애소설로도 볼 수 있다. 잔학하고 에로틱한 냄새도 난다. 시가 아키라는 무한한 잠재력을 가지고 있는 작가임에 틀림없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나는 오래된 거리처럼 너를 사랑하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문학과지성사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://contents.kyobobook.co.kr/sih/fit-in/458x0/pdt/9788932040448.jpg</t>
+  </si>
+  <si>
+    <t>불편한 편의점(40만부 기념 벚꽃 에디션)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호연 저자(글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무옆의자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://contents.kyobobook.co.kr/sih/fit-in/458x0/pdt/9791161571188.jpg</t>
+  </si>
+  <si>
+    <t>진은영 저자(글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000년 『문학과사회』로 등단한 이후 시집 『일곱 개의 단어로 된 사전』(2003), 『우리는 매일매일』(2008), 『훔쳐가는 노래』(2012)를 차례로 선보이며, 감각적인 은유와 선명한 이미지로 낡고 익숙한 일상을 재배치하는 한편 동시대의 현실에 밀착한 문제의식을 철학적 사유와 시적 정치성으로 풀어내온 진은영 시인이 10년 만에 신작 시집 『나는 오래된 거리처럼 너를 사랑하고』(문학과지성사, 2022)를 펴냈다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://contents.kyobobook.co.kr/sih/fit-in/458x0/pdt/9788936434267.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부의 추월차선(10주년 스페셜 에디션)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠제이 드마코 저자(글) · 신소영 번역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://contents.kyobobook.co.kr/sih/fit-in/458x0/pdt/9791187444725.jpg</t>
+  </si>
+  <si>
+    <t>부자 되기 방식의 패러다임을 바꾼 〈부의 추월차선〉이 독자들의 사랑과 지지 속에 한국 출간 10주년을 맞이했다. 이 책은 죽도록 일하며 수십 년 간 아끼고 모아서 휠체어에 탈 때쯤 부자 되는 40년짜리 플랜을 비웃으며 한 살이라도 젊을 때 부자가 되어 은퇴하는 방법을 구체적으로 제시하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삶의 한가운데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루이제 린저 저자(글) · 박찬일 번역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>민음사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://contents.kyobobook.co.kr/sih/fit-in/458x0/pdt/9788937460289.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지적 대화를 위한 넓고 얕은 지식 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채사장 저자(글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨일북(whalebooks)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://contents.kyobobook.co.kr/sih/fit-in/458x0/pdt/9791190313186.jpg</t>
+  </si>
+  <si>
+    <t>어렵고 딱딱하던 인문학 분야 판도를 뒤바꾼 책. 출간 즉시 베스트셀러에 오르는 것을 시작으로, 200만 부 누적 판매를 돌파해 더블 밀리언셀러를 기록하며, 장장 5년간 스테디셀러의 자리에서 꿈쩍도 하지 않은 책. 발음하기도 낯설고 어려운 ‘지대넓얕’이라는 말을 유행시키고, 유사 콘셉트의 TV 프로그램까지 탄생시킨 책, 기초 상식에 목말라 있던 보통 사람들이 거리낌 없이 토론하게 하고 뉴스를 주체적으로 보게 하고 선거에서 주관을 갖게 한 책, 80대 독자가 독학을 시작하고 중학생 독자가 인문학을 읽게 하고 직장인들이 독서 모임을 갖게 하는 등 세대 불문 남녀노소 읽을 수 있도록 쉽고 재미있게 쓰였다고 평가받는 책. 이 모든 것이 《지적 대화를 위한 넓고 얕은 지식》에 대한 설명이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1911년 독일출신 여류작가 루이제 린저의 대표 장편소설『삶의 한가운데』. 이 작품은 여주인공 니나를 사랑하는 슈타인의 일기 및 편지 그리고 니나와 그녀의 언니간의 짧은 며칠 간의 만남과 대화들로 구성된 소설로 20살 연상의 남자와의 이루지 못한 사랑을 그리고 있다. 
+그저 평범한 중년 남성인 슈타인은 의사로서 그냥 평범하고, 지루한 삶을 이어가고 있었다. 그러던 중 자신과는 정반대라고 할 수 있는 '니나'를 만나게 된다. 이 어린 소녀는 광기와 절망으로 가득 차 있었고, 그의 일상은 순식간에 점정에 오른다. 소녀가 성숙한 여인으로 성장하기까지 18년을 지켜보는 슈타인. 그 긴긴 시간은 니나를 자신의 목숨처럼 사랑하게 만들었지만 그녀가 다른 남자와 결혼하는 것을 지켜만 봐야 했는데….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호연 작가의 장편소설 『불편한 편의점』이 누적 판매 40만부 돌파를 기념하여 벚꽃 에디션으로 새 단장 했습니다. 2021년 4월에 출간되어 전 연령층의 폭넓은 공감을 얻으며 소설 읽기 바람을 일으킨 『불편한 편의점』의 열기는 지금도 현재진행형입니다. 청파동 골목 모퉁이의 작은 가게, 서울역 노숙인이었던 정체불명의 야간 알바가 지키는 곳, 불편한데 자꾸 가고 싶은 봄날의 편의점으로 여러분을 초대합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12783,13 +12992,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -12801,12 +13032,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12816,12 +13053,26 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13098,11 +13349,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K988"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A913" workbookViewId="0">
+      <selection activeCell="O922" sqref="O922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -13169,12 +13420,12 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>4237</v>
+        <v>4233</v>
       </c>
       <c r="I2" s="2">
         <v>44874</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
       <c r="K2">
@@ -13204,12 +13455,12 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>4236</v>
+        <v>4232</v>
       </c>
       <c r="I3" s="2">
         <v>44701</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
       <c r="K3">
@@ -13239,12 +13490,12 @@
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>4235</v>
+        <v>4231</v>
       </c>
       <c r="I4" s="2">
         <v>44630</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" t="s">
         <v>15</v>
       </c>
       <c r="K4">
@@ -13274,12 +13525,12 @@
         <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>4234</v>
+        <v>4230</v>
       </c>
       <c r="I5" s="2">
         <v>44630</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" t="s">
         <v>15</v>
       </c>
       <c r="K5">
@@ -13309,12 +13560,12 @@
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>4233</v>
+        <v>4229</v>
       </c>
       <c r="I6" s="2">
         <v>44630</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" t="s">
         <v>15</v>
       </c>
       <c r="K6">
@@ -13349,7 +13600,7 @@
       <c r="I7" s="2">
         <v>44630</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" t="s">
         <v>15</v>
       </c>
       <c r="K7">
@@ -13384,7 +13635,7 @@
       <c r="I8" s="2">
         <v>44630</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" t="s">
         <v>15</v>
       </c>
       <c r="K8">
@@ -13419,7 +13670,7 @@
       <c r="I9" s="2">
         <v>44621</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" t="s">
         <v>15</v>
       </c>
       <c r="K9">
@@ -13454,7 +13705,7 @@
       <c r="I10" s="2">
         <v>44620</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" t="s">
         <v>15</v>
       </c>
       <c r="K10">
@@ -13489,7 +13740,7 @@
       <c r="I11" s="2">
         <v>44620</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" t="s">
         <v>15</v>
       </c>
       <c r="K11">
@@ -13524,7 +13775,7 @@
       <c r="I12" s="2">
         <v>44617</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" t="s">
         <v>15</v>
       </c>
       <c r="K12">
@@ -13559,7 +13810,7 @@
       <c r="I13" s="2">
         <v>44617</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" t="s">
         <v>15</v>
       </c>
       <c r="K13">
@@ -13594,7 +13845,7 @@
       <c r="I14" s="2">
         <v>44617</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" t="s">
         <v>15</v>
       </c>
       <c r="K14">
@@ -13629,7 +13880,7 @@
       <c r="I15" s="2">
         <v>44617</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" t="s">
         <v>15</v>
       </c>
       <c r="K15">
@@ -13664,7 +13915,7 @@
       <c r="I16" s="2">
         <v>44617</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" t="s">
         <v>15</v>
       </c>
       <c r="K16">
@@ -13699,7 +13950,7 @@
       <c r="I17" s="2">
         <v>44615</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" t="s">
         <v>15</v>
       </c>
       <c r="K17">
@@ -13734,7 +13985,7 @@
       <c r="I18" s="2">
         <v>44607</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" t="s">
         <v>15</v>
       </c>
       <c r="K18">
@@ -13769,7 +14020,7 @@
       <c r="I19" s="2">
         <v>44603</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" t="s">
         <v>15</v>
       </c>
       <c r="K19">
@@ -13804,7 +14055,7 @@
       <c r="I20" s="2">
         <v>44603</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" t="s">
         <v>15</v>
       </c>
       <c r="K20">
@@ -13839,7 +14090,7 @@
       <c r="I21" s="2">
         <v>44602</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" t="s">
         <v>15</v>
       </c>
       <c r="K21">
@@ -13874,7 +14125,7 @@
       <c r="I22" s="2">
         <v>44602</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" t="s">
         <v>15</v>
       </c>
       <c r="K22">
@@ -13909,7 +14160,7 @@
       <c r="I23" s="2">
         <v>44602</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" t="s">
         <v>15</v>
       </c>
       <c r="K23">
@@ -13944,7 +14195,7 @@
       <c r="I24" s="2">
         <v>44602</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" t="s">
         <v>15</v>
       </c>
       <c r="K24">
@@ -13979,7 +14230,7 @@
       <c r="I25" s="2">
         <v>44602</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" t="s">
         <v>15</v>
       </c>
       <c r="K25">
@@ -14014,7 +14265,7 @@
       <c r="I26" s="2">
         <v>44602</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" t="s">
         <v>15</v>
       </c>
       <c r="K26">
@@ -14049,7 +14300,7 @@
       <c r="I27" s="2">
         <v>44602</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" t="s">
         <v>15</v>
       </c>
       <c r="K27">
@@ -14084,7 +14335,7 @@
       <c r="I28" s="2">
         <v>44593</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" t="s">
         <v>15</v>
       </c>
       <c r="K28">
@@ -14119,7 +14370,7 @@
       <c r="I29" s="2">
         <v>44593</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" t="s">
         <v>15</v>
       </c>
       <c r="K29">
@@ -14154,7 +14405,7 @@
       <c r="I30" s="2">
         <v>44593</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" t="s">
         <v>15</v>
       </c>
       <c r="K30">
@@ -14189,7 +14440,7 @@
       <c r="I31" s="2">
         <v>44593</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" t="s">
         <v>15</v>
       </c>
       <c r="K31">
@@ -14224,7 +14475,7 @@
       <c r="I32" s="2">
         <v>44593</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" t="s">
         <v>15</v>
       </c>
       <c r="K32">
@@ -14259,7 +14510,7 @@
       <c r="I33" s="2">
         <v>44593</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" t="s">
         <v>15</v>
       </c>
       <c r="K33">
@@ -14294,7 +14545,7 @@
       <c r="I34" s="2">
         <v>44593</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" t="s">
         <v>15</v>
       </c>
       <c r="K34">
@@ -14329,7 +14580,7 @@
       <c r="I35" s="2">
         <v>44593</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" t="s">
         <v>15</v>
       </c>
       <c r="K35">
@@ -14364,7 +14615,7 @@
       <c r="I36" s="2">
         <v>44593</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" t="s">
         <v>15</v>
       </c>
       <c r="K36">
@@ -14399,7 +14650,7 @@
       <c r="I37" s="2">
         <v>44593</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" t="s">
         <v>15</v>
       </c>
       <c r="K37">
@@ -14434,7 +14685,7 @@
       <c r="I38" s="2">
         <v>44593</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" t="s">
         <v>15</v>
       </c>
       <c r="K38">
@@ -14469,7 +14720,7 @@
       <c r="I39" s="2">
         <v>44593</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" t="s">
         <v>15</v>
       </c>
       <c r="K39">
@@ -14504,7 +14755,7 @@
       <c r="I40" s="2">
         <v>44593</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" t="s">
         <v>15</v>
       </c>
       <c r="K40">
@@ -14539,7 +14790,7 @@
       <c r="I41" s="2">
         <v>44593</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" t="s">
         <v>15</v>
       </c>
       <c r="K41">
@@ -14574,7 +14825,7 @@
       <c r="I42" s="2">
         <v>44593</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" t="s">
         <v>15</v>
       </c>
       <c r="K42">
@@ -14609,7 +14860,7 @@
       <c r="I43" s="2">
         <v>44593</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" t="s">
         <v>15</v>
       </c>
       <c r="K43">
@@ -14644,7 +14895,7 @@
       <c r="I44" s="2">
         <v>44593</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" t="s">
         <v>15</v>
       </c>
       <c r="K44">
@@ -14679,7 +14930,7 @@
       <c r="I45" s="2">
         <v>44593</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" t="s">
         <v>15</v>
       </c>
       <c r="K45">
@@ -14714,7 +14965,7 @@
       <c r="I46" s="2">
         <v>44593</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" t="s">
         <v>15</v>
       </c>
       <c r="K46">
@@ -14749,7 +15000,7 @@
       <c r="I47" s="2">
         <v>44593</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" t="s">
         <v>15</v>
       </c>
       <c r="K47">
@@ -14784,7 +15035,7 @@
       <c r="I48" s="2">
         <v>44593</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" t="s">
         <v>15</v>
       </c>
       <c r="K48">
@@ -14819,7 +15070,7 @@
       <c r="I49" s="2">
         <v>44593</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" t="s">
         <v>15</v>
       </c>
       <c r="K49">
@@ -14854,7 +15105,7 @@
       <c r="I50" s="2">
         <v>44593</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" t="s">
         <v>15</v>
       </c>
       <c r="K50">
@@ -14889,7 +15140,7 @@
       <c r="I51" s="2">
         <v>44593</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" t="s">
         <v>15</v>
       </c>
       <c r="K51">
@@ -14924,7 +15175,7 @@
       <c r="I52" s="2">
         <v>44593</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" t="s">
         <v>15</v>
       </c>
       <c r="K52">
@@ -14959,7 +15210,7 @@
       <c r="I53" s="2">
         <v>44593</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" t="s">
         <v>15</v>
       </c>
       <c r="K53">
@@ -14994,7 +15245,7 @@
       <c r="I54" s="2">
         <v>44593</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" t="s">
         <v>15</v>
       </c>
       <c r="K54">
@@ -15029,7 +15280,7 @@
       <c r="I55" s="2">
         <v>44593</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" t="s">
         <v>15</v>
       </c>
       <c r="K55">
@@ -15064,7 +15315,7 @@
       <c r="I56" s="2">
         <v>44593</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" t="s">
         <v>15</v>
       </c>
       <c r="K56">
@@ -15099,7 +15350,7 @@
       <c r="I57" s="2">
         <v>44593</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" t="s">
         <v>15</v>
       </c>
       <c r="K57">
@@ -15134,7 +15385,7 @@
       <c r="I58" s="2">
         <v>44593</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" t="s">
         <v>15</v>
       </c>
       <c r="K58">
@@ -15169,7 +15420,7 @@
       <c r="I59" s="2">
         <v>44593</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" t="s">
         <v>15</v>
       </c>
       <c r="K59">
@@ -15204,7 +15455,7 @@
       <c r="I60" s="2">
         <v>44593</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J60" t="s">
         <v>15</v>
       </c>
       <c r="K60">
@@ -15239,7 +15490,7 @@
       <c r="I61" s="2">
         <v>44593</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" t="s">
         <v>15</v>
       </c>
       <c r="K61">
@@ -15274,7 +15525,7 @@
       <c r="I62" s="2">
         <v>44593</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" t="s">
         <v>15</v>
       </c>
       <c r="K62">
@@ -15309,7 +15560,7 @@
       <c r="I63" s="2">
         <v>44593</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J63" t="s">
         <v>15</v>
       </c>
       <c r="K63">
@@ -15344,7 +15595,7 @@
       <c r="I64" s="2">
         <v>44593</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J64" t="s">
         <v>15</v>
       </c>
       <c r="K64">
@@ -15379,7 +15630,7 @@
       <c r="I65" s="2">
         <v>44593</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" t="s">
         <v>15</v>
       </c>
       <c r="K65">
@@ -15414,7 +15665,7 @@
       <c r="I66" s="2">
         <v>44593</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J66" t="s">
         <v>15</v>
       </c>
       <c r="K66">
@@ -15449,7 +15700,7 @@
       <c r="I67" s="2">
         <v>44593</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J67" t="s">
         <v>15</v>
       </c>
       <c r="K67">
@@ -15484,7 +15735,7 @@
       <c r="I68" s="2">
         <v>44593</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J68" t="s">
         <v>15</v>
       </c>
       <c r="K68">
@@ -15519,7 +15770,7 @@
       <c r="I69" s="2">
         <v>44592</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J69" t="s">
         <v>15</v>
       </c>
       <c r="K69">
@@ -15554,7 +15805,7 @@
       <c r="I70" s="2">
         <v>44592</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" t="s">
         <v>15</v>
       </c>
       <c r="K70">
@@ -15589,7 +15840,7 @@
       <c r="I71" s="2">
         <v>44592</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J71" t="s">
         <v>15</v>
       </c>
       <c r="K71">
@@ -15624,7 +15875,7 @@
       <c r="I72" s="2">
         <v>44591</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" t="s">
         <v>15</v>
       </c>
       <c r="K72">
@@ -15659,7 +15910,7 @@
       <c r="I73" s="2">
         <v>44591</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J73" t="s">
         <v>15</v>
       </c>
       <c r="K73">
@@ -15694,7 +15945,7 @@
       <c r="I74" s="2">
         <v>44591</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" t="s">
         <v>15</v>
       </c>
       <c r="K74">
@@ -15729,7 +15980,7 @@
       <c r="I75" s="2">
         <v>44591</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" t="s">
         <v>15</v>
       </c>
       <c r="K75">
@@ -15764,7 +16015,7 @@
       <c r="I76" s="2">
         <v>44589</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="J76" t="s">
         <v>15</v>
       </c>
       <c r="K76">
@@ -15799,7 +16050,7 @@
       <c r="I77" s="2">
         <v>44589</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="J77" t="s">
         <v>15</v>
       </c>
       <c r="K77">
@@ -15834,7 +16085,7 @@
       <c r="I78" s="2">
         <v>44586</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="J78" t="s">
         <v>15</v>
       </c>
       <c r="K78">
@@ -15869,7 +16120,7 @@
       <c r="I79" s="2">
         <v>44586</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="J79" t="s">
         <v>15</v>
       </c>
       <c r="K79">
@@ -15904,7 +16155,7 @@
       <c r="I80" s="2">
         <v>44586</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" t="s">
         <v>15</v>
       </c>
       <c r="K80">
@@ -15939,7 +16190,7 @@
       <c r="I81" s="2">
         <v>44586</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" t="s">
         <v>15</v>
       </c>
       <c r="K81">
@@ -15974,7 +16225,7 @@
       <c r="I82" s="2">
         <v>44586</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="J82" t="s">
         <v>15</v>
       </c>
       <c r="K82">
@@ -16009,7 +16260,7 @@
       <c r="I83" s="2">
         <v>44581</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" t="s">
         <v>15</v>
       </c>
       <c r="K83">
@@ -16044,7 +16295,7 @@
       <c r="I84" s="2">
         <v>44581</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J84" t="s">
         <v>15</v>
       </c>
       <c r="K84">
@@ -16079,7 +16330,7 @@
       <c r="I85" s="2">
         <v>44581</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" t="s">
         <v>15</v>
       </c>
       <c r="K85">
@@ -16114,7 +16365,7 @@
       <c r="I86" s="2">
         <v>44581</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" t="s">
         <v>15</v>
       </c>
       <c r="K86">
@@ -16149,7 +16400,7 @@
       <c r="I87" s="2">
         <v>44581</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J87" t="s">
         <v>15</v>
       </c>
       <c r="K87">
@@ -16184,7 +16435,7 @@
       <c r="I88" s="2">
         <v>44581</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J88" t="s">
         <v>15</v>
       </c>
       <c r="K88">
@@ -16219,7 +16470,7 @@
       <c r="I89" s="2">
         <v>44581</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="J89" t="s">
         <v>15</v>
       </c>
       <c r="K89">
@@ -16254,7 +16505,7 @@
       <c r="I90" s="2">
         <v>44581</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J90" t="s">
         <v>15</v>
       </c>
       <c r="K90">
@@ -16289,7 +16540,7 @@
       <c r="I91" s="2">
         <v>44581</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J91" t="s">
         <v>15</v>
       </c>
       <c r="K91">
@@ -16324,7 +16575,7 @@
       <c r="I92" s="2">
         <v>44581</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="J92" t="s">
         <v>15</v>
       </c>
       <c r="K92">
@@ -16359,7 +16610,7 @@
       <c r="I93" s="2">
         <v>44581</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J93" t="s">
         <v>15</v>
       </c>
       <c r="K93">
@@ -16394,7 +16645,7 @@
       <c r="I94" s="2">
         <v>44581</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="J94" t="s">
         <v>15</v>
       </c>
       <c r="K94">
@@ -16429,7 +16680,7 @@
       <c r="I95" s="2">
         <v>44581</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="J95" t="s">
         <v>15</v>
       </c>
       <c r="K95">
@@ -16464,7 +16715,7 @@
       <c r="I96" s="2">
         <v>44581</v>
       </c>
-      <c r="J96" s="3" t="s">
+      <c r="J96" t="s">
         <v>15</v>
       </c>
       <c r="K96">
@@ -16499,7 +16750,7 @@
       <c r="I97" s="2">
         <v>44578</v>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="J97" t="s">
         <v>15</v>
       </c>
       <c r="K97">
@@ -16534,7 +16785,7 @@
       <c r="I98" s="2">
         <v>44578</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="J98" t="s">
         <v>15</v>
       </c>
       <c r="K98">
@@ -16569,7 +16820,7 @@
       <c r="I99" s="2">
         <v>44578</v>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="J99" t="s">
         <v>15</v>
       </c>
       <c r="K99">
@@ -16604,7 +16855,7 @@
       <c r="I100" s="2">
         <v>44576</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" t="s">
         <v>15</v>
       </c>
       <c r="K100">
@@ -16639,7 +16890,7 @@
       <c r="I101" s="2">
         <v>44576</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" t="s">
         <v>15</v>
       </c>
       <c r="K101">
@@ -16674,7 +16925,7 @@
       <c r="I102" s="2">
         <v>44576</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="J102" t="s">
         <v>15</v>
       </c>
       <c r="K102">
@@ -16709,7 +16960,7 @@
       <c r="I103" s="2">
         <v>44576</v>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="J103" t="s">
         <v>15</v>
       </c>
       <c r="K103">
@@ -16744,7 +16995,7 @@
       <c r="I104" s="2">
         <v>44576</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="J104" t="s">
         <v>15</v>
       </c>
       <c r="K104">
@@ -16779,7 +17030,7 @@
       <c r="I105" s="2">
         <v>44576</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="J105" t="s">
         <v>15</v>
       </c>
       <c r="K105">
@@ -16814,7 +17065,7 @@
       <c r="I106" s="2">
         <v>44576</v>
       </c>
-      <c r="J106" s="3" t="s">
+      <c r="J106" t="s">
         <v>15</v>
       </c>
       <c r="K106">
@@ -16849,7 +17100,7 @@
       <c r="I107" s="2">
         <v>44576</v>
       </c>
-      <c r="J107" s="3" t="s">
+      <c r="J107" t="s">
         <v>15</v>
       </c>
       <c r="K107">
@@ -16884,7 +17135,7 @@
       <c r="I108" s="2">
         <v>44576</v>
       </c>
-      <c r="J108" s="3" t="s">
+      <c r="J108" t="s">
         <v>15</v>
       </c>
       <c r="K108">
@@ -16919,7 +17170,7 @@
       <c r="I109" s="2">
         <v>44576</v>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="J109" t="s">
         <v>15</v>
       </c>
       <c r="K109">
@@ -16954,7 +17205,7 @@
       <c r="I110" s="2">
         <v>44576</v>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="J110" t="s">
         <v>15</v>
       </c>
       <c r="K110">
@@ -16989,7 +17240,7 @@
       <c r="I111" s="2">
         <v>44575</v>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="J111" t="s">
         <v>15</v>
       </c>
       <c r="K111">
@@ -17024,7 +17275,7 @@
       <c r="I112" s="2">
         <v>44575</v>
       </c>
-      <c r="J112" s="3" t="s">
+      <c r="J112" t="s">
         <v>15</v>
       </c>
       <c r="K112">
@@ -17059,7 +17310,7 @@
       <c r="I113" s="2">
         <v>44575</v>
       </c>
-      <c r="J113" s="3" t="s">
+      <c r="J113" t="s">
         <v>15</v>
       </c>
       <c r="K113">
@@ -17094,7 +17345,7 @@
       <c r="I114" s="2">
         <v>44575</v>
       </c>
-      <c r="J114" s="3" t="s">
+      <c r="J114" t="s">
         <v>15</v>
       </c>
       <c r="K114">
@@ -17129,7 +17380,7 @@
       <c r="I115" s="2">
         <v>44575</v>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="J115" t="s">
         <v>15</v>
       </c>
       <c r="K115">
@@ -17164,7 +17415,7 @@
       <c r="I116" s="2">
         <v>44575</v>
       </c>
-      <c r="J116" s="3" t="s">
+      <c r="J116" t="s">
         <v>15</v>
       </c>
       <c r="K116">
@@ -17199,7 +17450,7 @@
       <c r="I117" s="2">
         <v>44575</v>
       </c>
-      <c r="J117" s="3" t="s">
+      <c r="J117" t="s">
         <v>15</v>
       </c>
       <c r="K117">
@@ -17234,7 +17485,7 @@
       <c r="I118" s="2">
         <v>44575</v>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="J118" t="s">
         <v>15</v>
       </c>
       <c r="K118">
@@ -17269,7 +17520,7 @@
       <c r="I119" s="2">
         <v>44575</v>
       </c>
-      <c r="J119" s="3" t="s">
+      <c r="J119" t="s">
         <v>15</v>
       </c>
       <c r="K119">
@@ -17304,7 +17555,7 @@
       <c r="I120" s="2">
         <v>44575</v>
       </c>
-      <c r="J120" s="3" t="s">
+      <c r="J120" t="s">
         <v>15</v>
       </c>
       <c r="K120">
@@ -17339,7 +17590,7 @@
       <c r="I121" s="2">
         <v>44574</v>
       </c>
-      <c r="J121" s="3" t="s">
+      <c r="J121" t="s">
         <v>15</v>
       </c>
       <c r="K121">
@@ -17374,7 +17625,7 @@
       <c r="I122" s="2">
         <v>44574</v>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="J122" t="s">
         <v>15</v>
       </c>
       <c r="K122">
@@ -17409,7 +17660,7 @@
       <c r="I123" s="2">
         <v>44573</v>
       </c>
-      <c r="J123" s="3" t="s">
+      <c r="J123" t="s">
         <v>15</v>
       </c>
       <c r="K123">
@@ -17444,7 +17695,7 @@
       <c r="I124" s="2">
         <v>44573</v>
       </c>
-      <c r="J124" s="3" t="s">
+      <c r="J124" t="s">
         <v>15</v>
       </c>
       <c r="K124">
@@ -17479,7 +17730,7 @@
       <c r="I125" s="2">
         <v>44573</v>
       </c>
-      <c r="J125" s="3" t="s">
+      <c r="J125" t="s">
         <v>15</v>
       </c>
       <c r="K125">
@@ -17514,7 +17765,7 @@
       <c r="I126" s="2">
         <v>44573</v>
       </c>
-      <c r="J126" s="3" t="s">
+      <c r="J126" t="s">
         <v>15</v>
       </c>
       <c r="K126">
@@ -17549,7 +17800,7 @@
       <c r="I127" s="2">
         <v>44573</v>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="J127" t="s">
         <v>15</v>
       </c>
       <c r="K127">
@@ -17584,7 +17835,7 @@
       <c r="I128" s="2">
         <v>44573</v>
       </c>
-      <c r="J128" s="3" t="s">
+      <c r="J128" t="s">
         <v>15</v>
       </c>
       <c r="K128">
@@ -17619,7 +17870,7 @@
       <c r="I129" s="2">
         <v>44573</v>
       </c>
-      <c r="J129" s="3" t="s">
+      <c r="J129" t="s">
         <v>15</v>
       </c>
       <c r="K129">
@@ -17654,7 +17905,7 @@
       <c r="I130" s="2">
         <v>44573</v>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="J130" t="s">
         <v>15</v>
       </c>
       <c r="K130">
@@ -17689,7 +17940,7 @@
       <c r="I131" s="2">
         <v>44573</v>
       </c>
-      <c r="J131" s="3" t="s">
+      <c r="J131" t="s">
         <v>15</v>
       </c>
       <c r="K131">
@@ -17724,7 +17975,7 @@
       <c r="I132" s="2">
         <v>44573</v>
       </c>
-      <c r="J132" s="3" t="s">
+      <c r="J132" t="s">
         <v>15</v>
       </c>
       <c r="K132">
@@ -17759,7 +18010,7 @@
       <c r="I133" s="2">
         <v>44572</v>
       </c>
-      <c r="J133" s="3" t="s">
+      <c r="J133" t="s">
         <v>15</v>
       </c>
       <c r="K133">
@@ -17794,7 +18045,7 @@
       <c r="I134" s="2">
         <v>44572</v>
       </c>
-      <c r="J134" s="3" t="s">
+      <c r="J134" t="s">
         <v>15</v>
       </c>
       <c r="K134">
@@ -17829,7 +18080,7 @@
       <c r="I135" s="2">
         <v>44571</v>
       </c>
-      <c r="J135" s="3" t="s">
+      <c r="J135" t="s">
         <v>15</v>
       </c>
       <c r="K135">
@@ -17864,7 +18115,7 @@
       <c r="I136" s="2">
         <v>44571</v>
       </c>
-      <c r="J136" s="3" t="s">
+      <c r="J136" t="s">
         <v>15</v>
       </c>
       <c r="K136">
@@ -17899,7 +18150,7 @@
       <c r="I137" s="2">
         <v>44571</v>
       </c>
-      <c r="J137" s="3" t="s">
+      <c r="J137" t="s">
         <v>15</v>
       </c>
       <c r="K137">
@@ -17934,7 +18185,7 @@
       <c r="I138" s="2">
         <v>44571</v>
       </c>
-      <c r="J138" s="3" t="s">
+      <c r="J138" t="s">
         <v>15</v>
       </c>
       <c r="K138">
@@ -17969,7 +18220,7 @@
       <c r="I139" s="2">
         <v>44571</v>
       </c>
-      <c r="J139" s="3" t="s">
+      <c r="J139" t="s">
         <v>15</v>
       </c>
       <c r="K139">
@@ -18004,7 +18255,7 @@
       <c r="I140" s="2">
         <v>44571</v>
       </c>
-      <c r="J140" s="3" t="s">
+      <c r="J140" t="s">
         <v>15</v>
       </c>
       <c r="K140">
@@ -18039,7 +18290,7 @@
       <c r="I141" s="2">
         <v>44571</v>
       </c>
-      <c r="J141" s="3" t="s">
+      <c r="J141" t="s">
         <v>15</v>
       </c>
       <c r="K141">
@@ -18074,7 +18325,7 @@
       <c r="I142" s="2">
         <v>44571</v>
       </c>
-      <c r="J142" s="3" t="s">
+      <c r="J142" t="s">
         <v>15</v>
       </c>
       <c r="K142">
@@ -18109,7 +18360,7 @@
       <c r="I143" s="2">
         <v>44571</v>
       </c>
-      <c r="J143" s="3" t="s">
+      <c r="J143" t="s">
         <v>15</v>
       </c>
       <c r="K143">
@@ -18144,7 +18395,7 @@
       <c r="I144" s="2">
         <v>44571</v>
       </c>
-      <c r="J144" s="3" t="s">
+      <c r="J144" t="s">
         <v>15</v>
       </c>
       <c r="K144">
@@ -18179,7 +18430,7 @@
       <c r="I145" s="2">
         <v>44571</v>
       </c>
-      <c r="J145" s="3" t="s">
+      <c r="J145" t="s">
         <v>15</v>
       </c>
       <c r="K145">
@@ -18214,7 +18465,7 @@
       <c r="I146" s="2">
         <v>44571</v>
       </c>
-      <c r="J146" s="3" t="s">
+      <c r="J146" t="s">
         <v>15</v>
       </c>
       <c r="K146">
@@ -18249,7 +18500,7 @@
       <c r="I147" s="2">
         <v>44571</v>
       </c>
-      <c r="J147" s="3" t="s">
+      <c r="J147" t="s">
         <v>15</v>
       </c>
       <c r="K147">
@@ -18284,7 +18535,7 @@
       <c r="I148" s="2">
         <v>44571</v>
       </c>
-      <c r="J148" s="3" t="s">
+      <c r="J148" t="s">
         <v>15</v>
       </c>
       <c r="K148">
@@ -18319,7 +18570,7 @@
       <c r="I149" s="2">
         <v>44571</v>
       </c>
-      <c r="J149" s="3" t="s">
+      <c r="J149" t="s">
         <v>15</v>
       </c>
       <c r="K149">
@@ -18354,7 +18605,7 @@
       <c r="I150" s="2">
         <v>44571</v>
       </c>
-      <c r="J150" s="3" t="s">
+      <c r="J150" t="s">
         <v>15</v>
       </c>
       <c r="K150">
@@ -18389,7 +18640,7 @@
       <c r="I151" s="2">
         <v>44571</v>
       </c>
-      <c r="J151" s="3" t="s">
+      <c r="J151" t="s">
         <v>15</v>
       </c>
       <c r="K151">
@@ -18424,7 +18675,7 @@
       <c r="I152" s="2">
         <v>44571</v>
       </c>
-      <c r="J152" s="3" t="s">
+      <c r="J152" t="s">
         <v>15</v>
       </c>
       <c r="K152">
@@ -18459,7 +18710,7 @@
       <c r="I153" s="2">
         <v>44571</v>
       </c>
-      <c r="J153" s="3" t="s">
+      <c r="J153" t="s">
         <v>15</v>
       </c>
       <c r="K153">
@@ -18494,7 +18745,7 @@
       <c r="I154" s="2">
         <v>44571</v>
       </c>
-      <c r="J154" s="3" t="s">
+      <c r="J154" t="s">
         <v>15</v>
       </c>
       <c r="K154">
@@ -18529,7 +18780,7 @@
       <c r="I155" s="2">
         <v>44571</v>
       </c>
-      <c r="J155" s="3" t="s">
+      <c r="J155" t="s">
         <v>15</v>
       </c>
       <c r="K155">
@@ -18564,7 +18815,7 @@
       <c r="I156" s="2">
         <v>44571</v>
       </c>
-      <c r="J156" s="3" t="s">
+      <c r="J156" t="s">
         <v>15</v>
       </c>
       <c r="K156">
@@ -18599,7 +18850,7 @@
       <c r="I157" s="2">
         <v>44571</v>
       </c>
-      <c r="J157" s="3" t="s">
+      <c r="J157" t="s">
         <v>15</v>
       </c>
       <c r="K157">
@@ -18634,7 +18885,7 @@
       <c r="I158" s="2">
         <v>44571</v>
       </c>
-      <c r="J158" s="3" t="s">
+      <c r="J158" t="s">
         <v>15</v>
       </c>
       <c r="K158">
@@ -18669,7 +18920,7 @@
       <c r="I159" s="2">
         <v>44571</v>
       </c>
-      <c r="J159" s="3" t="s">
+      <c r="J159" t="s">
         <v>15</v>
       </c>
       <c r="K159">
@@ -18704,14 +18955,14 @@
       <c r="I160" s="2">
         <v>44571</v>
       </c>
-      <c r="J160" s="3" t="s">
+      <c r="J160" t="s">
         <v>15</v>
       </c>
       <c r="K160">
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
@@ -18739,14 +18990,14 @@
       <c r="I161" s="2">
         <v>44571</v>
       </c>
-      <c r="J161" s="3" t="s">
+      <c r="J161" t="s">
         <v>15</v>
       </c>
       <c r="K161">
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
@@ -18774,14 +19025,14 @@
       <c r="I162" s="2">
         <v>44571</v>
       </c>
-      <c r="J162" s="3" t="s">
+      <c r="J162" t="s">
         <v>15</v>
       </c>
       <c r="K162">
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
@@ -18809,14 +19060,14 @@
       <c r="I163" s="2">
         <v>44571</v>
       </c>
-      <c r="J163" s="3" t="s">
+      <c r="J163" t="s">
         <v>15</v>
       </c>
       <c r="K163">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
@@ -18844,14 +19095,14 @@
       <c r="I164" s="2">
         <v>44571</v>
       </c>
-      <c r="J164" s="3" t="s">
+      <c r="J164" t="s">
         <v>15</v>
       </c>
       <c r="K164">
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
@@ -18879,14 +19130,14 @@
       <c r="I165" s="2">
         <v>44571</v>
       </c>
-      <c r="J165" s="3" t="s">
+      <c r="J165" t="s">
         <v>15</v>
       </c>
       <c r="K165">
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
@@ -18914,14 +19165,14 @@
       <c r="I166" s="2">
         <v>44571</v>
       </c>
-      <c r="J166" s="3" t="s">
+      <c r="J166" t="s">
         <v>15</v>
       </c>
       <c r="K166">
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
@@ -18949,14 +19200,14 @@
       <c r="I167" s="2">
         <v>44571</v>
       </c>
-      <c r="J167" s="3" t="s">
+      <c r="J167" t="s">
         <v>15</v>
       </c>
       <c r="K167">
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
@@ -18984,14 +19235,14 @@
       <c r="I168" s="2">
         <v>44571</v>
       </c>
-      <c r="J168" s="3" t="s">
+      <c r="J168" t="s">
         <v>15</v>
       </c>
       <c r="K168">
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
@@ -19019,14 +19270,14 @@
       <c r="I169" s="2">
         <v>44571</v>
       </c>
-      <c r="J169" s="3" t="s">
+      <c r="J169" t="s">
         <v>15</v>
       </c>
       <c r="K169">
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
@@ -19054,14 +19305,17 @@
       <c r="I170" s="2">
         <v>44571</v>
       </c>
-      <c r="J170" s="3" t="s">
+      <c r="J170" t="s">
         <v>15</v>
       </c>
       <c r="K170">
         <v>10</v>
       </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="N170" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
@@ -19089,14 +19343,14 @@
       <c r="I171" s="2">
         <v>44571</v>
       </c>
-      <c r="J171" s="3" t="s">
+      <c r="J171" t="s">
         <v>15</v>
       </c>
       <c r="K171">
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
@@ -19124,14 +19378,14 @@
       <c r="I172" s="2">
         <v>44571</v>
       </c>
-      <c r="J172" s="3" t="s">
+      <c r="J172" t="s">
         <v>15</v>
       </c>
       <c r="K172">
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
@@ -19159,14 +19413,14 @@
       <c r="I173" s="2">
         <v>44571</v>
       </c>
-      <c r="J173" s="3" t="s">
+      <c r="J173" t="s">
         <v>15</v>
       </c>
       <c r="K173">
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
@@ -19194,14 +19448,14 @@
       <c r="I174" s="2">
         <v>44571</v>
       </c>
-      <c r="J174" s="3" t="s">
+      <c r="J174" t="s">
         <v>15</v>
       </c>
       <c r="K174">
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
@@ -19229,14 +19483,14 @@
       <c r="I175" s="2">
         <v>44571</v>
       </c>
-      <c r="J175" s="3" t="s">
+      <c r="J175" t="s">
         <v>15</v>
       </c>
       <c r="K175">
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>
@@ -19264,7 +19518,7 @@
       <c r="I176" s="2">
         <v>44571</v>
       </c>
-      <c r="J176" s="3" t="s">
+      <c r="J176" t="s">
         <v>15</v>
       </c>
       <c r="K176">
@@ -19299,7 +19553,7 @@
       <c r="I177" s="2">
         <v>44571</v>
       </c>
-      <c r="J177" s="3" t="s">
+      <c r="J177" t="s">
         <v>15</v>
       </c>
       <c r="K177">
@@ -19334,7 +19588,7 @@
       <c r="I178" s="2">
         <v>44571</v>
       </c>
-      <c r="J178" s="3" t="s">
+      <c r="J178" t="s">
         <v>15</v>
       </c>
       <c r="K178">
@@ -19369,7 +19623,7 @@
       <c r="I179" s="2">
         <v>44571</v>
       </c>
-      <c r="J179" s="3" t="s">
+      <c r="J179" t="s">
         <v>15</v>
       </c>
       <c r="K179">
@@ -19404,7 +19658,7 @@
       <c r="I180" s="2">
         <v>44571</v>
       </c>
-      <c r="J180" s="3" t="s">
+      <c r="J180" t="s">
         <v>15</v>
       </c>
       <c r="K180">
@@ -19439,7 +19693,7 @@
       <c r="I181" s="2">
         <v>44571</v>
       </c>
-      <c r="J181" s="3" t="s">
+      <c r="J181" t="s">
         <v>15</v>
       </c>
       <c r="K181">
@@ -19474,7 +19728,7 @@
       <c r="I182" s="2">
         <v>44571</v>
       </c>
-      <c r="J182" s="3" t="s">
+      <c r="J182" t="s">
         <v>15</v>
       </c>
       <c r="K182">
@@ -19509,7 +19763,7 @@
       <c r="I183" s="2">
         <v>44571</v>
       </c>
-      <c r="J183" s="3" t="s">
+      <c r="J183" t="s">
         <v>15</v>
       </c>
       <c r="K183">
@@ -19544,7 +19798,7 @@
       <c r="I184" s="2">
         <v>44571</v>
       </c>
-      <c r="J184" s="3" t="s">
+      <c r="J184" t="s">
         <v>15</v>
       </c>
       <c r="K184">
@@ -19579,7 +19833,7 @@
       <c r="I185" s="2">
         <v>44571</v>
       </c>
-      <c r="J185" s="3" t="s">
+      <c r="J185" t="s">
         <v>15</v>
       </c>
       <c r="K185">
@@ -19614,7 +19868,7 @@
       <c r="I186" s="2">
         <v>44571</v>
       </c>
-      <c r="J186" s="3" t="s">
+      <c r="J186" t="s">
         <v>15</v>
       </c>
       <c r="K186">
@@ -19649,7 +19903,7 @@
       <c r="I187" s="2">
         <v>44571</v>
       </c>
-      <c r="J187" s="3" t="s">
+      <c r="J187" t="s">
         <v>15</v>
       </c>
       <c r="K187">
@@ -19684,7 +19938,7 @@
       <c r="I188" s="2">
         <v>44571</v>
       </c>
-      <c r="J188" s="3" t="s">
+      <c r="J188" t="s">
         <v>15</v>
       </c>
       <c r="K188">
@@ -19719,7 +19973,7 @@
       <c r="I189" s="2">
         <v>44571</v>
       </c>
-      <c r="J189" s="3" t="s">
+      <c r="J189" t="s">
         <v>15</v>
       </c>
       <c r="K189">
@@ -19754,7 +20008,7 @@
       <c r="I190" s="2">
         <v>44571</v>
       </c>
-      <c r="J190" s="3" t="s">
+      <c r="J190" t="s">
         <v>15</v>
       </c>
       <c r="K190">
@@ -19789,7 +20043,7 @@
       <c r="I191" s="2">
         <v>44571</v>
       </c>
-      <c r="J191" s="3" t="s">
+      <c r="J191" t="s">
         <v>15</v>
       </c>
       <c r="K191">
@@ -19824,7 +20078,7 @@
       <c r="I192" s="2">
         <v>44571</v>
       </c>
-      <c r="J192" s="3" t="s">
+      <c r="J192" t="s">
         <v>15</v>
       </c>
       <c r="K192">
@@ -19859,7 +20113,7 @@
       <c r="I193" s="2">
         <v>44571</v>
       </c>
-      <c r="J193" s="3" t="s">
+      <c r="J193" t="s">
         <v>15</v>
       </c>
       <c r="K193">
@@ -19894,7 +20148,7 @@
       <c r="I194" s="2">
         <v>44571</v>
       </c>
-      <c r="J194" s="3" t="s">
+      <c r="J194" t="s">
         <v>15</v>
       </c>
       <c r="K194">
@@ -19929,7 +20183,7 @@
       <c r="I195" s="2">
         <v>44571</v>
       </c>
-      <c r="J195" s="3" t="s">
+      <c r="J195" t="s">
         <v>15</v>
       </c>
       <c r="K195">
@@ -19964,7 +20218,7 @@
       <c r="I196" s="2">
         <v>44571</v>
       </c>
-      <c r="J196" s="3" t="s">
+      <c r="J196" t="s">
         <v>15</v>
       </c>
       <c r="K196">
@@ -19999,7 +20253,7 @@
       <c r="I197" s="2">
         <v>44571</v>
       </c>
-      <c r="J197" s="3" t="s">
+      <c r="J197" t="s">
         <v>15</v>
       </c>
       <c r="K197">
@@ -20034,7 +20288,7 @@
       <c r="I198" s="2">
         <v>44571</v>
       </c>
-      <c r="J198" s="3" t="s">
+      <c r="J198" t="s">
         <v>15</v>
       </c>
       <c r="K198">
@@ -20069,7 +20323,7 @@
       <c r="I199" s="2">
         <v>44571</v>
       </c>
-      <c r="J199" s="3" t="s">
+      <c r="J199" t="s">
         <v>15</v>
       </c>
       <c r="K199">
@@ -20104,7 +20358,7 @@
       <c r="I200" s="2">
         <v>44571</v>
       </c>
-      <c r="J200" s="3" t="s">
+      <c r="J200" t="s">
         <v>15</v>
       </c>
       <c r="K200">
@@ -20139,7 +20393,7 @@
       <c r="I201" s="2">
         <v>44571</v>
       </c>
-      <c r="J201" s="3" t="s">
+      <c r="J201" t="s">
         <v>15</v>
       </c>
       <c r="K201">
@@ -20174,7 +20428,7 @@
       <c r="I202" s="2">
         <v>44571</v>
       </c>
-      <c r="J202" s="3" t="s">
+      <c r="J202" t="s">
         <v>15</v>
       </c>
       <c r="K202">
@@ -20209,7 +20463,7 @@
       <c r="I203" s="2">
         <v>44571</v>
       </c>
-      <c r="J203" s="3" t="s">
+      <c r="J203" t="s">
         <v>15</v>
       </c>
       <c r="K203">
@@ -20244,7 +20498,7 @@
       <c r="I204" s="2">
         <v>44571</v>
       </c>
-      <c r="J204" s="3" t="s">
+      <c r="J204" t="s">
         <v>15</v>
       </c>
       <c r="K204">
@@ -20279,7 +20533,7 @@
       <c r="I205" s="2">
         <v>44571</v>
       </c>
-      <c r="J205" s="3" t="s">
+      <c r="J205" t="s">
         <v>15</v>
       </c>
       <c r="K205">
@@ -20314,7 +20568,7 @@
       <c r="I206" s="2">
         <v>44571</v>
       </c>
-      <c r="J206" s="3" t="s">
+      <c r="J206" t="s">
         <v>15</v>
       </c>
       <c r="K206">
@@ -20349,7 +20603,7 @@
       <c r="I207" s="2">
         <v>44571</v>
       </c>
-      <c r="J207" s="3" t="s">
+      <c r="J207" t="s">
         <v>15</v>
       </c>
       <c r="K207">
@@ -20384,7 +20638,7 @@
       <c r="I208" s="2">
         <v>44571</v>
       </c>
-      <c r="J208" s="3" t="s">
+      <c r="J208" t="s">
         <v>15</v>
       </c>
       <c r="K208">
@@ -20419,7 +20673,7 @@
       <c r="I209" s="2">
         <v>44571</v>
       </c>
-      <c r="J209" s="3" t="s">
+      <c r="J209" t="s">
         <v>15</v>
       </c>
       <c r="K209">
@@ -20454,7 +20708,7 @@
       <c r="I210" s="2">
         <v>44571</v>
       </c>
-      <c r="J210" s="3" t="s">
+      <c r="J210" t="s">
         <v>15</v>
       </c>
       <c r="K210">
@@ -20489,7 +20743,7 @@
       <c r="I211" s="2">
         <v>44571</v>
       </c>
-      <c r="J211" s="3" t="s">
+      <c r="J211" t="s">
         <v>15</v>
       </c>
       <c r="K211">
@@ -20524,7 +20778,7 @@
       <c r="I212" s="2">
         <v>44571</v>
       </c>
-      <c r="J212" s="3" t="s">
+      <c r="J212" t="s">
         <v>15</v>
       </c>
       <c r="K212">
@@ -20559,7 +20813,7 @@
       <c r="I213" s="2">
         <v>44569</v>
       </c>
-      <c r="J213" s="3" t="s">
+      <c r="J213" t="s">
         <v>15</v>
       </c>
       <c r="K213">
@@ -20594,7 +20848,7 @@
       <c r="I214" s="2">
         <v>44569</v>
       </c>
-      <c r="J214" s="3" t="s">
+      <c r="J214" t="s">
         <v>15</v>
       </c>
       <c r="K214">
@@ -20629,7 +20883,7 @@
       <c r="I215" s="2">
         <v>44568</v>
       </c>
-      <c r="J215" s="3" t="s">
+      <c r="J215" t="s">
         <v>15</v>
       </c>
       <c r="K215">
@@ -20664,7 +20918,7 @@
       <c r="I216" s="2">
         <v>44568</v>
       </c>
-      <c r="J216" s="3" t="s">
+      <c r="J216" t="s">
         <v>15</v>
       </c>
       <c r="K216">
@@ -20699,7 +20953,7 @@
       <c r="I217" s="2">
         <v>44568</v>
       </c>
-      <c r="J217" s="3" t="s">
+      <c r="J217" t="s">
         <v>15</v>
       </c>
       <c r="K217">
@@ -20734,7 +20988,7 @@
       <c r="I218" s="2">
         <v>44568</v>
       </c>
-      <c r="J218" s="3" t="s">
+      <c r="J218" t="s">
         <v>15</v>
       </c>
       <c r="K218">
@@ -20769,7 +21023,7 @@
       <c r="I219" s="2">
         <v>44568</v>
       </c>
-      <c r="J219" s="3" t="s">
+      <c r="J219" t="s">
         <v>15</v>
       </c>
       <c r="K219">
@@ -20804,7 +21058,7 @@
       <c r="I220" s="2">
         <v>44568</v>
       </c>
-      <c r="J220" s="3" t="s">
+      <c r="J220" t="s">
         <v>15</v>
       </c>
       <c r="K220">
@@ -20839,7 +21093,7 @@
       <c r="I221" s="2">
         <v>44568</v>
       </c>
-      <c r="J221" s="3" t="s">
+      <c r="J221" t="s">
         <v>15</v>
       </c>
       <c r="K221">
@@ -20874,7 +21128,7 @@
       <c r="I222" s="2">
         <v>44568</v>
       </c>
-      <c r="J222" s="3" t="s">
+      <c r="J222" t="s">
         <v>15</v>
       </c>
       <c r="K222">
@@ -20909,7 +21163,7 @@
       <c r="I223" s="2">
         <v>44568</v>
       </c>
-      <c r="J223" s="3" t="s">
+      <c r="J223" t="s">
         <v>15</v>
       </c>
       <c r="K223">
@@ -20944,7 +21198,7 @@
       <c r="I224" s="2">
         <v>44568</v>
       </c>
-      <c r="J224" s="3" t="s">
+      <c r="J224" t="s">
         <v>15</v>
       </c>
       <c r="K224">
@@ -20979,7 +21233,7 @@
       <c r="I225" s="2">
         <v>44568</v>
       </c>
-      <c r="J225" s="3" t="s">
+      <c r="J225" t="s">
         <v>15</v>
       </c>
       <c r="K225">
@@ -21014,7 +21268,7 @@
       <c r="I226" s="2">
         <v>44568</v>
       </c>
-      <c r="J226" s="3" t="s">
+      <c r="J226" t="s">
         <v>15</v>
       </c>
       <c r="K226">
@@ -21049,7 +21303,7 @@
       <c r="I227" s="2">
         <v>44568</v>
       </c>
-      <c r="J227" s="3" t="s">
+      <c r="J227" t="s">
         <v>15</v>
       </c>
       <c r="K227">
@@ -21084,7 +21338,7 @@
       <c r="I228" s="2">
         <v>44568</v>
       </c>
-      <c r="J228" s="3" t="s">
+      <c r="J228" t="s">
         <v>15</v>
       </c>
       <c r="K228">
@@ -21119,7 +21373,7 @@
       <c r="I229" s="2">
         <v>44568</v>
       </c>
-      <c r="J229" s="3" t="s">
+      <c r="J229" t="s">
         <v>15</v>
       </c>
       <c r="K229">
@@ -21154,7 +21408,7 @@
       <c r="I230" s="2">
         <v>44568</v>
       </c>
-      <c r="J230" s="3" t="s">
+      <c r="J230" t="s">
         <v>15</v>
       </c>
       <c r="K230">
@@ -21189,7 +21443,7 @@
       <c r="I231" s="2">
         <v>44568</v>
       </c>
-      <c r="J231" s="3" t="s">
+      <c r="J231" t="s">
         <v>15</v>
       </c>
       <c r="K231">
@@ -21224,7 +21478,7 @@
       <c r="I232" s="2">
         <v>44568</v>
       </c>
-      <c r="J232" s="3" t="s">
+      <c r="J232" t="s">
         <v>15</v>
       </c>
       <c r="K232">
@@ -21259,7 +21513,7 @@
       <c r="I233" s="2">
         <v>44568</v>
       </c>
-      <c r="J233" s="3" t="s">
+      <c r="J233" t="s">
         <v>15</v>
       </c>
       <c r="K233">
@@ -21294,7 +21548,7 @@
       <c r="I234" s="2">
         <v>44568</v>
       </c>
-      <c r="J234" s="3" t="s">
+      <c r="J234" t="s">
         <v>15</v>
       </c>
       <c r="K234">
@@ -21329,7 +21583,7 @@
       <c r="I235" s="2">
         <v>44568</v>
       </c>
-      <c r="J235" s="3" t="s">
+      <c r="J235" t="s">
         <v>15</v>
       </c>
       <c r="K235">
@@ -21364,7 +21618,7 @@
       <c r="I236" s="2">
         <v>44568</v>
       </c>
-      <c r="J236" s="3" t="s">
+      <c r="J236" t="s">
         <v>15</v>
       </c>
       <c r="K236">
@@ -21399,7 +21653,7 @@
       <c r="I237" s="2">
         <v>44568</v>
       </c>
-      <c r="J237" s="3" t="s">
+      <c r="J237" t="s">
         <v>15</v>
       </c>
       <c r="K237">
@@ -21434,7 +21688,7 @@
       <c r="I238" s="2">
         <v>44568</v>
       </c>
-      <c r="J238" s="3" t="s">
+      <c r="J238" t="s">
         <v>15</v>
       </c>
       <c r="K238">
@@ -21469,7 +21723,7 @@
       <c r="I239" s="2">
         <v>44568</v>
       </c>
-      <c r="J239" s="3" t="s">
+      <c r="J239" t="s">
         <v>15</v>
       </c>
       <c r="K239">
@@ -21504,7 +21758,7 @@
       <c r="I240" s="2">
         <v>44568</v>
       </c>
-      <c r="J240" s="3" t="s">
+      <c r="J240" t="s">
         <v>15</v>
       </c>
       <c r="K240">
@@ -21539,7 +21793,7 @@
       <c r="I241" s="2">
         <v>44568</v>
       </c>
-      <c r="J241" s="3" t="s">
+      <c r="J241" t="s">
         <v>15</v>
       </c>
       <c r="K241">
@@ -21574,7 +21828,7 @@
       <c r="I242" s="2">
         <v>44568</v>
       </c>
-      <c r="J242" s="3" t="s">
+      <c r="J242" t="s">
         <v>15</v>
       </c>
       <c r="K242">
@@ -21609,7 +21863,7 @@
       <c r="I243" s="2">
         <v>44568</v>
       </c>
-      <c r="J243" s="3" t="s">
+      <c r="J243" t="s">
         <v>15</v>
       </c>
       <c r="K243">
@@ -21644,7 +21898,7 @@
       <c r="I244" s="2">
         <v>44568</v>
       </c>
-      <c r="J244" s="3" t="s">
+      <c r="J244" t="s">
         <v>15</v>
       </c>
       <c r="K244">
@@ -21679,7 +21933,7 @@
       <c r="I245" s="2">
         <v>44568</v>
       </c>
-      <c r="J245" s="3" t="s">
+      <c r="J245" t="s">
         <v>15</v>
       </c>
       <c r="K245">
@@ -21714,7 +21968,7 @@
       <c r="I246" s="2">
         <v>44568</v>
       </c>
-      <c r="J246" s="3" t="s">
+      <c r="J246" t="s">
         <v>15</v>
       </c>
       <c r="K246">
@@ -21749,7 +22003,7 @@
       <c r="I247" s="2">
         <v>44568</v>
       </c>
-      <c r="J247" s="3" t="s">
+      <c r="J247" t="s">
         <v>15</v>
       </c>
       <c r="K247">
@@ -21784,7 +22038,7 @@
       <c r="I248" s="2">
         <v>44568</v>
       </c>
-      <c r="J248" s="3" t="s">
+      <c r="J248" t="s">
         <v>15</v>
       </c>
       <c r="K248">
@@ -21819,7 +22073,7 @@
       <c r="I249" s="2">
         <v>44568</v>
       </c>
-      <c r="J249" s="3" t="s">
+      <c r="J249" t="s">
         <v>15</v>
       </c>
       <c r="K249">
@@ -21854,7 +22108,7 @@
       <c r="I250" s="2">
         <v>44567</v>
       </c>
-      <c r="J250" s="3" t="s">
+      <c r="J250" t="s">
         <v>15</v>
       </c>
       <c r="K250">
@@ -21889,7 +22143,7 @@
       <c r="I251" s="2">
         <v>44567</v>
       </c>
-      <c r="J251" s="3" t="s">
+      <c r="J251" t="s">
         <v>15</v>
       </c>
       <c r="K251">
@@ -21924,7 +22178,7 @@
       <c r="I252" s="2">
         <v>44566</v>
       </c>
-      <c r="J252" s="3" t="s">
+      <c r="J252" t="s">
         <v>15</v>
       </c>
       <c r="K252">
@@ -21959,7 +22213,7 @@
       <c r="I253" s="2">
         <v>44566</v>
       </c>
-      <c r="J253" s="3" t="s">
+      <c r="J253" t="s">
         <v>15</v>
       </c>
       <c r="K253">
@@ -21994,7 +22248,7 @@
       <c r="I254" s="2">
         <v>44566</v>
       </c>
-      <c r="J254" s="3" t="s">
+      <c r="J254" t="s">
         <v>15</v>
       </c>
       <c r="K254">
@@ -22029,7 +22283,7 @@
       <c r="I255" s="2">
         <v>44566</v>
       </c>
-      <c r="J255" s="3" t="s">
+      <c r="J255" t="s">
         <v>15</v>
       </c>
       <c r="K255">
@@ -22064,7 +22318,7 @@
       <c r="I256" s="2">
         <v>44566</v>
       </c>
-      <c r="J256" s="3" t="s">
+      <c r="J256" t="s">
         <v>15</v>
       </c>
       <c r="K256">
@@ -22099,7 +22353,7 @@
       <c r="I257" s="2">
         <v>44566</v>
       </c>
-      <c r="J257" s="3" t="s">
+      <c r="J257" t="s">
         <v>15</v>
       </c>
       <c r="K257">
@@ -22134,7 +22388,7 @@
       <c r="I258" s="2">
         <v>44566</v>
       </c>
-      <c r="J258" s="3" t="s">
+      <c r="J258" t="s">
         <v>15</v>
       </c>
       <c r="K258">
@@ -22169,7 +22423,7 @@
       <c r="I259" s="2">
         <v>44566</v>
       </c>
-      <c r="J259" s="3" t="s">
+      <c r="J259" t="s">
         <v>15</v>
       </c>
       <c r="K259">
@@ -22204,7 +22458,7 @@
       <c r="I260" s="2">
         <v>44566</v>
       </c>
-      <c r="J260" s="3" t="s">
+      <c r="J260" t="s">
         <v>15</v>
       </c>
       <c r="K260">
@@ -22239,7 +22493,7 @@
       <c r="I261" s="2">
         <v>44566</v>
       </c>
-      <c r="J261" s="3" t="s">
+      <c r="J261" t="s">
         <v>15</v>
       </c>
       <c r="K261">
@@ -22274,7 +22528,7 @@
       <c r="I262" s="2">
         <v>44566</v>
       </c>
-      <c r="J262" s="3" t="s">
+      <c r="J262" t="s">
         <v>15</v>
       </c>
       <c r="K262">
@@ -22309,7 +22563,7 @@
       <c r="I263" s="2">
         <v>44566</v>
       </c>
-      <c r="J263" s="3" t="s">
+      <c r="J263" t="s">
         <v>15</v>
       </c>
       <c r="K263">
@@ -22344,7 +22598,7 @@
       <c r="I264" s="2">
         <v>44566</v>
       </c>
-      <c r="J264" s="3" t="s">
+      <c r="J264" t="s">
         <v>15</v>
       </c>
       <c r="K264">
@@ -22379,7 +22633,7 @@
       <c r="I265" s="2">
         <v>44566</v>
       </c>
-      <c r="J265" s="3" t="s">
+      <c r="J265" t="s">
         <v>15</v>
       </c>
       <c r="K265">
@@ -22414,7 +22668,7 @@
       <c r="I266" s="2">
         <v>44566</v>
       </c>
-      <c r="J266" s="3" t="s">
+      <c r="J266" t="s">
         <v>15</v>
       </c>
       <c r="K266">
@@ -22449,7 +22703,7 @@
       <c r="I267" s="2">
         <v>44566</v>
       </c>
-      <c r="J267" s="3" t="s">
+      <c r="J267" t="s">
         <v>15</v>
       </c>
       <c r="K267">
@@ -22484,7 +22738,7 @@
       <c r="I268" s="2">
         <v>44566</v>
       </c>
-      <c r="J268" s="3" t="s">
+      <c r="J268" t="s">
         <v>15</v>
       </c>
       <c r="K268">
@@ -22519,7 +22773,7 @@
       <c r="I269" s="2">
         <v>44566</v>
       </c>
-      <c r="J269" s="3" t="s">
+      <c r="J269" t="s">
         <v>15</v>
       </c>
       <c r="K269">
@@ -22554,7 +22808,7 @@
       <c r="I270" s="2">
         <v>44566</v>
       </c>
-      <c r="J270" s="3" t="s">
+      <c r="J270" t="s">
         <v>15</v>
       </c>
       <c r="K270">
@@ -22589,7 +22843,7 @@
       <c r="I271" s="2">
         <v>44566</v>
       </c>
-      <c r="J271" s="3" t="s">
+      <c r="J271" t="s">
         <v>15</v>
       </c>
       <c r="K271">
@@ -22624,7 +22878,7 @@
       <c r="I272" s="2">
         <v>44566</v>
       </c>
-      <c r="J272" s="3" t="s">
+      <c r="J272" t="s">
         <v>15</v>
       </c>
       <c r="K272">
@@ -22659,7 +22913,7 @@
       <c r="I273" s="2">
         <v>44566</v>
       </c>
-      <c r="J273" s="3" t="s">
+      <c r="J273" t="s">
         <v>15</v>
       </c>
       <c r="K273">
@@ -22694,7 +22948,7 @@
       <c r="I274" s="2">
         <v>44566</v>
       </c>
-      <c r="J274" s="3" t="s">
+      <c r="J274" t="s">
         <v>15</v>
       </c>
       <c r="K274">
@@ -22729,7 +22983,7 @@
       <c r="I275" s="2">
         <v>44566</v>
       </c>
-      <c r="J275" s="3" t="s">
+      <c r="J275" t="s">
         <v>15</v>
       </c>
       <c r="K275">
@@ -22764,7 +23018,7 @@
       <c r="I276" s="2">
         <v>44566</v>
       </c>
-      <c r="J276" s="3" t="s">
+      <c r="J276" t="s">
         <v>15</v>
       </c>
       <c r="K276">
@@ -22799,7 +23053,7 @@
       <c r="I277" s="2">
         <v>44566</v>
       </c>
-      <c r="J277" s="3" t="s">
+      <c r="J277" t="s">
         <v>15</v>
       </c>
       <c r="K277">
@@ -22834,7 +23088,7 @@
       <c r="I278" s="2">
         <v>44566</v>
       </c>
-      <c r="J278" s="3" t="s">
+      <c r="J278" t="s">
         <v>15</v>
       </c>
       <c r="K278">
@@ -22869,7 +23123,7 @@
       <c r="I279" s="2">
         <v>44566</v>
       </c>
-      <c r="J279" s="3" t="s">
+      <c r="J279" t="s">
         <v>15</v>
       </c>
       <c r="K279">
@@ -22904,7 +23158,7 @@
       <c r="I280" s="2">
         <v>44566</v>
       </c>
-      <c r="J280" s="3" t="s">
+      <c r="J280" t="s">
         <v>15</v>
       </c>
       <c r="K280">
@@ -22939,7 +23193,7 @@
       <c r="I281" s="2">
         <v>44566</v>
       </c>
-      <c r="J281" s="3" t="s">
+      <c r="J281" t="s">
         <v>15</v>
       </c>
       <c r="K281">
@@ -22974,7 +23228,7 @@
       <c r="I282" s="2">
         <v>44566</v>
       </c>
-      <c r="J282" s="3" t="s">
+      <c r="J282" t="s">
         <v>15</v>
       </c>
       <c r="K282">
@@ -23009,7 +23263,7 @@
       <c r="I283" s="2">
         <v>44566</v>
       </c>
-      <c r="J283" s="3" t="s">
+      <c r="J283" t="s">
         <v>15</v>
       </c>
       <c r="K283">
@@ -23044,7 +23298,7 @@
       <c r="I284" s="2">
         <v>44566</v>
       </c>
-      <c r="J284" s="3" t="s">
+      <c r="J284" t="s">
         <v>15</v>
       </c>
       <c r="K284">
@@ -23079,7 +23333,7 @@
       <c r="I285" s="2">
         <v>44566</v>
       </c>
-      <c r="J285" s="3" t="s">
+      <c r="J285" t="s">
         <v>15</v>
       </c>
       <c r="K285">
@@ -23114,7 +23368,7 @@
       <c r="I286" s="2">
         <v>44566</v>
       </c>
-      <c r="J286" s="3" t="s">
+      <c r="J286" t="s">
         <v>15</v>
       </c>
       <c r="K286">
@@ -23149,7 +23403,7 @@
       <c r="I287" s="2">
         <v>44566</v>
       </c>
-      <c r="J287" s="3" t="s">
+      <c r="J287" t="s">
         <v>15</v>
       </c>
       <c r="K287">
@@ -23184,7 +23438,7 @@
       <c r="I288" s="2">
         <v>44566</v>
       </c>
-      <c r="J288" s="3" t="s">
+      <c r="J288" t="s">
         <v>15</v>
       </c>
       <c r="K288">
@@ -23219,7 +23473,7 @@
       <c r="I289" s="2">
         <v>44566</v>
       </c>
-      <c r="J289" s="3" t="s">
+      <c r="J289" t="s">
         <v>15</v>
       </c>
       <c r="K289">
@@ -23254,7 +23508,7 @@
       <c r="I290" s="2">
         <v>44566</v>
       </c>
-      <c r="J290" s="3" t="s">
+      <c r="J290" t="s">
         <v>15</v>
       </c>
       <c r="K290">
@@ -23289,7 +23543,7 @@
       <c r="I291" s="2">
         <v>44566</v>
       </c>
-      <c r="J291" s="3" t="s">
+      <c r="J291" t="s">
         <v>15</v>
       </c>
       <c r="K291">
@@ -23324,7 +23578,7 @@
       <c r="I292" s="2">
         <v>44566</v>
       </c>
-      <c r="J292" s="3" t="s">
+      <c r="J292" t="s">
         <v>15</v>
       </c>
       <c r="K292">
@@ -23359,7 +23613,7 @@
       <c r="I293" s="2">
         <v>44566</v>
       </c>
-      <c r="J293" s="3" t="s">
+      <c r="J293" t="s">
         <v>15</v>
       </c>
       <c r="K293">
@@ -23394,7 +23648,7 @@
       <c r="I294" s="2">
         <v>44566</v>
       </c>
-      <c r="J294" s="3" t="s">
+      <c r="J294" t="s">
         <v>15</v>
       </c>
       <c r="K294">
@@ -23429,7 +23683,7 @@
       <c r="I295" s="2">
         <v>44566</v>
       </c>
-      <c r="J295" s="3" t="s">
+      <c r="J295" t="s">
         <v>15</v>
       </c>
       <c r="K295">
@@ -23464,7 +23718,7 @@
       <c r="I296" s="2">
         <v>44566</v>
       </c>
-      <c r="J296" s="3" t="s">
+      <c r="J296" t="s">
         <v>15</v>
       </c>
       <c r="K296">
@@ -23499,7 +23753,7 @@
       <c r="I297" s="2">
         <v>44566</v>
       </c>
-      <c r="J297" s="3" t="s">
+      <c r="J297" t="s">
         <v>15</v>
       </c>
       <c r="K297">
@@ -23534,7 +23788,7 @@
       <c r="I298" s="2">
         <v>44566</v>
       </c>
-      <c r="J298" s="3" t="s">
+      <c r="J298" t="s">
         <v>15</v>
       </c>
       <c r="K298">
@@ -23569,7 +23823,7 @@
       <c r="I299" s="2">
         <v>44566</v>
       </c>
-      <c r="J299" s="3" t="s">
+      <c r="J299" t="s">
         <v>15</v>
       </c>
       <c r="K299">
@@ -23604,7 +23858,7 @@
       <c r="I300" s="2">
         <v>44566</v>
       </c>
-      <c r="J300" s="3" t="s">
+      <c r="J300" t="s">
         <v>15</v>
       </c>
       <c r="K300">
@@ -23639,7 +23893,7 @@
       <c r="I301" s="2">
         <v>44566</v>
       </c>
-      <c r="J301" s="3" t="s">
+      <c r="J301" t="s">
         <v>15</v>
       </c>
       <c r="K301">
@@ -23674,7 +23928,7 @@
       <c r="I302" s="2">
         <v>44566</v>
       </c>
-      <c r="J302" s="3" t="s">
+      <c r="J302" t="s">
         <v>15</v>
       </c>
       <c r="K302">
@@ -23709,7 +23963,7 @@
       <c r="I303" s="2">
         <v>44566</v>
       </c>
-      <c r="J303" s="3" t="s">
+      <c r="J303" t="s">
         <v>15</v>
       </c>
       <c r="K303">
@@ -23744,7 +23998,7 @@
       <c r="I304" s="2">
         <v>44566</v>
       </c>
-      <c r="J304" s="3" t="s">
+      <c r="J304" t="s">
         <v>15</v>
       </c>
       <c r="K304">
@@ -23779,7 +24033,7 @@
       <c r="I305" s="2">
         <v>44566</v>
       </c>
-      <c r="J305" s="3" t="s">
+      <c r="J305" t="s">
         <v>15</v>
       </c>
       <c r="K305">
@@ -23814,7 +24068,7 @@
       <c r="I306" s="2">
         <v>44566</v>
       </c>
-      <c r="J306" s="3" t="s">
+      <c r="J306" t="s">
         <v>15</v>
       </c>
       <c r="K306">
@@ -23849,7 +24103,7 @@
       <c r="I307" s="2">
         <v>44566</v>
       </c>
-      <c r="J307" s="3" t="s">
+      <c r="J307" t="s">
         <v>15</v>
       </c>
       <c r="K307">
@@ -23884,7 +24138,7 @@
       <c r="I308" s="2">
         <v>44566</v>
       </c>
-      <c r="J308" s="3" t="s">
+      <c r="J308" t="s">
         <v>15</v>
       </c>
       <c r="K308">
@@ -23919,7 +24173,7 @@
       <c r="I309" s="2">
         <v>44566</v>
       </c>
-      <c r="J309" s="3" t="s">
+      <c r="J309" t="s">
         <v>15</v>
       </c>
       <c r="K309">
@@ -23954,7 +24208,7 @@
       <c r="I310" s="2">
         <v>44566</v>
       </c>
-      <c r="J310" s="3" t="s">
+      <c r="J310" t="s">
         <v>15</v>
       </c>
       <c r="K310">
@@ -23989,7 +24243,7 @@
       <c r="I311" s="2">
         <v>44566</v>
       </c>
-      <c r="J311" s="3" t="s">
+      <c r="J311" t="s">
         <v>15</v>
       </c>
       <c r="K311">
@@ -24024,7 +24278,7 @@
       <c r="I312" s="2">
         <v>44566</v>
       </c>
-      <c r="J312" s="3" t="s">
+      <c r="J312" t="s">
         <v>15</v>
       </c>
       <c r="K312">
@@ -24059,7 +24313,7 @@
       <c r="I313" s="2">
         <v>44566</v>
       </c>
-      <c r="J313" s="3" t="s">
+      <c r="J313" t="s">
         <v>15</v>
       </c>
       <c r="K313">
@@ -24094,7 +24348,7 @@
       <c r="I314" s="2">
         <v>44566</v>
       </c>
-      <c r="J314" s="3" t="s">
+      <c r="J314" t="s">
         <v>15</v>
       </c>
       <c r="K314">
@@ -24129,7 +24383,7 @@
       <c r="I315" s="2">
         <v>44566</v>
       </c>
-      <c r="J315" s="3" t="s">
+      <c r="J315" t="s">
         <v>15</v>
       </c>
       <c r="K315">
@@ -24164,7 +24418,7 @@
       <c r="I316" s="2">
         <v>44566</v>
       </c>
-      <c r="J316" s="3" t="s">
+      <c r="J316" t="s">
         <v>15</v>
       </c>
       <c r="K316">
@@ -24199,7 +24453,7 @@
       <c r="I317" s="2">
         <v>44566</v>
       </c>
-      <c r="J317" s="3" t="s">
+      <c r="J317" t="s">
         <v>15</v>
       </c>
       <c r="K317">
@@ -24234,7 +24488,7 @@
       <c r="I318" s="2">
         <v>44566</v>
       </c>
-      <c r="J318" s="3" t="s">
+      <c r="J318" t="s">
         <v>15</v>
       </c>
       <c r="K318">
@@ -24269,7 +24523,7 @@
       <c r="I319" s="2">
         <v>44566</v>
       </c>
-      <c r="J319" s="3" t="s">
+      <c r="J319" t="s">
         <v>15</v>
       </c>
       <c r="K319">
@@ -24304,7 +24558,7 @@
       <c r="I320" s="2">
         <v>44566</v>
       </c>
-      <c r="J320" s="3" t="s">
+      <c r="J320" t="s">
         <v>15</v>
       </c>
       <c r="K320">
@@ -24339,7 +24593,7 @@
       <c r="I321" s="2">
         <v>44566</v>
       </c>
-      <c r="J321" s="3" t="s">
+      <c r="J321" t="s">
         <v>15</v>
       </c>
       <c r="K321">
@@ -24374,7 +24628,7 @@
       <c r="I322" s="2">
         <v>44566</v>
       </c>
-      <c r="J322" s="3" t="s">
+      <c r="J322" t="s">
         <v>15</v>
       </c>
       <c r="K322">
@@ -24409,7 +24663,7 @@
       <c r="I323" s="2">
         <v>44566</v>
       </c>
-      <c r="J323" s="3" t="s">
+      <c r="J323" t="s">
         <v>15</v>
       </c>
       <c r="K323">
@@ -24444,7 +24698,7 @@
       <c r="I324" s="2">
         <v>44566</v>
       </c>
-      <c r="J324" s="3" t="s">
+      <c r="J324" t="s">
         <v>15</v>
       </c>
       <c r="K324">
@@ -24479,7 +24733,7 @@
       <c r="I325" s="2">
         <v>44566</v>
       </c>
-      <c r="J325" s="3" t="s">
+      <c r="J325" t="s">
         <v>15</v>
       </c>
       <c r="K325">
@@ -24514,7 +24768,7 @@
       <c r="I326" s="2">
         <v>44566</v>
       </c>
-      <c r="J326" s="3" t="s">
+      <c r="J326" t="s">
         <v>15</v>
       </c>
       <c r="K326">
@@ -24549,7 +24803,7 @@
       <c r="I327" s="2">
         <v>44566</v>
       </c>
-      <c r="J327" s="3" t="s">
+      <c r="J327" t="s">
         <v>15</v>
       </c>
       <c r="K327">
@@ -24584,7 +24838,7 @@
       <c r="I328" s="2">
         <v>44566</v>
       </c>
-      <c r="J328" s="3" t="s">
+      <c r="J328" t="s">
         <v>15</v>
       </c>
       <c r="K328">
@@ -24619,7 +24873,7 @@
       <c r="I329" s="2">
         <v>44566</v>
       </c>
-      <c r="J329" s="3" t="s">
+      <c r="J329" t="s">
         <v>15</v>
       </c>
       <c r="K329">
@@ -24654,7 +24908,7 @@
       <c r="I330" s="2">
         <v>44566</v>
       </c>
-      <c r="J330" s="3" t="s">
+      <c r="J330" t="s">
         <v>15</v>
       </c>
       <c r="K330">
@@ -24689,7 +24943,7 @@
       <c r="I331" s="2">
         <v>44566</v>
       </c>
-      <c r="J331" s="3" t="s">
+      <c r="J331" t="s">
         <v>15</v>
       </c>
       <c r="K331">
@@ -24724,7 +24978,7 @@
       <c r="I332" s="2">
         <v>44566</v>
       </c>
-      <c r="J332" s="3" t="s">
+      <c r="J332" t="s">
         <v>15</v>
       </c>
       <c r="K332">
@@ -24759,7 +25013,7 @@
       <c r="I333" s="2">
         <v>44566</v>
       </c>
-      <c r="J333" s="3" t="s">
+      <c r="J333" t="s">
         <v>15</v>
       </c>
       <c r="K333">
@@ -24794,7 +25048,7 @@
       <c r="I334" s="2">
         <v>44566</v>
       </c>
-      <c r="J334" s="3" t="s">
+      <c r="J334" t="s">
         <v>15</v>
       </c>
       <c r="K334">
@@ -24829,7 +25083,7 @@
       <c r="I335" s="2">
         <v>44566</v>
       </c>
-      <c r="J335" s="3" t="s">
+      <c r="J335" t="s">
         <v>15</v>
       </c>
       <c r="K335">
@@ -24864,7 +25118,7 @@
       <c r="I336" s="2">
         <v>44566</v>
       </c>
-      <c r="J336" s="3" t="s">
+      <c r="J336" t="s">
         <v>15</v>
       </c>
       <c r="K336">
@@ -24899,7 +25153,7 @@
       <c r="I337" s="2">
         <v>44566</v>
       </c>
-      <c r="J337" s="3" t="s">
+      <c r="J337" t="s">
         <v>15</v>
       </c>
       <c r="K337">
@@ -24934,7 +25188,7 @@
       <c r="I338" s="2">
         <v>44566</v>
       </c>
-      <c r="J338" s="3" t="s">
+      <c r="J338" t="s">
         <v>15</v>
       </c>
       <c r="K338">
@@ -24969,7 +25223,7 @@
       <c r="I339" s="2">
         <v>44566</v>
       </c>
-      <c r="J339" s="3" t="s">
+      <c r="J339" t="s">
         <v>15</v>
       </c>
       <c r="K339">
@@ -25004,7 +25258,7 @@
       <c r="I340" s="2">
         <v>44566</v>
       </c>
-      <c r="J340" s="3" t="s">
+      <c r="J340" t="s">
         <v>15</v>
       </c>
       <c r="K340">
@@ -25039,7 +25293,7 @@
       <c r="I341" s="2">
         <v>44566</v>
       </c>
-      <c r="J341" s="3" t="s">
+      <c r="J341" t="s">
         <v>15</v>
       </c>
       <c r="K341">
@@ -25074,7 +25328,7 @@
       <c r="I342" s="2">
         <v>44566</v>
       </c>
-      <c r="J342" s="3" t="s">
+      <c r="J342" t="s">
         <v>15</v>
       </c>
       <c r="K342">
@@ -25109,7 +25363,7 @@
       <c r="I343" s="2">
         <v>44566</v>
       </c>
-      <c r="J343" s="3" t="s">
+      <c r="J343" t="s">
         <v>15</v>
       </c>
       <c r="K343">
@@ -25144,7 +25398,7 @@
       <c r="I344" s="2">
         <v>44566</v>
       </c>
-      <c r="J344" s="3" t="s">
+      <c r="J344" t="s">
         <v>15</v>
       </c>
       <c r="K344">
@@ -25179,7 +25433,7 @@
       <c r="I345" s="2">
         <v>44566</v>
       </c>
-      <c r="J345" s="3" t="s">
+      <c r="J345" t="s">
         <v>15</v>
       </c>
       <c r="K345">
@@ -25214,7 +25468,7 @@
       <c r="I346" s="2">
         <v>44566</v>
       </c>
-      <c r="J346" s="3" t="s">
+      <c r="J346" t="s">
         <v>15</v>
       </c>
       <c r="K346">
@@ -25249,7 +25503,7 @@
       <c r="I347" s="2">
         <v>44566</v>
       </c>
-      <c r="J347" s="3" t="s">
+      <c r="J347" t="s">
         <v>15</v>
       </c>
       <c r="K347">
@@ -25284,7 +25538,7 @@
       <c r="I348" s="2">
         <v>44566</v>
       </c>
-      <c r="J348" s="3" t="s">
+      <c r="J348" t="s">
         <v>15</v>
       </c>
       <c r="K348">
@@ -25319,7 +25573,7 @@
       <c r="I349" s="2">
         <v>44566</v>
       </c>
-      <c r="J349" s="3" t="s">
+      <c r="J349" t="s">
         <v>15</v>
       </c>
       <c r="K349">
@@ -25354,7 +25608,7 @@
       <c r="I350" s="2">
         <v>44566</v>
       </c>
-      <c r="J350" s="3" t="s">
+      <c r="J350" t="s">
         <v>15</v>
       </c>
       <c r="K350">
@@ -25389,7 +25643,7 @@
       <c r="I351" s="2">
         <v>44566</v>
       </c>
-      <c r="J351" s="3" t="s">
+      <c r="J351" t="s">
         <v>15</v>
       </c>
       <c r="K351">
@@ -25424,7 +25678,7 @@
       <c r="I352" s="2">
         <v>44566</v>
       </c>
-      <c r="J352" s="3" t="s">
+      <c r="J352" t="s">
         <v>15</v>
       </c>
       <c r="K352">
@@ -25459,7 +25713,7 @@
       <c r="I353" s="2">
         <v>44566</v>
       </c>
-      <c r="J353" s="3" t="s">
+      <c r="J353" t="s">
         <v>15</v>
       </c>
       <c r="K353">
@@ -25494,7 +25748,7 @@
       <c r="I354" s="2">
         <v>44566</v>
       </c>
-      <c r="J354" s="3" t="s">
+      <c r="J354" t="s">
         <v>15</v>
       </c>
       <c r="K354">
@@ -25529,7 +25783,7 @@
       <c r="I355" s="2">
         <v>44566</v>
       </c>
-      <c r="J355" s="3" t="s">
+      <c r="J355" t="s">
         <v>15</v>
       </c>
       <c r="K355">
@@ -25564,7 +25818,7 @@
       <c r="I356" s="2">
         <v>44566</v>
       </c>
-      <c r="J356" s="3" t="s">
+      <c r="J356" t="s">
         <v>15</v>
       </c>
       <c r="K356">
@@ -25599,7 +25853,7 @@
       <c r="I357" s="2">
         <v>44566</v>
       </c>
-      <c r="J357" s="3" t="s">
+      <c r="J357" t="s">
         <v>15</v>
       </c>
       <c r="K357">
@@ -25634,7 +25888,7 @@
       <c r="I358" s="2">
         <v>44566</v>
       </c>
-      <c r="J358" s="3" t="s">
+      <c r="J358" t="s">
         <v>15</v>
       </c>
       <c r="K358">
@@ -25669,7 +25923,7 @@
       <c r="I359" s="2">
         <v>44566</v>
       </c>
-      <c r="J359" s="3" t="s">
+      <c r="J359" t="s">
         <v>15</v>
       </c>
       <c r="K359">
@@ -25704,7 +25958,7 @@
       <c r="I360" s="2">
         <v>44566</v>
       </c>
-      <c r="J360" s="3" t="s">
+      <c r="J360" t="s">
         <v>15</v>
       </c>
       <c r="K360">
@@ -25739,7 +25993,7 @@
       <c r="I361" s="2">
         <v>44566</v>
       </c>
-      <c r="J361" s="3" t="s">
+      <c r="J361" t="s">
         <v>15</v>
       </c>
       <c r="K361">
@@ -25774,7 +26028,7 @@
       <c r="I362" s="2">
         <v>44566</v>
       </c>
-      <c r="J362" s="3" t="s">
+      <c r="J362" t="s">
         <v>15</v>
       </c>
       <c r="K362">
@@ -25809,7 +26063,7 @@
       <c r="I363" s="2">
         <v>44566</v>
       </c>
-      <c r="J363" s="3" t="s">
+      <c r="J363" t="s">
         <v>15</v>
       </c>
       <c r="K363">
@@ -25844,7 +26098,7 @@
       <c r="I364" s="2">
         <v>44566</v>
       </c>
-      <c r="J364" s="3" t="s">
+      <c r="J364" t="s">
         <v>15</v>
       </c>
       <c r="K364">
@@ -25879,7 +26133,7 @@
       <c r="I365" s="2">
         <v>44566</v>
       </c>
-      <c r="J365" s="3" t="s">
+      <c r="J365" t="s">
         <v>15</v>
       </c>
       <c r="K365">
@@ -25914,7 +26168,7 @@
       <c r="I366" s="2">
         <v>44566</v>
       </c>
-      <c r="J366" s="3" t="s">
+      <c r="J366" t="s">
         <v>15</v>
       </c>
       <c r="K366">
@@ -25949,7 +26203,7 @@
       <c r="I367" s="2">
         <v>44566</v>
       </c>
-      <c r="J367" s="3" t="s">
+      <c r="J367" t="s">
         <v>15</v>
       </c>
       <c r="K367">
@@ -25984,7 +26238,7 @@
       <c r="I368" s="2">
         <v>44566</v>
       </c>
-      <c r="J368" s="3" t="s">
+      <c r="J368" t="s">
         <v>15</v>
       </c>
       <c r="K368">
@@ -26019,7 +26273,7 @@
       <c r="I369" s="2">
         <v>44566</v>
       </c>
-      <c r="J369" s="3" t="s">
+      <c r="J369" t="s">
         <v>15</v>
       </c>
       <c r="K369">
@@ -26054,7 +26308,7 @@
       <c r="I370" s="2">
         <v>44566</v>
       </c>
-      <c r="J370" s="3" t="s">
+      <c r="J370" t="s">
         <v>15</v>
       </c>
       <c r="K370">
@@ -26089,7 +26343,7 @@
       <c r="I371" s="2">
         <v>44566</v>
       </c>
-      <c r="J371" s="3" t="s">
+      <c r="J371" t="s">
         <v>15</v>
       </c>
       <c r="K371">
@@ -26124,7 +26378,7 @@
       <c r="I372" s="2">
         <v>44566</v>
       </c>
-      <c r="J372" s="3" t="s">
+      <c r="J372" t="s">
         <v>15</v>
       </c>
       <c r="K372">
@@ -26159,7 +26413,7 @@
       <c r="I373" s="2">
         <v>44566</v>
       </c>
-      <c r="J373" s="3" t="s">
+      <c r="J373" t="s">
         <v>15</v>
       </c>
       <c r="K373">
@@ -26194,7 +26448,7 @@
       <c r="I374" s="2">
         <v>44566</v>
       </c>
-      <c r="J374" s="3" t="s">
+      <c r="J374" t="s">
         <v>15</v>
       </c>
       <c r="K374">
@@ -26229,7 +26483,7 @@
       <c r="I375" s="2">
         <v>44566</v>
       </c>
-      <c r="J375" s="3" t="s">
+      <c r="J375" t="s">
         <v>15</v>
       </c>
       <c r="K375">
@@ -26264,7 +26518,7 @@
       <c r="I376" s="2">
         <v>44566</v>
       </c>
-      <c r="J376" s="3" t="s">
+      <c r="J376" t="s">
         <v>15</v>
       </c>
       <c r="K376">
@@ -26299,7 +26553,7 @@
       <c r="I377" s="2">
         <v>44566</v>
       </c>
-      <c r="J377" s="3" t="s">
+      <c r="J377" t="s">
         <v>15</v>
       </c>
       <c r="K377">
@@ -26334,7 +26588,7 @@
       <c r="I378" s="2">
         <v>44566</v>
       </c>
-      <c r="J378" s="3" t="s">
+      <c r="J378" t="s">
         <v>15</v>
       </c>
       <c r="K378">
@@ -26369,7 +26623,7 @@
       <c r="I379" s="2">
         <v>44566</v>
       </c>
-      <c r="J379" s="3" t="s">
+      <c r="J379" t="s">
         <v>15</v>
       </c>
       <c r="K379">
@@ -26404,7 +26658,7 @@
       <c r="I380" s="2">
         <v>44566</v>
       </c>
-      <c r="J380" s="3" t="s">
+      <c r="J380" t="s">
         <v>15</v>
       </c>
       <c r="K380">
@@ -26439,7 +26693,7 @@
       <c r="I381" s="2">
         <v>44566</v>
       </c>
-      <c r="J381" s="3" t="s">
+      <c r="J381" t="s">
         <v>15</v>
       </c>
       <c r="K381">
@@ -26474,7 +26728,7 @@
       <c r="I382" s="2">
         <v>44566</v>
       </c>
-      <c r="J382" s="3" t="s">
+      <c r="J382" t="s">
         <v>15</v>
       </c>
       <c r="K382">
@@ -26509,7 +26763,7 @@
       <c r="I383" s="2">
         <v>44566</v>
       </c>
-      <c r="J383" s="3" t="s">
+      <c r="J383" t="s">
         <v>15</v>
       </c>
       <c r="K383">
@@ -26544,7 +26798,7 @@
       <c r="I384" s="2">
         <v>44566</v>
       </c>
-      <c r="J384" s="3" t="s">
+      <c r="J384" t="s">
         <v>15</v>
       </c>
       <c r="K384">
@@ -26579,7 +26833,7 @@
       <c r="I385" s="2">
         <v>44566</v>
       </c>
-      <c r="J385" s="3" t="s">
+      <c r="J385" t="s">
         <v>15</v>
       </c>
       <c r="K385">
@@ -26614,7 +26868,7 @@
       <c r="I386" s="2">
         <v>44566</v>
       </c>
-      <c r="J386" s="3" t="s">
+      <c r="J386" t="s">
         <v>15</v>
       </c>
       <c r="K386">
@@ -26649,7 +26903,7 @@
       <c r="I387" s="2">
         <v>44566</v>
       </c>
-      <c r="J387" s="3" t="s">
+      <c r="J387" t="s">
         <v>15</v>
       </c>
       <c r="K387">
@@ -26684,7 +26938,7 @@
       <c r="I388" s="2">
         <v>44566</v>
       </c>
-      <c r="J388" s="3" t="s">
+      <c r="J388" t="s">
         <v>15</v>
       </c>
       <c r="K388">
@@ -26719,7 +26973,7 @@
       <c r="I389" s="2">
         <v>44566</v>
       </c>
-      <c r="J389" s="3" t="s">
+      <c r="J389" t="s">
         <v>15</v>
       </c>
       <c r="K389">
@@ -26754,7 +27008,7 @@
       <c r="I390" s="2">
         <v>44566</v>
       </c>
-      <c r="J390" s="3" t="s">
+      <c r="J390" t="s">
         <v>15</v>
       </c>
       <c r="K390">
@@ -26789,7 +27043,7 @@
       <c r="I391" s="2">
         <v>44566</v>
       </c>
-      <c r="J391" s="3" t="s">
+      <c r="J391" t="s">
         <v>15</v>
       </c>
       <c r="K391">
@@ -26824,7 +27078,7 @@
       <c r="I392" s="2">
         <v>44566</v>
       </c>
-      <c r="J392" s="3" t="s">
+      <c r="J392" t="s">
         <v>15</v>
       </c>
       <c r="K392">
@@ -26859,7 +27113,7 @@
       <c r="I393" s="2">
         <v>44566</v>
       </c>
-      <c r="J393" s="3" t="s">
+      <c r="J393" t="s">
         <v>15</v>
       </c>
       <c r="K393">
@@ -26894,7 +27148,7 @@
       <c r="I394" s="2">
         <v>44566</v>
       </c>
-      <c r="J394" s="3" t="s">
+      <c r="J394" t="s">
         <v>15</v>
       </c>
       <c r="K394">
@@ -26929,7 +27183,7 @@
       <c r="I395" s="2">
         <v>44566</v>
       </c>
-      <c r="J395" s="3" t="s">
+      <c r="J395" t="s">
         <v>15</v>
       </c>
       <c r="K395">
@@ -26964,7 +27218,7 @@
       <c r="I396" s="2">
         <v>44566</v>
       </c>
-      <c r="J396" s="3" t="s">
+      <c r="J396" t="s">
         <v>15</v>
       </c>
       <c r="K396">
@@ -26999,7 +27253,7 @@
       <c r="I397" s="2">
         <v>44566</v>
       </c>
-      <c r="J397" s="3" t="s">
+      <c r="J397" t="s">
         <v>15</v>
       </c>
       <c r="K397">
@@ -27034,7 +27288,7 @@
       <c r="I398" s="2">
         <v>44566</v>
       </c>
-      <c r="J398" s="3" t="s">
+      <c r="J398" t="s">
         <v>15</v>
       </c>
       <c r="K398">
@@ -27069,7 +27323,7 @@
       <c r="I399" s="2">
         <v>44566</v>
       </c>
-      <c r="J399" s="3" t="s">
+      <c r="J399" t="s">
         <v>15</v>
       </c>
       <c r="K399">
@@ -27104,7 +27358,7 @@
       <c r="I400" s="2">
         <v>44566</v>
       </c>
-      <c r="J400" s="3" t="s">
+      <c r="J400" t="s">
         <v>15</v>
       </c>
       <c r="K400">
@@ -27139,7 +27393,7 @@
       <c r="I401" s="2">
         <v>44566</v>
       </c>
-      <c r="J401" s="3" t="s">
+      <c r="J401" t="s">
         <v>15</v>
       </c>
       <c r="K401">
@@ -27174,7 +27428,7 @@
       <c r="I402" s="2">
         <v>44566</v>
       </c>
-      <c r="J402" s="3" t="s">
+      <c r="J402" t="s">
         <v>15</v>
       </c>
       <c r="K402">
@@ -27209,7 +27463,7 @@
       <c r="I403" s="2">
         <v>44566</v>
       </c>
-      <c r="J403" s="3" t="s">
+      <c r="J403" t="s">
         <v>15</v>
       </c>
       <c r="K403">
@@ -27244,7 +27498,7 @@
       <c r="I404" s="2">
         <v>44566</v>
       </c>
-      <c r="J404" s="3" t="s">
+      <c r="J404" t="s">
         <v>15</v>
       </c>
       <c r="K404">
@@ -27279,7 +27533,7 @@
       <c r="I405" s="2">
         <v>44566</v>
       </c>
-      <c r="J405" s="3" t="s">
+      <c r="J405" t="s">
         <v>15</v>
       </c>
       <c r="K405">
@@ -27314,7 +27568,7 @@
       <c r="I406" s="2">
         <v>44565</v>
       </c>
-      <c r="J406" s="3" t="s">
+      <c r="J406" t="s">
         <v>15</v>
       </c>
       <c r="K406">
@@ -27349,7 +27603,7 @@
       <c r="I407" s="2">
         <v>44565</v>
       </c>
-      <c r="J407" s="3" t="s">
+      <c r="J407" t="s">
         <v>15</v>
       </c>
       <c r="K407">
@@ -27384,7 +27638,7 @@
       <c r="I408" s="2">
         <v>44565</v>
       </c>
-      <c r="J408" s="3" t="s">
+      <c r="J408" t="s">
         <v>15</v>
       </c>
       <c r="K408">
@@ -27419,7 +27673,7 @@
       <c r="I409" s="2">
         <v>44565</v>
       </c>
-      <c r="J409" s="3" t="s">
+      <c r="J409" t="s">
         <v>15</v>
       </c>
       <c r="K409">
@@ -27454,7 +27708,7 @@
       <c r="I410" s="2">
         <v>44564</v>
       </c>
-      <c r="J410" s="3" t="s">
+      <c r="J410" t="s">
         <v>15</v>
       </c>
       <c r="K410">
@@ -27489,7 +27743,7 @@
       <c r="I411" s="2">
         <v>44564</v>
       </c>
-      <c r="J411" s="3" t="s">
+      <c r="J411" t="s">
         <v>15</v>
       </c>
       <c r="K411">
@@ -27524,7 +27778,7 @@
       <c r="I412" s="2">
         <v>44564</v>
       </c>
-      <c r="J412" s="3" t="s">
+      <c r="J412" t="s">
         <v>15</v>
       </c>
       <c r="K412">
@@ -27559,7 +27813,7 @@
       <c r="I413" s="2">
         <v>44564</v>
       </c>
-      <c r="J413" s="3" t="s">
+      <c r="J413" t="s">
         <v>15</v>
       </c>
       <c r="K413">
@@ -27594,7 +27848,7 @@
       <c r="I414" s="2">
         <v>44564</v>
       </c>
-      <c r="J414" s="3" t="s">
+      <c r="J414" t="s">
         <v>15</v>
       </c>
       <c r="K414">
@@ -27629,7 +27883,7 @@
       <c r="I415" s="2">
         <v>44564</v>
       </c>
-      <c r="J415" s="3" t="s">
+      <c r="J415" t="s">
         <v>15</v>
       </c>
       <c r="K415">
@@ -27664,7 +27918,7 @@
       <c r="I416" s="2">
         <v>44564</v>
       </c>
-      <c r="J416" s="3" t="s">
+      <c r="J416" t="s">
         <v>15</v>
       </c>
       <c r="K416">
@@ -27699,7 +27953,7 @@
       <c r="I417" s="2">
         <v>44564</v>
       </c>
-      <c r="J417" s="3" t="s">
+      <c r="J417" t="s">
         <v>15</v>
       </c>
       <c r="K417">
@@ -27734,7 +27988,7 @@
       <c r="I418" s="2">
         <v>44564</v>
       </c>
-      <c r="J418" s="3" t="s">
+      <c r="J418" t="s">
         <v>15</v>
       </c>
       <c r="K418">
@@ -27769,7 +28023,7 @@
       <c r="I419" s="2">
         <v>44564</v>
       </c>
-      <c r="J419" s="3" t="s">
+      <c r="J419" t="s">
         <v>15</v>
       </c>
       <c r="K419">
@@ -27804,7 +28058,7 @@
       <c r="I420" s="2">
         <v>44564</v>
       </c>
-      <c r="J420" s="3" t="s">
+      <c r="J420" t="s">
         <v>15</v>
       </c>
       <c r="K420">
@@ -27839,7 +28093,7 @@
       <c r="I421" s="2">
         <v>44564</v>
       </c>
-      <c r="J421" s="3" t="s">
+      <c r="J421" t="s">
         <v>15</v>
       </c>
       <c r="K421">
@@ -27874,7 +28128,7 @@
       <c r="I422" s="2">
         <v>44564</v>
       </c>
-      <c r="J422" s="3" t="s">
+      <c r="J422" t="s">
         <v>15</v>
       </c>
       <c r="K422">
@@ -27909,7 +28163,7 @@
       <c r="I423" s="2">
         <v>44564</v>
       </c>
-      <c r="J423" s="3" t="s">
+      <c r="J423" t="s">
         <v>15</v>
       </c>
       <c r="K423">
@@ -27944,7 +28198,7 @@
       <c r="I424" s="2">
         <v>44564</v>
       </c>
-      <c r="J424" s="3" t="s">
+      <c r="J424" t="s">
         <v>15</v>
       </c>
       <c r="K424">
@@ -27979,7 +28233,7 @@
       <c r="I425" s="2">
         <v>44564</v>
       </c>
-      <c r="J425" s="3" t="s">
+      <c r="J425" t="s">
         <v>15</v>
       </c>
       <c r="K425">
@@ -28014,7 +28268,7 @@
       <c r="I426" s="2">
         <v>44564</v>
       </c>
-      <c r="J426" s="3" t="s">
+      <c r="J426" t="s">
         <v>15</v>
       </c>
       <c r="K426">
@@ -28049,7 +28303,7 @@
       <c r="I427" s="2">
         <v>44564</v>
       </c>
-      <c r="J427" s="3" t="s">
+      <c r="J427" t="s">
         <v>15</v>
       </c>
       <c r="K427">
@@ -28084,7 +28338,7 @@
       <c r="I428" s="2">
         <v>44564</v>
       </c>
-      <c r="J428" s="3" t="s">
+      <c r="J428" t="s">
         <v>15</v>
       </c>
       <c r="K428">
@@ -28119,7 +28373,7 @@
       <c r="I429" s="2">
         <v>44564</v>
       </c>
-      <c r="J429" s="3" t="s">
+      <c r="J429" t="s">
         <v>15</v>
       </c>
       <c r="K429">
@@ -28154,7 +28408,7 @@
       <c r="I430" s="2">
         <v>44564</v>
       </c>
-      <c r="J430" s="3" t="s">
+      <c r="J430" t="s">
         <v>15</v>
       </c>
       <c r="K430">
@@ -28189,7 +28443,7 @@
       <c r="I431" s="2">
         <v>44564</v>
       </c>
-      <c r="J431" s="3" t="s">
+      <c r="J431" t="s">
         <v>15</v>
       </c>
       <c r="K431">
@@ -28224,7 +28478,7 @@
       <c r="I432" s="2">
         <v>44564</v>
       </c>
-      <c r="J432" s="3" t="s">
+      <c r="J432" t="s">
         <v>15</v>
       </c>
       <c r="K432">
@@ -28259,7 +28513,7 @@
       <c r="I433" s="2">
         <v>44564</v>
       </c>
-      <c r="J433" s="3" t="s">
+      <c r="J433" t="s">
         <v>15</v>
       </c>
       <c r="K433">
@@ -28294,7 +28548,7 @@
       <c r="I434" s="2">
         <v>44564</v>
       </c>
-      <c r="J434" s="3" t="s">
+      <c r="J434" t="s">
         <v>15</v>
       </c>
       <c r="K434">
@@ -28329,7 +28583,7 @@
       <c r="I435" s="2">
         <v>44564</v>
       </c>
-      <c r="J435" s="3" t="s">
+      <c r="J435" t="s">
         <v>15</v>
       </c>
       <c r="K435">
@@ -28364,7 +28618,7 @@
       <c r="I436" s="2">
         <v>44564</v>
       </c>
-      <c r="J436" s="3" t="s">
+      <c r="J436" t="s">
         <v>15</v>
       </c>
       <c r="K436">
@@ -28399,7 +28653,7 @@
       <c r="I437" s="2">
         <v>44564</v>
       </c>
-      <c r="J437" s="3" t="s">
+      <c r="J437" t="s">
         <v>15</v>
       </c>
       <c r="K437">
@@ -28434,7 +28688,7 @@
       <c r="I438" s="2">
         <v>44564</v>
       </c>
-      <c r="J438" s="3" t="s">
+      <c r="J438" t="s">
         <v>15</v>
       </c>
       <c r="K438">
@@ -28469,7 +28723,7 @@
       <c r="I439" s="2">
         <v>44564</v>
       </c>
-      <c r="J439" s="3" t="s">
+      <c r="J439" t="s">
         <v>15</v>
       </c>
       <c r="K439">
@@ -28504,7 +28758,7 @@
       <c r="I440" s="2">
         <v>44564</v>
       </c>
-      <c r="J440" s="3" t="s">
+      <c r="J440" t="s">
         <v>15</v>
       </c>
       <c r="K440">
@@ -28539,7 +28793,7 @@
       <c r="I441" s="2">
         <v>44564</v>
       </c>
-      <c r="J441" s="3" t="s">
+      <c r="J441" t="s">
         <v>15</v>
       </c>
       <c r="K441">
@@ -28574,7 +28828,7 @@
       <c r="I442" s="2">
         <v>44564</v>
       </c>
-      <c r="J442" s="3" t="s">
+      <c r="J442" t="s">
         <v>15</v>
       </c>
       <c r="K442">
@@ -28609,7 +28863,7 @@
       <c r="I443" s="2">
         <v>44564</v>
       </c>
-      <c r="J443" s="3" t="s">
+      <c r="J443" t="s">
         <v>15</v>
       </c>
       <c r="K443">
@@ -28644,7 +28898,7 @@
       <c r="I444" s="2">
         <v>44564</v>
       </c>
-      <c r="J444" s="3" t="s">
+      <c r="J444" t="s">
         <v>15</v>
       </c>
       <c r="K444">
@@ -28679,7 +28933,7 @@
       <c r="I445" s="2">
         <v>44564</v>
       </c>
-      <c r="J445" s="3" t="s">
+      <c r="J445" t="s">
         <v>15</v>
       </c>
       <c r="K445">
@@ -28714,7 +28968,7 @@
       <c r="I446" s="2">
         <v>44564</v>
       </c>
-      <c r="J446" s="3" t="s">
+      <c r="J446" t="s">
         <v>15</v>
       </c>
       <c r="K446">
@@ -28749,7 +29003,7 @@
       <c r="I447" s="2">
         <v>44564</v>
       </c>
-      <c r="J447" s="3" t="s">
+      <c r="J447" t="s">
         <v>15</v>
       </c>
       <c r="K447">
@@ -28784,7 +29038,7 @@
       <c r="I448" s="2">
         <v>44564</v>
       </c>
-      <c r="J448" s="3" t="s">
+      <c r="J448" t="s">
         <v>15</v>
       </c>
       <c r="K448">
@@ -28819,7 +29073,7 @@
       <c r="I449" s="2">
         <v>44564</v>
       </c>
-      <c r="J449" s="3" t="s">
+      <c r="J449" t="s">
         <v>15</v>
       </c>
       <c r="K449">
@@ -28854,7 +29108,7 @@
       <c r="I450" s="2">
         <v>44564</v>
       </c>
-      <c r="J450" s="3" t="s">
+      <c r="J450" t="s">
         <v>15</v>
       </c>
       <c r="K450">
@@ -28889,7 +29143,7 @@
       <c r="I451" s="2">
         <v>44564</v>
       </c>
-      <c r="J451" s="3" t="s">
+      <c r="J451" t="s">
         <v>15</v>
       </c>
       <c r="K451">
@@ -28924,7 +29178,7 @@
       <c r="I452" s="2">
         <v>44564</v>
       </c>
-      <c r="J452" s="3" t="s">
+      <c r="J452" t="s">
         <v>15</v>
       </c>
       <c r="K452">
@@ -28959,7 +29213,7 @@
       <c r="I453" s="2">
         <v>44564</v>
       </c>
-      <c r="J453" s="3" t="s">
+      <c r="J453" t="s">
         <v>15</v>
       </c>
       <c r="K453">
@@ -28994,7 +29248,7 @@
       <c r="I454" s="2">
         <v>44564</v>
       </c>
-      <c r="J454" s="3" t="s">
+      <c r="J454" t="s">
         <v>15</v>
       </c>
       <c r="K454">
@@ -29029,7 +29283,7 @@
       <c r="I455" s="2">
         <v>44564</v>
       </c>
-      <c r="J455" s="3" t="s">
+      <c r="J455" t="s">
         <v>15</v>
       </c>
       <c r="K455">
@@ -29064,7 +29318,7 @@
       <c r="I456" s="2">
         <v>44564</v>
       </c>
-      <c r="J456" s="3" t="s">
+      <c r="J456" t="s">
         <v>15</v>
       </c>
       <c r="K456">
@@ -29099,7 +29353,7 @@
       <c r="I457" s="2">
         <v>44564</v>
       </c>
-      <c r="J457" s="3" t="s">
+      <c r="J457" t="s">
         <v>15</v>
       </c>
       <c r="K457">
@@ -29134,7 +29388,7 @@
       <c r="I458" s="2">
         <v>44564</v>
       </c>
-      <c r="J458" s="3" t="s">
+      <c r="J458" t="s">
         <v>15</v>
       </c>
       <c r="K458">
@@ -29169,7 +29423,7 @@
       <c r="I459" s="2">
         <v>44564</v>
       </c>
-      <c r="J459" s="3" t="s">
+      <c r="J459" t="s">
         <v>15</v>
       </c>
       <c r="K459">
@@ -29204,7 +29458,7 @@
       <c r="I460" s="2">
         <v>44564</v>
       </c>
-      <c r="J460" s="3" t="s">
+      <c r="J460" t="s">
         <v>15</v>
       </c>
       <c r="K460">
@@ -29239,7 +29493,7 @@
       <c r="I461" s="2">
         <v>44564</v>
       </c>
-      <c r="J461" s="3" t="s">
+      <c r="J461" t="s">
         <v>15</v>
       </c>
       <c r="K461">
@@ -29274,7 +29528,7 @@
       <c r="I462" s="2">
         <v>44564</v>
       </c>
-      <c r="J462" s="3" t="s">
+      <c r="J462" t="s">
         <v>15</v>
       </c>
       <c r="K462">
@@ -29309,7 +29563,7 @@
       <c r="I463" s="2">
         <v>44564</v>
       </c>
-      <c r="J463" s="3" t="s">
+      <c r="J463" t="s">
         <v>15</v>
       </c>
       <c r="K463">
@@ -29344,7 +29598,7 @@
       <c r="I464" s="2">
         <v>44564</v>
       </c>
-      <c r="J464" s="3" t="s">
+      <c r="J464" t="s">
         <v>15</v>
       </c>
       <c r="K464">
@@ -29379,7 +29633,7 @@
       <c r="I465" s="2">
         <v>44564</v>
       </c>
-      <c r="J465" s="3" t="s">
+      <c r="J465" t="s">
         <v>15</v>
       </c>
       <c r="K465">
@@ -29414,7 +29668,7 @@
       <c r="I466" s="2">
         <v>44564</v>
       </c>
-      <c r="J466" s="3" t="s">
+      <c r="J466" t="s">
         <v>15</v>
       </c>
       <c r="K466">
@@ -29449,7 +29703,7 @@
       <c r="I467" s="2">
         <v>44564</v>
       </c>
-      <c r="J467" s="3" t="s">
+      <c r="J467" t="s">
         <v>15</v>
       </c>
       <c r="K467">
@@ -29484,7 +29738,7 @@
       <c r="I468" s="2">
         <v>44564</v>
       </c>
-      <c r="J468" s="3" t="s">
+      <c r="J468" t="s">
         <v>15</v>
       </c>
       <c r="K468">
@@ -29519,7 +29773,7 @@
       <c r="I469" s="2">
         <v>44564</v>
       </c>
-      <c r="J469" s="3" t="s">
+      <c r="J469" t="s">
         <v>15</v>
       </c>
       <c r="K469">
@@ -29554,7 +29808,7 @@
       <c r="I470" s="2">
         <v>44564</v>
       </c>
-      <c r="J470" s="3" t="s">
+      <c r="J470" t="s">
         <v>15</v>
       </c>
       <c r="K470">
@@ -29589,7 +29843,7 @@
       <c r="I471" s="2">
         <v>44564</v>
       </c>
-      <c r="J471" s="3" t="s">
+      <c r="J471" t="s">
         <v>15</v>
       </c>
       <c r="K471">
@@ -29624,7 +29878,7 @@
       <c r="I472" s="2">
         <v>44564</v>
       </c>
-      <c r="J472" s="3" t="s">
+      <c r="J472" t="s">
         <v>15</v>
       </c>
       <c r="K472">
@@ -29659,7 +29913,7 @@
       <c r="I473" s="2">
         <v>44564</v>
       </c>
-      <c r="J473" s="3" t="s">
+      <c r="J473" t="s">
         <v>15</v>
       </c>
       <c r="K473">
@@ -29694,7 +29948,7 @@
       <c r="I474" s="2">
         <v>44564</v>
       </c>
-      <c r="J474" s="3" t="s">
+      <c r="J474" t="s">
         <v>15</v>
       </c>
       <c r="K474">
@@ -29729,7 +29983,7 @@
       <c r="I475" s="2">
         <v>44564</v>
       </c>
-      <c r="J475" s="3" t="s">
+      <c r="J475" t="s">
         <v>15</v>
       </c>
       <c r="K475">
@@ -29764,7 +30018,7 @@
       <c r="I476" s="2">
         <v>44564</v>
       </c>
-      <c r="J476" s="3" t="s">
+      <c r="J476" t="s">
         <v>15</v>
       </c>
       <c r="K476">
@@ -29799,7 +30053,7 @@
       <c r="I477" s="2">
         <v>44564</v>
       </c>
-      <c r="J477" s="3" t="s">
+      <c r="J477" t="s">
         <v>15</v>
       </c>
       <c r="K477">
@@ -29834,7 +30088,7 @@
       <c r="I478" s="2">
         <v>44564</v>
       </c>
-      <c r="J478" s="3" t="s">
+      <c r="J478" t="s">
         <v>15</v>
       </c>
       <c r="K478">
@@ -29869,7 +30123,7 @@
       <c r="I479" s="2">
         <v>44564</v>
       </c>
-      <c r="J479" s="3" t="s">
+      <c r="J479" t="s">
         <v>15</v>
       </c>
       <c r="K479">
@@ -29904,7 +30158,7 @@
       <c r="I480" s="2">
         <v>44564</v>
       </c>
-      <c r="J480" s="3" t="s">
+      <c r="J480" t="s">
         <v>15</v>
       </c>
       <c r="K480">
@@ -29939,7 +30193,7 @@
       <c r="I481" s="2">
         <v>44564</v>
       </c>
-      <c r="J481" s="3" t="s">
+      <c r="J481" t="s">
         <v>15</v>
       </c>
       <c r="K481">
@@ -29974,7 +30228,7 @@
       <c r="I482" s="2">
         <v>44564</v>
       </c>
-      <c r="J482" s="3" t="s">
+      <c r="J482" t="s">
         <v>15</v>
       </c>
       <c r="K482">
@@ -30009,7 +30263,7 @@
       <c r="I483" s="2">
         <v>44564</v>
       </c>
-      <c r="J483" s="3" t="s">
+      <c r="J483" t="s">
         <v>15</v>
       </c>
       <c r="K483">
@@ -30044,7 +30298,7 @@
       <c r="I484" s="2">
         <v>44564</v>
       </c>
-      <c r="J484" s="3" t="s">
+      <c r="J484" t="s">
         <v>15</v>
       </c>
       <c r="K484">
@@ -30079,7 +30333,7 @@
       <c r="I485" s="2">
         <v>44564</v>
       </c>
-      <c r="J485" s="3" t="s">
+      <c r="J485" t="s">
         <v>15</v>
       </c>
       <c r="K485">
@@ -30114,7 +30368,7 @@
       <c r="I486" s="2">
         <v>44564</v>
       </c>
-      <c r="J486" s="3" t="s">
+      <c r="J486" t="s">
         <v>15</v>
       </c>
       <c r="K486">
@@ -30149,7 +30403,7 @@
       <c r="I487" s="2">
         <v>44564</v>
       </c>
-      <c r="J487" s="3" t="s">
+      <c r="J487" t="s">
         <v>15</v>
       </c>
       <c r="K487">
@@ -30184,7 +30438,7 @@
       <c r="I488" s="2">
         <v>44564</v>
       </c>
-      <c r="J488" s="3" t="s">
+      <c r="J488" t="s">
         <v>15</v>
       </c>
       <c r="K488">
@@ -30219,7 +30473,7 @@
       <c r="I489" s="2">
         <v>44564</v>
       </c>
-      <c r="J489" s="3" t="s">
+      <c r="J489" t="s">
         <v>15</v>
       </c>
       <c r="K489">
@@ -30254,7 +30508,7 @@
       <c r="I490" s="2">
         <v>44564</v>
       </c>
-      <c r="J490" s="3" t="s">
+      <c r="J490" t="s">
         <v>15</v>
       </c>
       <c r="K490">
@@ -30289,7 +30543,7 @@
       <c r="I491" s="2">
         <v>44564</v>
       </c>
-      <c r="J491" s="3" t="s">
+      <c r="J491" t="s">
         <v>15</v>
       </c>
       <c r="K491">
@@ -30324,7 +30578,7 @@
       <c r="I492" s="2">
         <v>44564</v>
       </c>
-      <c r="J492" s="3" t="s">
+      <c r="J492" t="s">
         <v>15</v>
       </c>
       <c r="K492">
@@ -30359,7 +30613,7 @@
       <c r="I493" s="2">
         <v>44564</v>
       </c>
-      <c r="J493" s="3" t="s">
+      <c r="J493" t="s">
         <v>15</v>
       </c>
       <c r="K493">
@@ -30394,7 +30648,7 @@
       <c r="I494" s="2">
         <v>44564</v>
       </c>
-      <c r="J494" s="3" t="s">
+      <c r="J494" t="s">
         <v>15</v>
       </c>
       <c r="K494">
@@ -30429,7 +30683,7 @@
       <c r="I495" s="2">
         <v>44564</v>
       </c>
-      <c r="J495" s="3" t="s">
+      <c r="J495" t="s">
         <v>15</v>
       </c>
       <c r="K495">
@@ -30464,7 +30718,7 @@
       <c r="I496" s="2">
         <v>44564</v>
       </c>
-      <c r="J496" s="3" t="s">
+      <c r="J496" t="s">
         <v>15</v>
       </c>
       <c r="K496">
@@ -30499,7 +30753,7 @@
       <c r="I497" s="2">
         <v>44564</v>
       </c>
-      <c r="J497" s="3" t="s">
+      <c r="J497" t="s">
         <v>15</v>
       </c>
       <c r="K497">
@@ -30534,7 +30788,7 @@
       <c r="I498" s="2">
         <v>44564</v>
       </c>
-      <c r="J498" s="3" t="s">
+      <c r="J498" t="s">
         <v>15</v>
       </c>
       <c r="K498">
@@ -30569,7 +30823,7 @@
       <c r="I499" s="2">
         <v>44564</v>
       </c>
-      <c r="J499" s="3" t="s">
+      <c r="J499" t="s">
         <v>15</v>
       </c>
       <c r="K499">
@@ -30604,7 +30858,7 @@
       <c r="I500" s="2">
         <v>44564</v>
       </c>
-      <c r="J500" s="3" t="s">
+      <c r="J500" t="s">
         <v>15</v>
       </c>
       <c r="K500">
@@ -30639,7 +30893,7 @@
       <c r="I501" s="2">
         <v>44563</v>
       </c>
-      <c r="J501" s="3" t="s">
+      <c r="J501" t="s">
         <v>15</v>
       </c>
       <c r="K501">
@@ -30674,7 +30928,7 @@
       <c r="I502" s="2">
         <v>44563</v>
       </c>
-      <c r="J502" s="3" t="s">
+      <c r="J502" t="s">
         <v>15</v>
       </c>
       <c r="K502">
@@ -30709,7 +30963,7 @@
       <c r="I503" s="2">
         <v>44562</v>
       </c>
-      <c r="J503" s="3" t="s">
+      <c r="J503" t="s">
         <v>15</v>
       </c>
       <c r="K503">
@@ -30744,7 +30998,7 @@
       <c r="I504" s="2">
         <v>44562</v>
       </c>
-      <c r="J504" s="3" t="s">
+      <c r="J504" t="s">
         <v>15</v>
       </c>
       <c r="K504">
@@ -30779,7 +31033,7 @@
       <c r="I505" s="2">
         <v>44562</v>
       </c>
-      <c r="J505" s="3" t="s">
+      <c r="J505" t="s">
         <v>15</v>
       </c>
       <c r="K505">
@@ -30814,7 +31068,7 @@
       <c r="I506" s="2">
         <v>44562</v>
       </c>
-      <c r="J506" s="3" t="s">
+      <c r="J506" t="s">
         <v>15</v>
       </c>
       <c r="K506">
@@ -30849,7 +31103,7 @@
       <c r="I507" s="2">
         <v>44562</v>
       </c>
-      <c r="J507" s="3" t="s">
+      <c r="J507" t="s">
         <v>15</v>
       </c>
       <c r="K507">
@@ -30884,7 +31138,7 @@
       <c r="I508" s="2">
         <v>44562</v>
       </c>
-      <c r="J508" s="3" t="s">
+      <c r="J508" t="s">
         <v>15</v>
       </c>
       <c r="K508">
@@ -30919,7 +31173,7 @@
       <c r="I509" s="2">
         <v>44562</v>
       </c>
-      <c r="J509" s="3" t="s">
+      <c r="J509" t="s">
         <v>15</v>
       </c>
       <c r="K509">
@@ -30954,7 +31208,7 @@
       <c r="I510" s="2">
         <v>44562</v>
       </c>
-      <c r="J510" s="3" t="s">
+      <c r="J510" t="s">
         <v>15</v>
       </c>
       <c r="K510">
@@ -30989,7 +31243,7 @@
       <c r="I511" s="2">
         <v>44562</v>
       </c>
-      <c r="J511" s="3" t="s">
+      <c r="J511" t="s">
         <v>15</v>
       </c>
       <c r="K511">
@@ -31024,7 +31278,7 @@
       <c r="I512" s="2">
         <v>44562</v>
       </c>
-      <c r="J512" s="3" t="s">
+      <c r="J512" t="s">
         <v>15</v>
       </c>
       <c r="K512">
@@ -31059,7 +31313,7 @@
       <c r="I513" s="2">
         <v>44562</v>
       </c>
-      <c r="J513" s="3" t="s">
+      <c r="J513" t="s">
         <v>15</v>
       </c>
       <c r="K513">
@@ -31094,7 +31348,7 @@
       <c r="I514" s="2">
         <v>44562</v>
       </c>
-      <c r="J514" s="3" t="s">
+      <c r="J514" t="s">
         <v>15</v>
       </c>
       <c r="K514">
@@ -31129,7 +31383,7 @@
       <c r="I515" s="2">
         <v>44562</v>
       </c>
-      <c r="J515" s="3" t="s">
+      <c r="J515" t="s">
         <v>15</v>
       </c>
       <c r="K515">
@@ -31164,7 +31418,7 @@
       <c r="I516" s="2">
         <v>44561</v>
       </c>
-      <c r="J516" s="3" t="s">
+      <c r="J516" t="s">
         <v>15</v>
       </c>
       <c r="K516">
@@ -31199,7 +31453,7 @@
       <c r="I517" s="2">
         <v>44561</v>
       </c>
-      <c r="J517" s="3" t="s">
+      <c r="J517" t="s">
         <v>15</v>
       </c>
       <c r="K517">
@@ -31234,7 +31488,7 @@
       <c r="I518" s="2">
         <v>44561</v>
       </c>
-      <c r="J518" s="3" t="s">
+      <c r="J518" t="s">
         <v>15</v>
       </c>
       <c r="K518">
@@ -31269,7 +31523,7 @@
       <c r="I519" s="2">
         <v>44561</v>
       </c>
-      <c r="J519" s="3" t="s">
+      <c r="J519" t="s">
         <v>15</v>
       </c>
       <c r="K519">
@@ -31304,7 +31558,7 @@
       <c r="I520" s="2">
         <v>44561</v>
       </c>
-      <c r="J520" s="3" t="s">
+      <c r="J520" t="s">
         <v>15</v>
       </c>
       <c r="K520">
@@ -31339,7 +31593,7 @@
       <c r="I521" s="2">
         <v>44561</v>
       </c>
-      <c r="J521" s="3" t="s">
+      <c r="J521" t="s">
         <v>15</v>
       </c>
       <c r="K521">
@@ -31374,7 +31628,7 @@
       <c r="I522" s="2">
         <v>44561</v>
       </c>
-      <c r="J522" s="3" t="s">
+      <c r="J522" t="s">
         <v>15</v>
       </c>
       <c r="K522">
@@ -31409,7 +31663,7 @@
       <c r="I523" s="2">
         <v>44561</v>
       </c>
-      <c r="J523" s="3" t="s">
+      <c r="J523" t="s">
         <v>15</v>
       </c>
       <c r="K523">
@@ -31444,7 +31698,7 @@
       <c r="I524" s="2">
         <v>44561</v>
       </c>
-      <c r="J524" s="3" t="s">
+      <c r="J524" t="s">
         <v>15</v>
       </c>
       <c r="K524">
@@ -31479,7 +31733,7 @@
       <c r="I525" s="2">
         <v>44561</v>
       </c>
-      <c r="J525" s="3" t="s">
+      <c r="J525" t="s">
         <v>15</v>
       </c>
       <c r="K525">
@@ -31514,7 +31768,7 @@
       <c r="I526" s="2">
         <v>44561</v>
       </c>
-      <c r="J526" s="3" t="s">
+      <c r="J526" t="s">
         <v>15</v>
       </c>
       <c r="K526">
@@ -31549,7 +31803,7 @@
       <c r="I527" s="2">
         <v>44561</v>
       </c>
-      <c r="J527" s="3" t="s">
+      <c r="J527" t="s">
         <v>15</v>
       </c>
       <c r="K527">
@@ -31584,7 +31838,7 @@
       <c r="I528" s="2">
         <v>44561</v>
       </c>
-      <c r="J528" s="3" t="s">
+      <c r="J528" t="s">
         <v>15</v>
       </c>
       <c r="K528">
@@ -31619,7 +31873,7 @@
       <c r="I529" s="2">
         <v>44561</v>
       </c>
-      <c r="J529" s="3" t="s">
+      <c r="J529" t="s">
         <v>15</v>
       </c>
       <c r="K529">
@@ -31654,7 +31908,7 @@
       <c r="I530" s="2">
         <v>44561</v>
       </c>
-      <c r="J530" s="3" t="s">
+      <c r="J530" t="s">
         <v>15</v>
       </c>
       <c r="K530">
@@ -31689,7 +31943,7 @@
       <c r="I531" s="2">
         <v>44561</v>
       </c>
-      <c r="J531" s="3" t="s">
+      <c r="J531" t="s">
         <v>15</v>
       </c>
       <c r="K531">
@@ -31724,7 +31978,7 @@
       <c r="I532" s="2">
         <v>44561</v>
       </c>
-      <c r="J532" s="3" t="s">
+      <c r="J532" t="s">
         <v>15</v>
       </c>
       <c r="K532">
@@ -31759,7 +32013,7 @@
       <c r="I533" s="2">
         <v>44561</v>
       </c>
-      <c r="J533" s="3" t="s">
+      <c r="J533" t="s">
         <v>15</v>
       </c>
       <c r="K533">
@@ -31794,7 +32048,7 @@
       <c r="I534" s="2">
         <v>44561</v>
       </c>
-      <c r="J534" s="3" t="s">
+      <c r="J534" t="s">
         <v>15</v>
       </c>
       <c r="K534">
@@ -31829,7 +32083,7 @@
       <c r="I535" s="2">
         <v>44561</v>
       </c>
-      <c r="J535" s="3" t="s">
+      <c r="J535" t="s">
         <v>15</v>
       </c>
       <c r="K535">
@@ -31864,7 +32118,7 @@
       <c r="I536" s="2">
         <v>44561</v>
       </c>
-      <c r="J536" s="3" t="s">
+      <c r="J536" t="s">
         <v>15</v>
       </c>
       <c r="K536">
@@ -31899,7 +32153,7 @@
       <c r="I537" s="2">
         <v>44561</v>
       </c>
-      <c r="J537" s="3" t="s">
+      <c r="J537" t="s">
         <v>15</v>
       </c>
       <c r="K537">
@@ -31934,7 +32188,7 @@
       <c r="I538" s="2">
         <v>44561</v>
       </c>
-      <c r="J538" s="3" t="s">
+      <c r="J538" t="s">
         <v>15</v>
       </c>
       <c r="K538">
@@ -31969,7 +32223,7 @@
       <c r="I539" s="2">
         <v>44560</v>
       </c>
-      <c r="J539" s="3" t="s">
+      <c r="J539" t="s">
         <v>15</v>
       </c>
       <c r="K539">
@@ -32004,7 +32258,7 @@
       <c r="I540" s="2">
         <v>44560</v>
       </c>
-      <c r="J540" s="3" t="s">
+      <c r="J540" t="s">
         <v>15</v>
       </c>
       <c r="K540">
@@ -32039,7 +32293,7 @@
       <c r="I541" s="2">
         <v>44560</v>
       </c>
-      <c r="J541" s="3" t="s">
+      <c r="J541" t="s">
         <v>15</v>
       </c>
       <c r="K541">
@@ -32074,7 +32328,7 @@
       <c r="I542" s="2">
         <v>44560</v>
       </c>
-      <c r="J542" s="3" t="s">
+      <c r="J542" t="s">
         <v>15</v>
       </c>
       <c r="K542">
@@ -32109,7 +32363,7 @@
       <c r="I543" s="2">
         <v>44560</v>
       </c>
-      <c r="J543" s="3" t="s">
+      <c r="J543" t="s">
         <v>15</v>
       </c>
       <c r="K543">
@@ -32144,7 +32398,7 @@
       <c r="I544" s="2">
         <v>44560</v>
       </c>
-      <c r="J544" s="3" t="s">
+      <c r="J544" t="s">
         <v>15</v>
       </c>
       <c r="K544">
@@ -32179,7 +32433,7 @@
       <c r="I545" s="2">
         <v>44560</v>
       </c>
-      <c r="J545" s="3" t="s">
+      <c r="J545" t="s">
         <v>15</v>
       </c>
       <c r="K545">
@@ -32214,7 +32468,7 @@
       <c r="I546" s="2">
         <v>44560</v>
       </c>
-      <c r="J546" s="3" t="s">
+      <c r="J546" t="s">
         <v>15</v>
       </c>
       <c r="K546">
@@ -32249,7 +32503,7 @@
       <c r="I547" s="2">
         <v>44560</v>
       </c>
-      <c r="J547" s="3" t="s">
+      <c r="J547" t="s">
         <v>15</v>
       </c>
       <c r="K547">
@@ -32284,7 +32538,7 @@
       <c r="I548" s="2">
         <v>44560</v>
       </c>
-      <c r="J548" s="3" t="s">
+      <c r="J548" t="s">
         <v>15</v>
       </c>
       <c r="K548">
@@ -32319,7 +32573,7 @@
       <c r="I549" s="2">
         <v>44560</v>
       </c>
-      <c r="J549" s="3" t="s">
+      <c r="J549" t="s">
         <v>15</v>
       </c>
       <c r="K549">
@@ -32354,7 +32608,7 @@
       <c r="I550" s="2">
         <v>44560</v>
       </c>
-      <c r="J550" s="3" t="s">
+      <c r="J550" t="s">
         <v>15</v>
       </c>
       <c r="K550">
@@ -32389,7 +32643,7 @@
       <c r="I551" s="2">
         <v>44560</v>
       </c>
-      <c r="J551" s="3" t="s">
+      <c r="J551" t="s">
         <v>15</v>
       </c>
       <c r="K551">
@@ -32424,7 +32678,7 @@
       <c r="I552" s="2">
         <v>44560</v>
       </c>
-      <c r="J552" s="3" t="s">
+      <c r="J552" t="s">
         <v>15</v>
       </c>
       <c r="K552">
@@ -32459,7 +32713,7 @@
       <c r="I553" s="2">
         <v>44560</v>
       </c>
-      <c r="J553" s="3" t="s">
+      <c r="J553" t="s">
         <v>15</v>
       </c>
       <c r="K553">
@@ -32494,7 +32748,7 @@
       <c r="I554" s="2">
         <v>44560</v>
       </c>
-      <c r="J554" s="3" t="s">
+      <c r="J554" t="s">
         <v>15</v>
       </c>
       <c r="K554">
@@ -32529,7 +32783,7 @@
       <c r="I555" s="2">
         <v>44560</v>
       </c>
-      <c r="J555" s="3" t="s">
+      <c r="J555" t="s">
         <v>15</v>
       </c>
       <c r="K555">
@@ -32564,7 +32818,7 @@
       <c r="I556" s="2">
         <v>44560</v>
       </c>
-      <c r="J556" s="3" t="s">
+      <c r="J556" t="s">
         <v>15</v>
       </c>
       <c r="K556">
@@ -32599,7 +32853,7 @@
       <c r="I557" s="2">
         <v>44560</v>
       </c>
-      <c r="J557" s="3" t="s">
+      <c r="J557" t="s">
         <v>15</v>
       </c>
       <c r="K557">
@@ -32634,7 +32888,7 @@
       <c r="I558" s="2">
         <v>44560</v>
       </c>
-      <c r="J558" s="3" t="s">
+      <c r="J558" t="s">
         <v>15</v>
       </c>
       <c r="K558">
@@ -32669,7 +32923,7 @@
       <c r="I559" s="2">
         <v>44559</v>
       </c>
-      <c r="J559" s="3" t="s">
+      <c r="J559" t="s">
         <v>15</v>
       </c>
       <c r="K559">
@@ -32704,7 +32958,7 @@
       <c r="I560" s="2">
         <v>44559</v>
       </c>
-      <c r="J560" s="3" t="s">
+      <c r="J560" t="s">
         <v>15</v>
       </c>
       <c r="K560">
@@ -32739,7 +32993,7 @@
       <c r="I561" s="2">
         <v>44559</v>
       </c>
-      <c r="J561" s="3" t="s">
+      <c r="J561" t="s">
         <v>15</v>
       </c>
       <c r="K561">
@@ -32774,7 +33028,7 @@
       <c r="I562" s="2">
         <v>44559</v>
       </c>
-      <c r="J562" s="3" t="s">
+      <c r="J562" t="s">
         <v>15</v>
       </c>
       <c r="K562">
@@ -32809,7 +33063,7 @@
       <c r="I563" s="2">
         <v>44559</v>
       </c>
-      <c r="J563" s="3" t="s">
+      <c r="J563" t="s">
         <v>15</v>
       </c>
       <c r="K563">
@@ -32844,7 +33098,7 @@
       <c r="I564" s="2">
         <v>44559</v>
       </c>
-      <c r="J564" s="3" t="s">
+      <c r="J564" t="s">
         <v>15</v>
       </c>
       <c r="K564">
@@ -32879,7 +33133,7 @@
       <c r="I565" s="2">
         <v>44559</v>
       </c>
-      <c r="J565" s="3" t="s">
+      <c r="J565" t="s">
         <v>15</v>
       </c>
       <c r="K565">
@@ -32914,7 +33168,7 @@
       <c r="I566" s="2">
         <v>44559</v>
       </c>
-      <c r="J566" s="3" t="s">
+      <c r="J566" t="s">
         <v>15</v>
       </c>
       <c r="K566">
@@ -32949,7 +33203,7 @@
       <c r="I567" s="2">
         <v>44559</v>
       </c>
-      <c r="J567" s="3" t="s">
+      <c r="J567" t="s">
         <v>15</v>
       </c>
       <c r="K567">
@@ -32984,7 +33238,7 @@
       <c r="I568" s="2">
         <v>44559</v>
       </c>
-      <c r="J568" s="3" t="s">
+      <c r="J568" t="s">
         <v>15</v>
       </c>
       <c r="K568">
@@ -33019,7 +33273,7 @@
       <c r="I569" s="2">
         <v>44559</v>
       </c>
-      <c r="J569" s="3" t="s">
+      <c r="J569" t="s">
         <v>15</v>
       </c>
       <c r="K569">
@@ -33054,7 +33308,7 @@
       <c r="I570" s="2">
         <v>44559</v>
       </c>
-      <c r="J570" s="3" t="s">
+      <c r="J570" t="s">
         <v>15</v>
       </c>
       <c r="K570">
@@ -33089,7 +33343,7 @@
       <c r="I571" s="2">
         <v>44559</v>
       </c>
-      <c r="J571" s="3" t="s">
+      <c r="J571" t="s">
         <v>15</v>
       </c>
       <c r="K571">
@@ -33124,7 +33378,7 @@
       <c r="I572" s="2">
         <v>44559</v>
       </c>
-      <c r="J572" s="3" t="s">
+      <c r="J572" t="s">
         <v>15</v>
       </c>
       <c r="K572">
@@ -33159,7 +33413,7 @@
       <c r="I573" s="2">
         <v>44559</v>
       </c>
-      <c r="J573" s="3" t="s">
+      <c r="J573" t="s">
         <v>15</v>
       </c>
       <c r="K573">
@@ -33194,7 +33448,7 @@
       <c r="I574" s="2">
         <v>44559</v>
       </c>
-      <c r="J574" s="3" t="s">
+      <c r="J574" t="s">
         <v>15</v>
       </c>
       <c r="K574">
@@ -33229,7 +33483,7 @@
       <c r="I575" s="2">
         <v>44559</v>
       </c>
-      <c r="J575" s="3" t="s">
+      <c r="J575" t="s">
         <v>15</v>
       </c>
       <c r="K575">
@@ -33264,7 +33518,7 @@
       <c r="I576" s="2">
         <v>44558</v>
       </c>
-      <c r="J576" s="3" t="s">
+      <c r="J576" t="s">
         <v>15</v>
       </c>
       <c r="K576">
@@ -33299,7 +33553,7 @@
       <c r="I577" s="2">
         <v>44558</v>
       </c>
-      <c r="J577" s="3" t="s">
+      <c r="J577" t="s">
         <v>15</v>
       </c>
       <c r="K577">
@@ -33334,7 +33588,7 @@
       <c r="I578" s="2">
         <v>44558</v>
       </c>
-      <c r="J578" s="3" t="s">
+      <c r="J578" t="s">
         <v>15</v>
       </c>
       <c r="K578">
@@ -33369,7 +33623,7 @@
       <c r="I579" s="2">
         <v>44558</v>
       </c>
-      <c r="J579" s="3" t="s">
+      <c r="J579" t="s">
         <v>15</v>
       </c>
       <c r="K579">
@@ -33404,7 +33658,7 @@
       <c r="I580" s="2">
         <v>44558</v>
       </c>
-      <c r="J580" s="3" t="s">
+      <c r="J580" t="s">
         <v>15</v>
       </c>
       <c r="K580">
@@ -33439,7 +33693,7 @@
       <c r="I581" s="2">
         <v>44558</v>
       </c>
-      <c r="J581" s="3" t="s">
+      <c r="J581" t="s">
         <v>15</v>
       </c>
       <c r="K581">
@@ -33474,7 +33728,7 @@
       <c r="I582" s="2">
         <v>44558</v>
       </c>
-      <c r="J582" s="3" t="s">
+      <c r="J582" t="s">
         <v>15</v>
       </c>
       <c r="K582">
@@ -33509,7 +33763,7 @@
       <c r="I583" s="2">
         <v>44558</v>
       </c>
-      <c r="J583" s="3" t="s">
+      <c r="J583" t="s">
         <v>15</v>
       </c>
       <c r="K583">
@@ -33544,7 +33798,7 @@
       <c r="I584" s="2">
         <v>44558</v>
       </c>
-      <c r="J584" s="3" t="s">
+      <c r="J584" t="s">
         <v>15</v>
       </c>
       <c r="K584">
@@ -33579,7 +33833,7 @@
       <c r="I585" s="2">
         <v>44558</v>
       </c>
-      <c r="J585" s="3" t="s">
+      <c r="J585" t="s">
         <v>15</v>
       </c>
       <c r="K585">
@@ -33614,7 +33868,7 @@
       <c r="I586" s="2">
         <v>44558</v>
       </c>
-      <c r="J586" s="3" t="s">
+      <c r="J586" t="s">
         <v>15</v>
       </c>
       <c r="K586">
@@ -33649,7 +33903,7 @@
       <c r="I587" s="2">
         <v>44558</v>
       </c>
-      <c r="J587" s="3" t="s">
+      <c r="J587" t="s">
         <v>15</v>
       </c>
       <c r="K587">
@@ -33684,7 +33938,7 @@
       <c r="I588" s="2">
         <v>44558</v>
       </c>
-      <c r="J588" s="3" t="s">
+      <c r="J588" t="s">
         <v>15</v>
       </c>
       <c r="K588">
@@ -33719,7 +33973,7 @@
       <c r="I589" s="2">
         <v>44557</v>
       </c>
-      <c r="J589" s="3" t="s">
+      <c r="J589" t="s">
         <v>15</v>
       </c>
       <c r="K589">
@@ -33754,7 +34008,7 @@
       <c r="I590" s="2">
         <v>44557</v>
       </c>
-      <c r="J590" s="3" t="s">
+      <c r="J590" t="s">
         <v>15</v>
       </c>
       <c r="K590">
@@ -33789,7 +34043,7 @@
       <c r="I591" s="2">
         <v>44557</v>
       </c>
-      <c r="J591" s="3" t="s">
+      <c r="J591" t="s">
         <v>15</v>
       </c>
       <c r="K591">
@@ -33824,7 +34078,7 @@
       <c r="I592" s="2">
         <v>44557</v>
       </c>
-      <c r="J592" s="3" t="s">
+      <c r="J592" t="s">
         <v>15</v>
       </c>
       <c r="K592">
@@ -33859,7 +34113,7 @@
       <c r="I593" s="2">
         <v>44557</v>
       </c>
-      <c r="J593" s="3" t="s">
+      <c r="J593" t="s">
         <v>15</v>
       </c>
       <c r="K593">
@@ -33894,7 +34148,7 @@
       <c r="I594" s="2">
         <v>44557</v>
       </c>
-      <c r="J594" s="3" t="s">
+      <c r="J594" t="s">
         <v>15</v>
       </c>
       <c r="K594">
@@ -33929,7 +34183,7 @@
       <c r="I595" s="2">
         <v>44557</v>
       </c>
-      <c r="J595" s="3" t="s">
+      <c r="J595" t="s">
         <v>15</v>
       </c>
       <c r="K595">
@@ -33964,7 +34218,7 @@
       <c r="I596" s="2">
         <v>44557</v>
       </c>
-      <c r="J596" s="3" t="s">
+      <c r="J596" t="s">
         <v>15</v>
       </c>
       <c r="K596">
@@ -33999,7 +34253,7 @@
       <c r="I597" s="2">
         <v>44557</v>
       </c>
-      <c r="J597" s="3" t="s">
+      <c r="J597" t="s">
         <v>15</v>
       </c>
       <c r="K597">
@@ -34034,7 +34288,7 @@
       <c r="I598" s="2">
         <v>44557</v>
       </c>
-      <c r="J598" s="3" t="s">
+      <c r="J598" t="s">
         <v>15</v>
       </c>
       <c r="K598">
@@ -34069,7 +34323,7 @@
       <c r="I599" s="2">
         <v>44557</v>
       </c>
-      <c r="J599" s="3" t="s">
+      <c r="J599" t="s">
         <v>15</v>
       </c>
       <c r="K599">
@@ -34104,7 +34358,7 @@
       <c r="I600" s="2">
         <v>44557</v>
       </c>
-      <c r="J600" s="3" t="s">
+      <c r="J600" t="s">
         <v>15</v>
       </c>
       <c r="K600">
@@ -34139,7 +34393,7 @@
       <c r="I601" s="2">
         <v>44557</v>
       </c>
-      <c r="J601" s="3" t="s">
+      <c r="J601" t="s">
         <v>15</v>
       </c>
       <c r="K601">
@@ -34174,7 +34428,7 @@
       <c r="I602" s="2">
         <v>44557</v>
       </c>
-      <c r="J602" s="3" t="s">
+      <c r="J602" t="s">
         <v>15</v>
       </c>
       <c r="K602">
@@ -34209,7 +34463,7 @@
       <c r="I603" s="2">
         <v>44557</v>
       </c>
-      <c r="J603" s="3" t="s">
+      <c r="J603" t="s">
         <v>15</v>
       </c>
       <c r="K603">
@@ -34244,7 +34498,7 @@
       <c r="I604" s="2">
         <v>44557</v>
       </c>
-      <c r="J604" s="3" t="s">
+      <c r="J604" t="s">
         <v>15</v>
       </c>
       <c r="K604">
@@ -34279,7 +34533,7 @@
       <c r="I605" s="2">
         <v>44557</v>
       </c>
-      <c r="J605" s="3" t="s">
+      <c r="J605" t="s">
         <v>15</v>
       </c>
       <c r="K605">
@@ -34314,7 +34568,7 @@
       <c r="I606" s="2">
         <v>44557</v>
       </c>
-      <c r="J606" s="3" t="s">
+      <c r="J606" t="s">
         <v>15</v>
       </c>
       <c r="K606">
@@ -34349,7 +34603,7 @@
       <c r="I607" s="2">
         <v>44557</v>
       </c>
-      <c r="J607" s="3" t="s">
+      <c r="J607" t="s">
         <v>15</v>
       </c>
       <c r="K607">
@@ -34384,7 +34638,7 @@
       <c r="I608" s="2">
         <v>44557</v>
       </c>
-      <c r="J608" s="3" t="s">
+      <c r="J608" t="s">
         <v>15</v>
       </c>
       <c r="K608">
@@ -34419,7 +34673,7 @@
       <c r="I609" s="2">
         <v>44557</v>
       </c>
-      <c r="J609" s="3" t="s">
+      <c r="J609" t="s">
         <v>15</v>
       </c>
       <c r="K609">
@@ -34454,7 +34708,7 @@
       <c r="I610" s="2">
         <v>44557</v>
       </c>
-      <c r="J610" s="3" t="s">
+      <c r="J610" t="s">
         <v>15</v>
       </c>
       <c r="K610">
@@ -34489,7 +34743,7 @@
       <c r="I611" s="2">
         <v>44557</v>
       </c>
-      <c r="J611" s="3" t="s">
+      <c r="J611" t="s">
         <v>15</v>
       </c>
       <c r="K611">
@@ -34524,7 +34778,7 @@
       <c r="I612" s="2">
         <v>44557</v>
       </c>
-      <c r="J612" s="3" t="s">
+      <c r="J612" t="s">
         <v>15</v>
       </c>
       <c r="K612">
@@ -34559,7 +34813,7 @@
       <c r="I613" s="2">
         <v>44557</v>
       </c>
-      <c r="J613" s="3" t="s">
+      <c r="J613" t="s">
         <v>15</v>
       </c>
       <c r="K613">
@@ -34594,7 +34848,7 @@
       <c r="I614" s="2">
         <v>44557</v>
       </c>
-      <c r="J614" s="3" t="s">
+      <c r="J614" t="s">
         <v>15</v>
       </c>
       <c r="K614">
@@ -34629,7 +34883,7 @@
       <c r="I615" s="2">
         <v>44557</v>
       </c>
-      <c r="J615" s="3" t="s">
+      <c r="J615" t="s">
         <v>15</v>
       </c>
       <c r="K615">
@@ -34664,7 +34918,7 @@
       <c r="I616" s="2">
         <v>44557</v>
       </c>
-      <c r="J616" s="3" t="s">
+      <c r="J616" t="s">
         <v>15</v>
       </c>
       <c r="K616">
@@ -34699,7 +34953,7 @@
       <c r="I617" s="2">
         <v>44557</v>
       </c>
-      <c r="J617" s="3" t="s">
+      <c r="J617" t="s">
         <v>15</v>
       </c>
       <c r="K617">
@@ -34734,7 +34988,7 @@
       <c r="I618" s="2">
         <v>44557</v>
       </c>
-      <c r="J618" s="3" t="s">
+      <c r="J618" t="s">
         <v>15</v>
       </c>
       <c r="K618">
@@ -34769,7 +35023,7 @@
       <c r="I619" s="2">
         <v>44557</v>
       </c>
-      <c r="J619" s="3" t="s">
+      <c r="J619" t="s">
         <v>15</v>
       </c>
       <c r="K619">
@@ -34804,7 +35058,7 @@
       <c r="I620" s="2">
         <v>44557</v>
       </c>
-      <c r="J620" s="3" t="s">
+      <c r="J620" t="s">
         <v>15</v>
       </c>
       <c r="K620">
@@ -34839,7 +35093,7 @@
       <c r="I621" s="2">
         <v>44557</v>
       </c>
-      <c r="J621" s="3" t="s">
+      <c r="J621" t="s">
         <v>15</v>
       </c>
       <c r="K621">
@@ -34874,7 +35128,7 @@
       <c r="I622" s="2">
         <v>44557</v>
       </c>
-      <c r="J622" s="3" t="s">
+      <c r="J622" t="s">
         <v>15</v>
       </c>
       <c r="K622">
@@ -34909,7 +35163,7 @@
       <c r="I623" s="2">
         <v>44557</v>
       </c>
-      <c r="J623" s="3" t="s">
+      <c r="J623" t="s">
         <v>15</v>
       </c>
       <c r="K623">
@@ -34944,7 +35198,7 @@
       <c r="I624" s="2">
         <v>44557</v>
       </c>
-      <c r="J624" s="3" t="s">
+      <c r="J624" t="s">
         <v>15</v>
       </c>
       <c r="K624">
@@ -34979,7 +35233,7 @@
       <c r="I625" s="2">
         <v>44557</v>
       </c>
-      <c r="J625" s="3" t="s">
+      <c r="J625" t="s">
         <v>15</v>
       </c>
       <c r="K625">
@@ -35014,7 +35268,7 @@
       <c r="I626" s="2">
         <v>44557</v>
       </c>
-      <c r="J626" s="3" t="s">
+      <c r="J626" t="s">
         <v>15</v>
       </c>
       <c r="K626">
@@ -35049,7 +35303,7 @@
       <c r="I627" s="2">
         <v>44557</v>
       </c>
-      <c r="J627" s="3" t="s">
+      <c r="J627" t="s">
         <v>15</v>
       </c>
       <c r="K627">
@@ -35084,7 +35338,7 @@
       <c r="I628" s="2">
         <v>44556</v>
       </c>
-      <c r="J628" s="3" t="s">
+      <c r="J628" t="s">
         <v>15</v>
       </c>
       <c r="K628">
@@ -35119,7 +35373,7 @@
       <c r="I629" s="2">
         <v>44555</v>
       </c>
-      <c r="J629" s="3" t="s">
+      <c r="J629" t="s">
         <v>15</v>
       </c>
       <c r="K629">
@@ -35154,7 +35408,7 @@
       <c r="I630" s="2">
         <v>44555</v>
       </c>
-      <c r="J630" s="3" t="s">
+      <c r="J630" t="s">
         <v>15</v>
       </c>
       <c r="K630">
@@ -35189,7 +35443,7 @@
       <c r="I631" s="2">
         <v>44555</v>
       </c>
-      <c r="J631" s="3" t="s">
+      <c r="J631" t="s">
         <v>15</v>
       </c>
       <c r="K631">
@@ -35224,7 +35478,7 @@
       <c r="I632" s="2">
         <v>44555</v>
       </c>
-      <c r="J632" s="3" t="s">
+      <c r="J632" t="s">
         <v>15</v>
       </c>
       <c r="K632">
@@ -35259,7 +35513,7 @@
       <c r="I633" s="2">
         <v>44555</v>
       </c>
-      <c r="J633" s="3" t="s">
+      <c r="J633" t="s">
         <v>15</v>
       </c>
       <c r="K633">
@@ -35294,7 +35548,7 @@
       <c r="I634" s="2">
         <v>44555</v>
       </c>
-      <c r="J634" s="3" t="s">
+      <c r="J634" t="s">
         <v>15</v>
       </c>
       <c r="K634">
@@ -35329,7 +35583,7 @@
       <c r="I635" s="2">
         <v>44555</v>
       </c>
-      <c r="J635" s="3" t="s">
+      <c r="J635" t="s">
         <v>15</v>
       </c>
       <c r="K635">
@@ -35364,7 +35618,7 @@
       <c r="I636" s="2">
         <v>44555</v>
       </c>
-      <c r="J636" s="3" t="s">
+      <c r="J636" t="s">
         <v>15</v>
       </c>
       <c r="K636">
@@ -35399,7 +35653,7 @@
       <c r="I637" s="2">
         <v>44555</v>
       </c>
-      <c r="J637" s="3" t="s">
+      <c r="J637" t="s">
         <v>15</v>
       </c>
       <c r="K637">
@@ -35434,7 +35688,7 @@
       <c r="I638" s="2">
         <v>44555</v>
       </c>
-      <c r="J638" s="3" t="s">
+      <c r="J638" t="s">
         <v>15</v>
       </c>
       <c r="K638">
@@ -35469,7 +35723,7 @@
       <c r="I639" s="2">
         <v>44555</v>
       </c>
-      <c r="J639" s="3" t="s">
+      <c r="J639" t="s">
         <v>15</v>
       </c>
       <c r="K639">
@@ -35504,7 +35758,7 @@
       <c r="I640" s="2">
         <v>44555</v>
       </c>
-      <c r="J640" s="3" t="s">
+      <c r="J640" t="s">
         <v>15</v>
       </c>
       <c r="K640">
@@ -35539,7 +35793,7 @@
       <c r="I641" s="2">
         <v>44555</v>
       </c>
-      <c r="J641" s="3" t="s">
+      <c r="J641" t="s">
         <v>15</v>
       </c>
       <c r="K641">
@@ -35574,7 +35828,7 @@
       <c r="I642" s="2">
         <v>44555</v>
       </c>
-      <c r="J642" s="3" t="s">
+      <c r="J642" t="s">
         <v>15</v>
       </c>
       <c r="K642">
@@ -35609,7 +35863,7 @@
       <c r="I643" s="2">
         <v>44555</v>
       </c>
-      <c r="J643" s="3" t="s">
+      <c r="J643" t="s">
         <v>15</v>
       </c>
       <c r="K643">
@@ -35644,7 +35898,7 @@
       <c r="I644" s="2">
         <v>44555</v>
       </c>
-      <c r="J644" s="3" t="s">
+      <c r="J644" t="s">
         <v>15</v>
       </c>
       <c r="K644">
@@ -35679,7 +35933,7 @@
       <c r="I645" s="2">
         <v>44555</v>
       </c>
-      <c r="J645" s="3" t="s">
+      <c r="J645" t="s">
         <v>15</v>
       </c>
       <c r="K645">
@@ -35714,7 +35968,7 @@
       <c r="I646" s="2">
         <v>44555</v>
       </c>
-      <c r="J646" s="3" t="s">
+      <c r="J646" t="s">
         <v>15</v>
       </c>
       <c r="K646">
@@ -35749,7 +36003,7 @@
       <c r="I647" s="2">
         <v>44555</v>
       </c>
-      <c r="J647" s="3" t="s">
+      <c r="J647" t="s">
         <v>15</v>
       </c>
       <c r="K647">
@@ -35784,7 +36038,7 @@
       <c r="I648" s="2">
         <v>44555</v>
       </c>
-      <c r="J648" s="3" t="s">
+      <c r="J648" t="s">
         <v>15</v>
       </c>
       <c r="K648">
@@ -35819,7 +36073,7 @@
       <c r="I649" s="2">
         <v>44554</v>
       </c>
-      <c r="J649" s="3" t="s">
+      <c r="J649" t="s">
         <v>15</v>
       </c>
       <c r="K649">
@@ -35854,7 +36108,7 @@
       <c r="I650" s="2">
         <v>44554</v>
       </c>
-      <c r="J650" s="3" t="s">
+      <c r="J650" t="s">
         <v>15</v>
       </c>
       <c r="K650">
@@ -35889,7 +36143,7 @@
       <c r="I651" s="2">
         <v>44554</v>
       </c>
-      <c r="J651" s="3" t="s">
+      <c r="J651" t="s">
         <v>15</v>
       </c>
       <c r="K651">
@@ -35924,7 +36178,7 @@
       <c r="I652" s="2">
         <v>44554</v>
       </c>
-      <c r="J652" s="3" t="s">
+      <c r="J652" t="s">
         <v>15</v>
       </c>
       <c r="K652">
@@ -35959,7 +36213,7 @@
       <c r="I653" s="2">
         <v>44554</v>
       </c>
-      <c r="J653" s="3" t="s">
+      <c r="J653" t="s">
         <v>15</v>
       </c>
       <c r="K653">
@@ -35994,7 +36248,7 @@
       <c r="I654" s="2">
         <v>44554</v>
       </c>
-      <c r="J654" s="3" t="s">
+      <c r="J654" t="s">
         <v>15</v>
       </c>
       <c r="K654">
@@ -36029,7 +36283,7 @@
       <c r="I655" s="2">
         <v>44554</v>
       </c>
-      <c r="J655" s="3" t="s">
+      <c r="J655" t="s">
         <v>15</v>
       </c>
       <c r="K655">
@@ -36064,7 +36318,7 @@
       <c r="I656" s="2">
         <v>44554</v>
       </c>
-      <c r="J656" s="3" t="s">
+      <c r="J656" t="s">
         <v>15</v>
       </c>
       <c r="K656">
@@ -36099,7 +36353,7 @@
       <c r="I657" s="2">
         <v>44554</v>
       </c>
-      <c r="J657" s="3" t="s">
+      <c r="J657" t="s">
         <v>15</v>
       </c>
       <c r="K657">
@@ -36134,7 +36388,7 @@
       <c r="I658" s="2">
         <v>44554</v>
       </c>
-      <c r="J658" s="3" t="s">
+      <c r="J658" t="s">
         <v>15</v>
       </c>
       <c r="K658">
@@ -36169,7 +36423,7 @@
       <c r="I659" s="2">
         <v>44554</v>
       </c>
-      <c r="J659" s="3" t="s">
+      <c r="J659" t="s">
         <v>15</v>
       </c>
       <c r="K659">
@@ -36204,7 +36458,7 @@
       <c r="I660" s="2">
         <v>44554</v>
       </c>
-      <c r="J660" s="3" t="s">
+      <c r="J660" t="s">
         <v>15</v>
       </c>
       <c r="K660">
@@ -36239,7 +36493,7 @@
       <c r="I661" s="2">
         <v>44554</v>
       </c>
-      <c r="J661" s="3" t="s">
+      <c r="J661" t="s">
         <v>15</v>
       </c>
       <c r="K661">
@@ -36274,7 +36528,7 @@
       <c r="I662" s="2">
         <v>44554</v>
       </c>
-      <c r="J662" s="3" t="s">
+      <c r="J662" t="s">
         <v>15</v>
       </c>
       <c r="K662">
@@ -36309,7 +36563,7 @@
       <c r="I663" s="2">
         <v>44554</v>
       </c>
-      <c r="J663" s="3" t="s">
+      <c r="J663" t="s">
         <v>15</v>
       </c>
       <c r="K663">
@@ -36344,7 +36598,7 @@
       <c r="I664" s="2">
         <v>44554</v>
       </c>
-      <c r="J664" s="3" t="s">
+      <c r="J664" t="s">
         <v>15</v>
       </c>
       <c r="K664">
@@ -36379,7 +36633,7 @@
       <c r="I665" s="2">
         <v>44554</v>
       </c>
-      <c r="J665" s="3" t="s">
+      <c r="J665" t="s">
         <v>15</v>
       </c>
       <c r="K665">
@@ -36414,7 +36668,7 @@
       <c r="I666" s="2">
         <v>44554</v>
       </c>
-      <c r="J666" s="3" t="s">
+      <c r="J666" t="s">
         <v>15</v>
       </c>
       <c r="K666">
@@ -36449,7 +36703,7 @@
       <c r="I667" s="2">
         <v>44554</v>
       </c>
-      <c r="J667" s="3" t="s">
+      <c r="J667" t="s">
         <v>15</v>
       </c>
       <c r="K667">
@@ -36484,7 +36738,7 @@
       <c r="I668" s="2">
         <v>44554</v>
       </c>
-      <c r="J668" s="3" t="s">
+      <c r="J668" t="s">
         <v>15</v>
       </c>
       <c r="K668">
@@ -36519,7 +36773,7 @@
       <c r="I669" s="2">
         <v>44554</v>
       </c>
-      <c r="J669" s="3" t="s">
+      <c r="J669" t="s">
         <v>15</v>
       </c>
       <c r="K669">
@@ -36554,7 +36808,7 @@
       <c r="I670" s="2">
         <v>44554</v>
       </c>
-      <c r="J670" s="3" t="s">
+      <c r="J670" t="s">
         <v>15</v>
       </c>
       <c r="K670">
@@ -36589,7 +36843,7 @@
       <c r="I671" s="2">
         <v>44554</v>
       </c>
-      <c r="J671" s="3" t="s">
+      <c r="J671" t="s">
         <v>15</v>
       </c>
       <c r="K671">
@@ -36624,7 +36878,7 @@
       <c r="I672" s="2">
         <v>44554</v>
       </c>
-      <c r="J672" s="3" t="s">
+      <c r="J672" t="s">
         <v>15</v>
       </c>
       <c r="K672">
@@ -36659,7 +36913,7 @@
       <c r="I673" s="2">
         <v>44554</v>
       </c>
-      <c r="J673" s="3" t="s">
+      <c r="J673" t="s">
         <v>15</v>
       </c>
       <c r="K673">
@@ -36694,7 +36948,7 @@
       <c r="I674" s="2">
         <v>44554</v>
       </c>
-      <c r="J674" s="3" t="s">
+      <c r="J674" t="s">
         <v>15</v>
       </c>
       <c r="K674">
@@ -36729,7 +36983,7 @@
       <c r="I675" s="2">
         <v>44554</v>
       </c>
-      <c r="J675" s="3" t="s">
+      <c r="J675" t="s">
         <v>15</v>
       </c>
       <c r="K675">
@@ -36764,7 +37018,7 @@
       <c r="I676" s="2">
         <v>44554</v>
       </c>
-      <c r="J676" s="3" t="s">
+      <c r="J676" t="s">
         <v>15</v>
       </c>
       <c r="K676">
@@ -36799,7 +37053,7 @@
       <c r="I677" s="2">
         <v>44554</v>
       </c>
-      <c r="J677" s="3" t="s">
+      <c r="J677" t="s">
         <v>15</v>
       </c>
       <c r="K677">
@@ -36834,7 +37088,7 @@
       <c r="I678" s="2">
         <v>44554</v>
       </c>
-      <c r="J678" s="3" t="s">
+      <c r="J678" t="s">
         <v>15</v>
       </c>
       <c r="K678">
@@ -36869,7 +37123,7 @@
       <c r="I679" s="2">
         <v>44554</v>
       </c>
-      <c r="J679" s="3" t="s">
+      <c r="J679" t="s">
         <v>15</v>
       </c>
       <c r="K679">
@@ -36904,7 +37158,7 @@
       <c r="I680" s="2">
         <v>44554</v>
       </c>
-      <c r="J680" s="3" t="s">
+      <c r="J680" t="s">
         <v>15</v>
       </c>
       <c r="K680">
@@ -36939,7 +37193,7 @@
       <c r="I681" s="2">
         <v>44554</v>
       </c>
-      <c r="J681" s="3" t="s">
+      <c r="J681" t="s">
         <v>15</v>
       </c>
       <c r="K681">
@@ -36974,7 +37228,7 @@
       <c r="I682" s="2">
         <v>44554</v>
       </c>
-      <c r="J682" s="3" t="s">
+      <c r="J682" t="s">
         <v>15</v>
       </c>
       <c r="K682">
@@ -37009,7 +37263,7 @@
       <c r="I683" s="2">
         <v>44554</v>
       </c>
-      <c r="J683" s="3" t="s">
+      <c r="J683" t="s">
         <v>15</v>
       </c>
       <c r="K683">
@@ -37044,7 +37298,7 @@
       <c r="I684" s="2">
         <v>44554</v>
       </c>
-      <c r="J684" s="3" t="s">
+      <c r="J684" t="s">
         <v>15</v>
       </c>
       <c r="K684">
@@ -37079,7 +37333,7 @@
       <c r="I685" s="2">
         <v>44553</v>
       </c>
-      <c r="J685" s="3" t="s">
+      <c r="J685" t="s">
         <v>15</v>
       </c>
       <c r="K685">
@@ -37114,7 +37368,7 @@
       <c r="I686" s="2">
         <v>44553</v>
       </c>
-      <c r="J686" s="3" t="s">
+      <c r="J686" t="s">
         <v>15</v>
       </c>
       <c r="K686">
@@ -37149,7 +37403,7 @@
       <c r="I687" s="2">
         <v>44553</v>
       </c>
-      <c r="J687" s="3" t="s">
+      <c r="J687" t="s">
         <v>15</v>
       </c>
       <c r="K687">
@@ -37184,7 +37438,7 @@
       <c r="I688" s="2">
         <v>44553</v>
       </c>
-      <c r="J688" s="3" t="s">
+      <c r="J688" t="s">
         <v>15</v>
       </c>
       <c r="K688">
@@ -37219,7 +37473,7 @@
       <c r="I689" s="2">
         <v>44553</v>
       </c>
-      <c r="J689" s="3" t="s">
+      <c r="J689" t="s">
         <v>15</v>
       </c>
       <c r="K689">
@@ -37254,7 +37508,7 @@
       <c r="I690" s="2">
         <v>44553</v>
       </c>
-      <c r="J690" s="3" t="s">
+      <c r="J690" t="s">
         <v>15</v>
       </c>
       <c r="K690">
@@ -37289,7 +37543,7 @@
       <c r="I691" s="2">
         <v>44553</v>
       </c>
-      <c r="J691" s="3" t="s">
+      <c r="J691" t="s">
         <v>15</v>
       </c>
       <c r="K691">
@@ -37324,7 +37578,7 @@
       <c r="I692" s="2">
         <v>44553</v>
       </c>
-      <c r="J692" s="3" t="s">
+      <c r="J692" t="s">
         <v>15</v>
       </c>
       <c r="K692">
@@ -37359,7 +37613,7 @@
       <c r="I693" s="2">
         <v>44553</v>
       </c>
-      <c r="J693" s="3" t="s">
+      <c r="J693" t="s">
         <v>15</v>
       </c>
       <c r="K693">
@@ -37394,7 +37648,7 @@
       <c r="I694" s="2">
         <v>44553</v>
       </c>
-      <c r="J694" s="3" t="s">
+      <c r="J694" t="s">
         <v>15</v>
       </c>
       <c r="K694">
@@ -37429,7 +37683,7 @@
       <c r="I695" s="2">
         <v>44553</v>
       </c>
-      <c r="J695" s="3" t="s">
+      <c r="J695" t="s">
         <v>15</v>
       </c>
       <c r="K695">
@@ -37464,7 +37718,7 @@
       <c r="I696" s="2">
         <v>44553</v>
       </c>
-      <c r="J696" s="3" t="s">
+      <c r="J696" t="s">
         <v>15</v>
       </c>
       <c r="K696">
@@ -37499,7 +37753,7 @@
       <c r="I697" s="2">
         <v>44553</v>
       </c>
-      <c r="J697" s="3" t="s">
+      <c r="J697" t="s">
         <v>15</v>
       </c>
       <c r="K697">
@@ -37534,7 +37788,7 @@
       <c r="I698" s="2">
         <v>44553</v>
       </c>
-      <c r="J698" s="3" t="s">
+      <c r="J698" t="s">
         <v>15</v>
       </c>
       <c r="K698">
@@ -37569,7 +37823,7 @@
       <c r="I699" s="2">
         <v>44553</v>
       </c>
-      <c r="J699" s="3" t="s">
+      <c r="J699" t="s">
         <v>15</v>
       </c>
       <c r="K699">
@@ -37604,7 +37858,7 @@
       <c r="I700" s="2">
         <v>44553</v>
       </c>
-      <c r="J700" s="3" t="s">
+      <c r="J700" t="s">
         <v>15</v>
       </c>
       <c r="K700">
@@ -37639,7 +37893,7 @@
       <c r="I701" s="2">
         <v>44553</v>
       </c>
-      <c r="J701" s="3" t="s">
+      <c r="J701" t="s">
         <v>15</v>
       </c>
       <c r="K701">
@@ -37674,7 +37928,7 @@
       <c r="I702" s="2">
         <v>44553</v>
       </c>
-      <c r="J702" s="3" t="s">
+      <c r="J702" t="s">
         <v>15</v>
       </c>
       <c r="K702">
@@ -37709,7 +37963,7 @@
       <c r="I703" s="2">
         <v>44553</v>
       </c>
-      <c r="J703" s="3" t="s">
+      <c r="J703" t="s">
         <v>15</v>
       </c>
       <c r="K703">
@@ -37744,7 +37998,7 @@
       <c r="I704" s="2">
         <v>44553</v>
       </c>
-      <c r="J704" s="3" t="s">
+      <c r="J704" t="s">
         <v>15</v>
       </c>
       <c r="K704">
@@ -37779,7 +38033,7 @@
       <c r="I705" s="2">
         <v>44553</v>
       </c>
-      <c r="J705" s="3" t="s">
+      <c r="J705" t="s">
         <v>15</v>
       </c>
       <c r="K705">
@@ -37814,7 +38068,7 @@
       <c r="I706" s="2">
         <v>44553</v>
       </c>
-      <c r="J706" s="3" t="s">
+      <c r="J706" t="s">
         <v>15</v>
       </c>
       <c r="K706">
@@ -37849,7 +38103,7 @@
       <c r="I707" s="2">
         <v>44553</v>
       </c>
-      <c r="J707" s="3" t="s">
+      <c r="J707" t="s">
         <v>15</v>
       </c>
       <c r="K707">
@@ -37884,7 +38138,7 @@
       <c r="I708" s="2">
         <v>44553</v>
       </c>
-      <c r="J708" s="3" t="s">
+      <c r="J708" t="s">
         <v>15</v>
       </c>
       <c r="K708">
@@ -37919,7 +38173,7 @@
       <c r="I709" s="2">
         <v>44552</v>
       </c>
-      <c r="J709" s="3" t="s">
+      <c r="J709" t="s">
         <v>15</v>
       </c>
       <c r="K709">
@@ -37954,7 +38208,7 @@
       <c r="I710" s="2">
         <v>44552</v>
       </c>
-      <c r="J710" s="3" t="s">
+      <c r="J710" t="s">
         <v>15</v>
       </c>
       <c r="K710">
@@ -37989,7 +38243,7 @@
       <c r="I711" s="2">
         <v>44552</v>
       </c>
-      <c r="J711" s="3" t="s">
+      <c r="J711" t="s">
         <v>15</v>
       </c>
       <c r="K711">
@@ -38024,7 +38278,7 @@
       <c r="I712" s="2">
         <v>44552</v>
       </c>
-      <c r="J712" s="3" t="s">
+      <c r="J712" t="s">
         <v>15</v>
       </c>
       <c r="K712">
@@ -38059,7 +38313,7 @@
       <c r="I713" s="2">
         <v>44552</v>
       </c>
-      <c r="J713" s="3" t="s">
+      <c r="J713" t="s">
         <v>15</v>
       </c>
       <c r="K713">
@@ -38094,7 +38348,7 @@
       <c r="I714" s="2">
         <v>44552</v>
       </c>
-      <c r="J714" s="3" t="s">
+      <c r="J714" t="s">
         <v>15</v>
       </c>
       <c r="K714">
@@ -38129,7 +38383,7 @@
       <c r="I715" s="2">
         <v>44552</v>
       </c>
-      <c r="J715" s="3" t="s">
+      <c r="J715" t="s">
         <v>15</v>
       </c>
       <c r="K715">
@@ -38164,7 +38418,7 @@
       <c r="I716" s="2">
         <v>44552</v>
       </c>
-      <c r="J716" s="3" t="s">
+      <c r="J716" t="s">
         <v>15</v>
       </c>
       <c r="K716">
@@ -38199,7 +38453,7 @@
       <c r="I717" s="2">
         <v>44552</v>
       </c>
-      <c r="J717" s="3" t="s">
+      <c r="J717" t="s">
         <v>15</v>
       </c>
       <c r="K717">
@@ -38234,7 +38488,7 @@
       <c r="I718" s="2">
         <v>44552</v>
       </c>
-      <c r="J718" s="3" t="s">
+      <c r="J718" t="s">
         <v>15</v>
       </c>
       <c r="K718">
@@ -38269,7 +38523,7 @@
       <c r="I719" s="2">
         <v>44552</v>
       </c>
-      <c r="J719" s="3" t="s">
+      <c r="J719" t="s">
         <v>15</v>
       </c>
       <c r="K719">
@@ -38304,7 +38558,7 @@
       <c r="I720" s="2">
         <v>44552</v>
       </c>
-      <c r="J720" s="3" t="s">
+      <c r="J720" t="s">
         <v>15</v>
       </c>
       <c r="K720">
@@ -38339,7 +38593,7 @@
       <c r="I721" s="2">
         <v>44552</v>
       </c>
-      <c r="J721" s="3" t="s">
+      <c r="J721" t="s">
         <v>15</v>
       </c>
       <c r="K721">
@@ -38374,7 +38628,7 @@
       <c r="I722" s="2">
         <v>44552</v>
       </c>
-      <c r="J722" s="3" t="s">
+      <c r="J722" t="s">
         <v>15</v>
       </c>
       <c r="K722">
@@ -38409,7 +38663,7 @@
       <c r="I723" s="2">
         <v>44552</v>
       </c>
-      <c r="J723" s="3" t="s">
+      <c r="J723" t="s">
         <v>15</v>
       </c>
       <c r="K723">
@@ -38444,7 +38698,7 @@
       <c r="I724" s="2">
         <v>44552</v>
       </c>
-      <c r="J724" s="3" t="s">
+      <c r="J724" t="s">
         <v>15</v>
       </c>
       <c r="K724">
@@ -38479,7 +38733,7 @@
       <c r="I725" s="2">
         <v>44552</v>
       </c>
-      <c r="J725" s="3" t="s">
+      <c r="J725" t="s">
         <v>15</v>
       </c>
       <c r="K725">
@@ -38514,7 +38768,7 @@
       <c r="I726" s="2">
         <v>44552</v>
       </c>
-      <c r="J726" s="3" t="s">
+      <c r="J726" t="s">
         <v>15</v>
       </c>
       <c r="K726">
@@ -38549,7 +38803,7 @@
       <c r="I727" s="2">
         <v>44552</v>
       </c>
-      <c r="J727" s="3" t="s">
+      <c r="J727" t="s">
         <v>15</v>
       </c>
       <c r="K727">
@@ -38584,7 +38838,7 @@
       <c r="I728" s="2">
         <v>44552</v>
       </c>
-      <c r="J728" s="3" t="s">
+      <c r="J728" t="s">
         <v>15</v>
       </c>
       <c r="K728">
@@ -38619,7 +38873,7 @@
       <c r="I729" s="2">
         <v>44552</v>
       </c>
-      <c r="J729" s="3" t="s">
+      <c r="J729" t="s">
         <v>15</v>
       </c>
       <c r="K729">
@@ -38654,7 +38908,7 @@
       <c r="I730" s="2">
         <v>44552</v>
       </c>
-      <c r="J730" s="3" t="s">
+      <c r="J730" t="s">
         <v>15</v>
       </c>
       <c r="K730">
@@ -38689,7 +38943,7 @@
       <c r="I731" s="2">
         <v>44552</v>
       </c>
-      <c r="J731" s="3" t="s">
+      <c r="J731" t="s">
         <v>15</v>
       </c>
       <c r="K731">
@@ -38724,7 +38978,7 @@
       <c r="I732" s="2">
         <v>44552</v>
       </c>
-      <c r="J732" s="3" t="s">
+      <c r="J732" t="s">
         <v>15</v>
       </c>
       <c r="K732">
@@ -38759,7 +39013,7 @@
       <c r="I733" s="2">
         <v>44552</v>
       </c>
-      <c r="J733" s="3" t="s">
+      <c r="J733" t="s">
         <v>15</v>
       </c>
       <c r="K733">
@@ -38794,7 +39048,7 @@
       <c r="I734" s="2">
         <v>44552</v>
       </c>
-      <c r="J734" s="3" t="s">
+      <c r="J734" t="s">
         <v>15</v>
       </c>
       <c r="K734">
@@ -38829,7 +39083,7 @@
       <c r="I735" s="2">
         <v>44552</v>
       </c>
-      <c r="J735" s="3" t="s">
+      <c r="J735" t="s">
         <v>15</v>
       </c>
       <c r="K735">
@@ -38864,7 +39118,7 @@
       <c r="I736" s="2">
         <v>44552</v>
       </c>
-      <c r="J736" s="3" t="s">
+      <c r="J736" t="s">
         <v>15</v>
       </c>
       <c r="K736">
@@ -38899,7 +39153,7 @@
       <c r="I737" s="2">
         <v>44552</v>
       </c>
-      <c r="J737" s="3" t="s">
+      <c r="J737" t="s">
         <v>15</v>
       </c>
       <c r="K737">
@@ -38934,7 +39188,7 @@
       <c r="I738" s="2">
         <v>44552</v>
       </c>
-      <c r="J738" s="3" t="s">
+      <c r="J738" t="s">
         <v>15</v>
       </c>
       <c r="K738">
@@ -38969,7 +39223,7 @@
       <c r="I739" s="2">
         <v>44552</v>
       </c>
-      <c r="J739" s="3" t="s">
+      <c r="J739" t="s">
         <v>15</v>
       </c>
       <c r="K739">
@@ -39004,7 +39258,7 @@
       <c r="I740" s="2">
         <v>44552</v>
       </c>
-      <c r="J740" s="3" t="s">
+      <c r="J740" t="s">
         <v>15</v>
       </c>
       <c r="K740">
@@ -39039,7 +39293,7 @@
       <c r="I741" s="2">
         <v>44552</v>
       </c>
-      <c r="J741" s="3" t="s">
+      <c r="J741" t="s">
         <v>15</v>
       </c>
       <c r="K741">
@@ -39074,7 +39328,7 @@
       <c r="I742" s="2">
         <v>44552</v>
       </c>
-      <c r="J742" s="3" t="s">
+      <c r="J742" t="s">
         <v>15</v>
       </c>
       <c r="K742">
@@ -39109,7 +39363,7 @@
       <c r="I743" s="2">
         <v>44551</v>
       </c>
-      <c r="J743" s="3" t="s">
+      <c r="J743" t="s">
         <v>15</v>
       </c>
       <c r="K743">
@@ -39144,7 +39398,7 @@
       <c r="I744" s="2">
         <v>44551</v>
       </c>
-      <c r="J744" s="3" t="s">
+      <c r="J744" t="s">
         <v>15</v>
       </c>
       <c r="K744">
@@ -39179,7 +39433,7 @@
       <c r="I745" s="2">
         <v>44551</v>
       </c>
-      <c r="J745" s="3" t="s">
+      <c r="J745" t="s">
         <v>15</v>
       </c>
       <c r="K745">
@@ -39214,7 +39468,7 @@
       <c r="I746" s="2">
         <v>44551</v>
       </c>
-      <c r="J746" s="3" t="s">
+      <c r="J746" t="s">
         <v>15</v>
       </c>
       <c r="K746">
@@ -39249,7 +39503,7 @@
       <c r="I747" s="2">
         <v>44551</v>
       </c>
-      <c r="J747" s="3" t="s">
+      <c r="J747" t="s">
         <v>15</v>
       </c>
       <c r="K747">
@@ -39284,7 +39538,7 @@
       <c r="I748" s="2">
         <v>44551</v>
       </c>
-      <c r="J748" s="3" t="s">
+      <c r="J748" t="s">
         <v>15</v>
       </c>
       <c r="K748">
@@ -39319,7 +39573,7 @@
       <c r="I749" s="2">
         <v>44551</v>
       </c>
-      <c r="J749" s="3" t="s">
+      <c r="J749" t="s">
         <v>15</v>
       </c>
       <c r="K749">
@@ -39354,7 +39608,7 @@
       <c r="I750" s="2">
         <v>44551</v>
       </c>
-      <c r="J750" s="3" t="s">
+      <c r="J750" t="s">
         <v>15</v>
       </c>
       <c r="K750">
@@ -39389,7 +39643,7 @@
       <c r="I751" s="2">
         <v>44551</v>
       </c>
-      <c r="J751" s="3" t="s">
+      <c r="J751" t="s">
         <v>15</v>
       </c>
       <c r="K751">
@@ -39424,7 +39678,7 @@
       <c r="I752" s="2">
         <v>44551</v>
       </c>
-      <c r="J752" s="3" t="s">
+      <c r="J752" t="s">
         <v>15</v>
       </c>
       <c r="K752">
@@ -39459,7 +39713,7 @@
       <c r="I753" s="2">
         <v>44551</v>
       </c>
-      <c r="J753" s="3" t="s">
+      <c r="J753" t="s">
         <v>15</v>
       </c>
       <c r="K753">
@@ -39494,7 +39748,7 @@
       <c r="I754" s="2">
         <v>44550</v>
       </c>
-      <c r="J754" s="3" t="s">
+      <c r="J754" t="s">
         <v>15</v>
       </c>
       <c r="K754">
@@ -39529,7 +39783,7 @@
       <c r="I755" s="2">
         <v>44550</v>
       </c>
-      <c r="J755" s="3" t="s">
+      <c r="J755" t="s">
         <v>15</v>
       </c>
       <c r="K755">
@@ -39564,7 +39818,7 @@
       <c r="I756" s="2">
         <v>44550</v>
       </c>
-      <c r="J756" s="3" t="s">
+      <c r="J756" t="s">
         <v>15</v>
       </c>
       <c r="K756">
@@ -39599,7 +39853,7 @@
       <c r="I757" s="2">
         <v>44550</v>
       </c>
-      <c r="J757" s="3" t="s">
+      <c r="J757" t="s">
         <v>15</v>
       </c>
       <c r="K757">
@@ -39634,7 +39888,7 @@
       <c r="I758" s="2">
         <v>44550</v>
       </c>
-      <c r="J758" s="3" t="s">
+      <c r="J758" t="s">
         <v>15</v>
       </c>
       <c r="K758">
@@ -39669,7 +39923,7 @@
       <c r="I759" s="2">
         <v>44550</v>
       </c>
-      <c r="J759" s="3" t="s">
+      <c r="J759" t="s">
         <v>15</v>
       </c>
       <c r="K759">
@@ -39704,7 +39958,7 @@
       <c r="I760" s="2">
         <v>44550</v>
       </c>
-      <c r="J760" s="3" t="s">
+      <c r="J760" t="s">
         <v>15</v>
       </c>
       <c r="K760">
@@ -39739,7 +39993,7 @@
       <c r="I761" s="2">
         <v>44550</v>
       </c>
-      <c r="J761" s="3" t="s">
+      <c r="J761" t="s">
         <v>15</v>
       </c>
       <c r="K761">
@@ -39774,7 +40028,7 @@
       <c r="I762" s="2">
         <v>44550</v>
       </c>
-      <c r="J762" s="3" t="s">
+      <c r="J762" t="s">
         <v>15</v>
       </c>
       <c r="K762">
@@ -39809,7 +40063,7 @@
       <c r="I763" s="2">
         <v>44550</v>
       </c>
-      <c r="J763" s="3" t="s">
+      <c r="J763" t="s">
         <v>15</v>
       </c>
       <c r="K763">
@@ -39844,7 +40098,7 @@
       <c r="I764" s="2">
         <v>44550</v>
       </c>
-      <c r="J764" s="3" t="s">
+      <c r="J764" t="s">
         <v>15</v>
       </c>
       <c r="K764">
@@ -39879,7 +40133,7 @@
       <c r="I765" s="2">
         <v>44550</v>
       </c>
-      <c r="J765" s="3" t="s">
+      <c r="J765" t="s">
         <v>15</v>
       </c>
       <c r="K765">
@@ -39914,7 +40168,7 @@
       <c r="I766" s="2">
         <v>44550</v>
       </c>
-      <c r="J766" s="3" t="s">
+      <c r="J766" t="s">
         <v>15</v>
       </c>
       <c r="K766">
@@ -39949,7 +40203,7 @@
       <c r="I767" s="2">
         <v>44550</v>
       </c>
-      <c r="J767" s="3" t="s">
+      <c r="J767" t="s">
         <v>15</v>
       </c>
       <c r="K767">
@@ -39984,7 +40238,7 @@
       <c r="I768" s="2">
         <v>44550</v>
       </c>
-      <c r="J768" s="3" t="s">
+      <c r="J768" t="s">
         <v>15</v>
       </c>
       <c r="K768">
@@ -40019,7 +40273,7 @@
       <c r="I769" s="2">
         <v>44550</v>
       </c>
-      <c r="J769" s="3" t="s">
+      <c r="J769" t="s">
         <v>15</v>
       </c>
       <c r="K769">
@@ -40054,7 +40308,7 @@
       <c r="I770" s="2">
         <v>44550</v>
       </c>
-      <c r="J770" s="3" t="s">
+      <c r="J770" t="s">
         <v>15</v>
       </c>
       <c r="K770">
@@ -40089,7 +40343,7 @@
       <c r="I771" s="2">
         <v>44550</v>
       </c>
-      <c r="J771" s="3" t="s">
+      <c r="J771" t="s">
         <v>15</v>
       </c>
       <c r="K771">
@@ -40124,7 +40378,7 @@
       <c r="I772" s="2">
         <v>44550</v>
       </c>
-      <c r="J772" s="3" t="s">
+      <c r="J772" t="s">
         <v>15</v>
       </c>
       <c r="K772">
@@ -40159,7 +40413,7 @@
       <c r="I773" s="2">
         <v>44550</v>
       </c>
-      <c r="J773" s="3" t="s">
+      <c r="J773" t="s">
         <v>15</v>
       </c>
       <c r="K773">
@@ -40194,7 +40448,7 @@
       <c r="I774" s="2">
         <v>44550</v>
       </c>
-      <c r="J774" s="3" t="s">
+      <c r="J774" t="s">
         <v>15</v>
       </c>
       <c r="K774">
@@ -40229,7 +40483,7 @@
       <c r="I775" s="2">
         <v>44550</v>
       </c>
-      <c r="J775" s="3" t="s">
+      <c r="J775" t="s">
         <v>15</v>
       </c>
       <c r="K775">
@@ -40264,7 +40518,7 @@
       <c r="I776" s="2">
         <v>44550</v>
       </c>
-      <c r="J776" s="3" t="s">
+      <c r="J776" t="s">
         <v>15</v>
       </c>
       <c r="K776">
@@ -40299,7 +40553,7 @@
       <c r="I777" s="2">
         <v>44550</v>
       </c>
-      <c r="J777" s="3" t="s">
+      <c r="J777" t="s">
         <v>15</v>
       </c>
       <c r="K777">
@@ -40334,7 +40588,7 @@
       <c r="I778" s="2">
         <v>44550</v>
       </c>
-      <c r="J778" s="3" t="s">
+      <c r="J778" t="s">
         <v>15</v>
       </c>
       <c r="K778">
@@ -40369,7 +40623,7 @@
       <c r="I779" s="2">
         <v>44550</v>
       </c>
-      <c r="J779" s="3" t="s">
+      <c r="J779" t="s">
         <v>15</v>
       </c>
       <c r="K779">
@@ -40404,7 +40658,7 @@
       <c r="I780" s="2">
         <v>44550</v>
       </c>
-      <c r="J780" s="3" t="s">
+      <c r="J780" t="s">
         <v>15</v>
       </c>
       <c r="K780">
@@ -40439,7 +40693,7 @@
       <c r="I781" s="2">
         <v>44550</v>
       </c>
-      <c r="J781" s="3" t="s">
+      <c r="J781" t="s">
         <v>15</v>
       </c>
       <c r="K781">
@@ -40474,7 +40728,7 @@
       <c r="I782" s="2">
         <v>44550</v>
       </c>
-      <c r="J782" s="3" t="s">
+      <c r="J782" t="s">
         <v>15</v>
       </c>
       <c r="K782">
@@ -40509,7 +40763,7 @@
       <c r="I783" s="2">
         <v>44550</v>
       </c>
-      <c r="J783" s="3" t="s">
+      <c r="J783" t="s">
         <v>15</v>
       </c>
       <c r="K783">
@@ -40544,7 +40798,7 @@
       <c r="I784" s="2">
         <v>44550</v>
       </c>
-      <c r="J784" s="3" t="s">
+      <c r="J784" t="s">
         <v>15</v>
       </c>
       <c r="K784">
@@ -40579,7 +40833,7 @@
       <c r="I785" s="2">
         <v>44550</v>
       </c>
-      <c r="J785" s="3" t="s">
+      <c r="J785" t="s">
         <v>15</v>
       </c>
       <c r="K785">
@@ -40614,7 +40868,7 @@
       <c r="I786" s="2">
         <v>44550</v>
       </c>
-      <c r="J786" s="3" t="s">
+      <c r="J786" t="s">
         <v>15</v>
       </c>
       <c r="K786">
@@ -40649,7 +40903,7 @@
       <c r="I787" s="2">
         <v>44550</v>
       </c>
-      <c r="J787" s="3" t="s">
+      <c r="J787" t="s">
         <v>15</v>
       </c>
       <c r="K787">
@@ -40684,7 +40938,7 @@
       <c r="I788" s="2">
         <v>44550</v>
       </c>
-      <c r="J788" s="3" t="s">
+      <c r="J788" t="s">
         <v>15</v>
       </c>
       <c r="K788">
@@ -40719,7 +40973,7 @@
       <c r="I789" s="2">
         <v>44562</v>
       </c>
-      <c r="J789" s="3" t="s">
+      <c r="J789" t="s">
         <v>3313</v>
       </c>
       <c r="K789">
@@ -40754,7 +41008,7 @@
       <c r="I790" s="2">
         <v>44553</v>
       </c>
-      <c r="J790" s="3" t="s">
+      <c r="J790" t="s">
         <v>3313</v>
       </c>
       <c r="K790">
@@ -40789,7 +41043,7 @@
       <c r="I791" s="2">
         <v>44552</v>
       </c>
-      <c r="J791" s="3" t="s">
+      <c r="J791" t="s">
         <v>3313</v>
       </c>
       <c r="K791">
@@ -40824,7 +41078,7 @@
       <c r="I792" s="2">
         <v>44552</v>
       </c>
-      <c r="J792" s="3" t="s">
+      <c r="J792" t="s">
         <v>3313</v>
       </c>
       <c r="K792">
@@ -40859,7 +41113,7 @@
       <c r="I793" s="2">
         <v>44551</v>
       </c>
-      <c r="J793" s="3" t="s">
+      <c r="J793" t="s">
         <v>3313</v>
       </c>
       <c r="K793">
@@ -40894,7 +41148,7 @@
       <c r="I794" s="2">
         <v>44551</v>
       </c>
-      <c r="J794" s="3" t="s">
+      <c r="J794" t="s">
         <v>3313</v>
       </c>
       <c r="K794">
@@ -40929,7 +41183,7 @@
       <c r="I795" s="2">
         <v>44551</v>
       </c>
-      <c r="J795" s="3" t="s">
+      <c r="J795" t="s">
         <v>3313</v>
       </c>
       <c r="K795">
@@ -40964,7 +41218,7 @@
       <c r="I796" s="2">
         <v>44551</v>
       </c>
-      <c r="J796" s="3" t="s">
+      <c r="J796" t="s">
         <v>3313</v>
       </c>
       <c r="K796">
@@ -40999,7 +41253,7 @@
       <c r="I797" s="2">
         <v>44551</v>
       </c>
-      <c r="J797" s="3" t="s">
+      <c r="J797" t="s">
         <v>3313</v>
       </c>
       <c r="K797">
@@ -41034,7 +41288,7 @@
       <c r="I798" s="2">
         <v>44551</v>
       </c>
-      <c r="J798" s="3" t="s">
+      <c r="J798" t="s">
         <v>3313</v>
       </c>
       <c r="K798">
@@ -41069,7 +41323,7 @@
       <c r="I799" s="2">
         <v>44551</v>
       </c>
-      <c r="J799" s="3" t="s">
+      <c r="J799" t="s">
         <v>3313</v>
       </c>
       <c r="K799">
@@ -41104,7 +41358,7 @@
       <c r="I800" s="2">
         <v>44551</v>
       </c>
-      <c r="J800" s="3" t="s">
+      <c r="J800" t="s">
         <v>3313</v>
       </c>
       <c r="K800">
@@ -41139,7 +41393,7 @@
       <c r="I801" s="2">
         <v>44550</v>
       </c>
-      <c r="J801" s="3" t="s">
+      <c r="J801" t="s">
         <v>3313</v>
       </c>
       <c r="K801">
@@ -41174,7 +41428,7 @@
       <c r="I802" s="2">
         <v>44550</v>
       </c>
-      <c r="J802" s="3" t="s">
+      <c r="J802" t="s">
         <v>3313</v>
       </c>
       <c r="K802">
@@ -41209,7 +41463,7 @@
       <c r="I803" s="2">
         <v>44550</v>
       </c>
-      <c r="J803" s="3" t="s">
+      <c r="J803" t="s">
         <v>3313</v>
       </c>
       <c r="K803">
@@ -41244,7 +41498,7 @@
       <c r="I804" s="2">
         <v>44550</v>
       </c>
-      <c r="J804" s="3" t="s">
+      <c r="J804" t="s">
         <v>3313</v>
       </c>
       <c r="K804">
@@ -41279,7 +41533,7 @@
       <c r="I805" s="2">
         <v>44550</v>
       </c>
-      <c r="J805" s="3" t="s">
+      <c r="J805" t="s">
         <v>3313</v>
       </c>
       <c r="K805">
@@ -41314,7 +41568,7 @@
       <c r="I806" s="2">
         <v>44550</v>
       </c>
-      <c r="J806" s="3" t="s">
+      <c r="J806" t="s">
         <v>3313</v>
       </c>
       <c r="K806">
@@ -41349,7 +41603,7 @@
       <c r="I807" s="2">
         <v>44547</v>
       </c>
-      <c r="J807" s="3" t="s">
+      <c r="J807" t="s">
         <v>3313</v>
       </c>
       <c r="K807">
@@ -41384,7 +41638,7 @@
       <c r="I808" s="2">
         <v>44536</v>
       </c>
-      <c r="J808" s="3" t="s">
+      <c r="J808" t="s">
         <v>3313</v>
       </c>
       <c r="K808">
@@ -41419,7 +41673,7 @@
       <c r="I809" s="2">
         <v>44531</v>
       </c>
-      <c r="J809" s="3" t="s">
+      <c r="J809" t="s">
         <v>3313</v>
       </c>
       <c r="K809">
@@ -41454,7 +41708,7 @@
       <c r="I810" s="2">
         <v>44530</v>
       </c>
-      <c r="J810" s="3" t="s">
+      <c r="J810" t="s">
         <v>3313</v>
       </c>
       <c r="K810">
@@ -41489,7 +41743,7 @@
       <c r="I811" s="2">
         <v>44530</v>
       </c>
-      <c r="J811" s="3" t="s">
+      <c r="J811" t="s">
         <v>3313</v>
       </c>
       <c r="K811">
@@ -41524,7 +41778,7 @@
       <c r="I812" s="2">
         <v>44530</v>
       </c>
-      <c r="J812" s="3" t="s">
+      <c r="J812" t="s">
         <v>3313</v>
       </c>
       <c r="K812">
@@ -41559,7 +41813,7 @@
       <c r="I813" s="2">
         <v>44516</v>
       </c>
-      <c r="J813" s="3" t="s">
+      <c r="J813" t="s">
         <v>3313</v>
       </c>
       <c r="K813">
@@ -41594,7 +41848,7 @@
       <c r="I814" s="2">
         <v>44516</v>
       </c>
-      <c r="J814" s="3" t="s">
+      <c r="J814" t="s">
         <v>3313</v>
       </c>
       <c r="K814">
@@ -41629,7 +41883,7 @@
       <c r="I815" s="2">
         <v>44516</v>
       </c>
-      <c r="J815" s="3" t="s">
+      <c r="J815" t="s">
         <v>3313</v>
       </c>
       <c r="K815">
@@ -41664,7 +41918,7 @@
       <c r="I816" s="2">
         <v>44516</v>
       </c>
-      <c r="J816" s="3" t="s">
+      <c r="J816" t="s">
         <v>3313</v>
       </c>
       <c r="K816">
@@ -41699,7 +41953,7 @@
       <c r="I817" s="2">
         <v>44516</v>
       </c>
-      <c r="J817" s="3" t="s">
+      <c r="J817" t="s">
         <v>3313</v>
       </c>
       <c r="K817">
@@ -41734,7 +41988,7 @@
       <c r="I818" s="2">
         <v>44511</v>
       </c>
-      <c r="J818" s="3" t="s">
+      <c r="J818" t="s">
         <v>3313</v>
       </c>
       <c r="K818">
@@ -41769,7 +42023,7 @@
       <c r="I819" s="2">
         <v>44509</v>
       </c>
-      <c r="J819" s="3" t="s">
+      <c r="J819" t="s">
         <v>3313</v>
       </c>
       <c r="K819">
@@ -41804,7 +42058,7 @@
       <c r="I820" s="2">
         <v>44509</v>
       </c>
-      <c r="J820" s="3" t="s">
+      <c r="J820" t="s">
         <v>3313</v>
       </c>
       <c r="K820">
@@ -41839,7 +42093,7 @@
       <c r="I821" s="2">
         <v>44509</v>
       </c>
-      <c r="J821" s="3" t="s">
+      <c r="J821" t="s">
         <v>3313</v>
       </c>
       <c r="K821">
@@ -41874,7 +42128,7 @@
       <c r="I822" s="2">
         <v>44509</v>
       </c>
-      <c r="J822" s="3" t="s">
+      <c r="J822" t="s">
         <v>3313</v>
       </c>
       <c r="K822">
@@ -41909,7 +42163,7 @@
       <c r="I823" s="2">
         <v>44508</v>
       </c>
-      <c r="J823" s="3" t="s">
+      <c r="J823" t="s">
         <v>3313</v>
       </c>
       <c r="K823">
@@ -41944,7 +42198,7 @@
       <c r="I824" s="2">
         <v>44503</v>
       </c>
-      <c r="J824" s="3" t="s">
+      <c r="J824" t="s">
         <v>3313</v>
       </c>
       <c r="K824">
@@ -41979,7 +42233,7 @@
       <c r="I825" s="2">
         <v>44502</v>
       </c>
-      <c r="J825" s="3" t="s">
+      <c r="J825" t="s">
         <v>3313</v>
       </c>
       <c r="K825">
@@ -42014,7 +42268,7 @@
       <c r="I826" s="2">
         <v>44502</v>
       </c>
-      <c r="J826" s="3" t="s">
+      <c r="J826" t="s">
         <v>3313</v>
       </c>
       <c r="K826">
@@ -42049,7 +42303,7 @@
       <c r="I827" s="2">
         <v>44502</v>
       </c>
-      <c r="J827" s="3" t="s">
+      <c r="J827" t="s">
         <v>3313</v>
       </c>
       <c r="K827">
@@ -42084,7 +42338,7 @@
       <c r="I828" s="2">
         <v>44502</v>
       </c>
-      <c r="J828" s="3" t="s">
+      <c r="J828" t="s">
         <v>3313</v>
       </c>
       <c r="K828">
@@ -42119,7 +42373,7 @@
       <c r="I829" s="2">
         <v>44502</v>
       </c>
-      <c r="J829" s="3" t="s">
+      <c r="J829" t="s">
         <v>3313</v>
       </c>
       <c r="K829">
@@ -42154,7 +42408,7 @@
       <c r="I830" s="2">
         <v>44502</v>
       </c>
-      <c r="J830" s="3" t="s">
+      <c r="J830" t="s">
         <v>3313</v>
       </c>
       <c r="K830">
@@ -42189,7 +42443,7 @@
       <c r="I831" s="2">
         <v>44502</v>
       </c>
-      <c r="J831" s="3" t="s">
+      <c r="J831" t="s">
         <v>3313</v>
       </c>
       <c r="K831">
@@ -42224,7 +42478,7 @@
       <c r="I832" s="2">
         <v>44502</v>
       </c>
-      <c r="J832" s="3" t="s">
+      <c r="J832" t="s">
         <v>3313</v>
       </c>
       <c r="K832">
@@ -42259,7 +42513,7 @@
       <c r="I833" s="2">
         <v>44501</v>
       </c>
-      <c r="J833" s="3" t="s">
+      <c r="J833" t="s">
         <v>3313</v>
       </c>
       <c r="K833">
@@ -42294,7 +42548,7 @@
       <c r="I834" s="2">
         <v>44501</v>
       </c>
-      <c r="J834" s="3" t="s">
+      <c r="J834" t="s">
         <v>3313</v>
       </c>
       <c r="K834">
@@ -42329,7 +42583,7 @@
       <c r="I835" s="2">
         <v>44501</v>
       </c>
-      <c r="J835" s="3" t="s">
+      <c r="J835" t="s">
         <v>3313</v>
       </c>
       <c r="K835">
@@ -42364,7 +42618,7 @@
       <c r="I836" s="2">
         <v>44501</v>
       </c>
-      <c r="J836" s="3" t="s">
+      <c r="J836" t="s">
         <v>3313</v>
       </c>
       <c r="K836">
@@ -42399,7 +42653,7 @@
       <c r="I837" s="2">
         <v>44501</v>
       </c>
-      <c r="J837" s="3" t="s">
+      <c r="J837" t="s">
         <v>3313</v>
       </c>
       <c r="K837">
@@ -42434,7 +42688,7 @@
       <c r="I838" s="2">
         <v>44495</v>
       </c>
-      <c r="J838" s="3" t="s">
+      <c r="J838" t="s">
         <v>3313</v>
       </c>
       <c r="K838">
@@ -42469,7 +42723,7 @@
       <c r="I839" s="2">
         <v>44495</v>
       </c>
-      <c r="J839" s="3" t="s">
+      <c r="J839" t="s">
         <v>3313</v>
       </c>
       <c r="K839">
@@ -42504,7 +42758,7 @@
       <c r="I840" s="2">
         <v>44495</v>
       </c>
-      <c r="J840" s="3" t="s">
+      <c r="J840" t="s">
         <v>3313</v>
       </c>
       <c r="K840">
@@ -42539,7 +42793,7 @@
       <c r="I841" s="2">
         <v>44495</v>
       </c>
-      <c r="J841" s="3" t="s">
+      <c r="J841" t="s">
         <v>3313</v>
       </c>
       <c r="K841">
@@ -42574,7 +42828,7 @@
       <c r="I842" s="2">
         <v>44495</v>
       </c>
-      <c r="J842" s="3" t="s">
+      <c r="J842" t="s">
         <v>3313</v>
       </c>
       <c r="K842">
@@ -42609,7 +42863,7 @@
       <c r="I843" s="2">
         <v>44495</v>
       </c>
-      <c r="J843" s="3" t="s">
+      <c r="J843" t="s">
         <v>3313</v>
       </c>
       <c r="K843">
@@ -42644,7 +42898,7 @@
       <c r="I844" s="2">
         <v>44495</v>
       </c>
-      <c r="J844" s="3" t="s">
+      <c r="J844" t="s">
         <v>3313</v>
       </c>
       <c r="K844">
@@ -42679,7 +42933,7 @@
       <c r="I845" s="2">
         <v>44490</v>
       </c>
-      <c r="J845" s="3" t="s">
+      <c r="J845" t="s">
         <v>3313</v>
       </c>
       <c r="K845">
@@ -42714,7 +42968,7 @@
       <c r="I846" s="2">
         <v>44488</v>
       </c>
-      <c r="J846" s="3" t="s">
+      <c r="J846" t="s">
         <v>3313</v>
       </c>
       <c r="K846">
@@ -42749,7 +43003,7 @@
       <c r="I847" s="2">
         <v>44488</v>
       </c>
-      <c r="J847" s="3" t="s">
+      <c r="J847" t="s">
         <v>3313</v>
       </c>
       <c r="K847">
@@ -42784,7 +43038,7 @@
       <c r="I848" s="2">
         <v>44488</v>
       </c>
-      <c r="J848" s="3" t="s">
+      <c r="J848" t="s">
         <v>3313</v>
       </c>
       <c r="K848">
@@ -42819,7 +43073,7 @@
       <c r="I849" s="2">
         <v>44488</v>
       </c>
-      <c r="J849" s="3" t="s">
+      <c r="J849" t="s">
         <v>3313</v>
       </c>
       <c r="K849">
@@ -42854,7 +43108,7 @@
       <c r="I850" s="2">
         <v>44488</v>
       </c>
-      <c r="J850" s="3" t="s">
+      <c r="J850" t="s">
         <v>3313</v>
       </c>
       <c r="K850">
@@ -42889,7 +43143,7 @@
       <c r="I851" s="2">
         <v>44488</v>
       </c>
-      <c r="J851" s="3" t="s">
+      <c r="J851" t="s">
         <v>3313</v>
       </c>
       <c r="K851">
@@ -42924,7 +43178,7 @@
       <c r="I852" s="2">
         <v>44488</v>
       </c>
-      <c r="J852" s="3" t="s">
+      <c r="J852" t="s">
         <v>3313</v>
       </c>
       <c r="K852">
@@ -42959,7 +43213,7 @@
       <c r="I853" s="2">
         <v>44488</v>
       </c>
-      <c r="J853" s="3" t="s">
+      <c r="J853" t="s">
         <v>3313</v>
       </c>
       <c r="K853">
@@ -42994,7 +43248,7 @@
       <c r="I854" s="2">
         <v>44487</v>
       </c>
-      <c r="J854" s="3" t="s">
+      <c r="J854" t="s">
         <v>3313</v>
       </c>
       <c r="K854">
@@ -43029,7 +43283,7 @@
       <c r="I855" s="2">
         <v>44484</v>
       </c>
-      <c r="J855" s="3" t="s">
+      <c r="J855" t="s">
         <v>3313</v>
       </c>
       <c r="K855">
@@ -43064,7 +43318,7 @@
       <c r="I856" s="2">
         <v>44483</v>
       </c>
-      <c r="J856" s="3" t="s">
+      <c r="J856" t="s">
         <v>3313</v>
       </c>
       <c r="K856">
@@ -43099,7 +43353,7 @@
       <c r="I857" s="2">
         <v>44481</v>
       </c>
-      <c r="J857" s="3" t="s">
+      <c r="J857" t="s">
         <v>3313</v>
       </c>
       <c r="K857">
@@ -43134,7 +43388,7 @@
       <c r="I858" s="2">
         <v>44481</v>
       </c>
-      <c r="J858" s="3" t="s">
+      <c r="J858" t="s">
         <v>3313</v>
       </c>
       <c r="K858">
@@ -43169,7 +43423,7 @@
       <c r="I859" s="2">
         <v>44481</v>
       </c>
-      <c r="J859" s="3" t="s">
+      <c r="J859" t="s">
         <v>3313</v>
       </c>
       <c r="K859">
@@ -43204,7 +43458,7 @@
       <c r="I860" s="2">
         <v>44481</v>
       </c>
-      <c r="J860" s="3" t="s">
+      <c r="J860" t="s">
         <v>3313</v>
       </c>
       <c r="K860">
@@ -43239,7 +43493,7 @@
       <c r="I861" s="2">
         <v>44481</v>
       </c>
-      <c r="J861" s="3" t="s">
+      <c r="J861" t="s">
         <v>3313</v>
       </c>
       <c r="K861">
@@ -43274,7 +43528,7 @@
       <c r="I862" s="2">
         <v>44481</v>
       </c>
-      <c r="J862" s="3" t="s">
+      <c r="J862" t="s">
         <v>3313</v>
       </c>
       <c r="K862">
@@ -43309,7 +43563,7 @@
       <c r="I863" s="2">
         <v>44481</v>
       </c>
-      <c r="J863" s="3" t="s">
+      <c r="J863" t="s">
         <v>3313</v>
       </c>
       <c r="K863">
@@ -43344,7 +43598,7 @@
       <c r="I864" s="2">
         <v>44481</v>
       </c>
-      <c r="J864" s="3" t="s">
+      <c r="J864" t="s">
         <v>3313</v>
       </c>
       <c r="K864">
@@ -43379,7 +43633,7 @@
       <c r="I865" s="2">
         <v>44481</v>
       </c>
-      <c r="J865" s="3" t="s">
+      <c r="J865" t="s">
         <v>3313</v>
       </c>
       <c r="K865">
@@ -43414,7 +43668,7 @@
       <c r="I866" s="2">
         <v>44481</v>
       </c>
-      <c r="J866" s="3" t="s">
+      <c r="J866" t="s">
         <v>3313</v>
       </c>
       <c r="K866">
@@ -43449,7 +43703,7 @@
       <c r="I867" s="2">
         <v>44481</v>
       </c>
-      <c r="J867" s="3" t="s">
+      <c r="J867" t="s">
         <v>3313</v>
       </c>
       <c r="K867">
@@ -43484,7 +43738,7 @@
       <c r="I868" s="2">
         <v>44476</v>
       </c>
-      <c r="J868" s="3" t="s">
+      <c r="J868" t="s">
         <v>3313</v>
       </c>
       <c r="K868">
@@ -43519,7 +43773,7 @@
       <c r="I869" s="2">
         <v>44474</v>
       </c>
-      <c r="J869" s="3" t="s">
+      <c r="J869" t="s">
         <v>3313</v>
       </c>
       <c r="K869">
@@ -43554,7 +43808,7 @@
       <c r="I870" s="2">
         <v>44474</v>
       </c>
-      <c r="J870" s="3" t="s">
+      <c r="J870" t="s">
         <v>3313</v>
       </c>
       <c r="K870">
@@ -43589,7 +43843,7 @@
       <c r="I871" s="2">
         <v>44474</v>
       </c>
-      <c r="J871" s="3" t="s">
+      <c r="J871" t="s">
         <v>3313</v>
       </c>
       <c r="K871">
@@ -43624,7 +43878,7 @@
       <c r="I872" s="2">
         <v>44474</v>
       </c>
-      <c r="J872" s="3" t="s">
+      <c r="J872" t="s">
         <v>3313</v>
       </c>
       <c r="K872">
@@ -43659,7 +43913,7 @@
       <c r="I873" s="2">
         <v>44474</v>
       </c>
-      <c r="J873" s="3" t="s">
+      <c r="J873" t="s">
         <v>3313</v>
       </c>
       <c r="K873">
@@ -43694,7 +43948,7 @@
       <c r="I874" s="2">
         <v>44474</v>
       </c>
-      <c r="J874" s="3" t="s">
+      <c r="J874" t="s">
         <v>3313</v>
       </c>
       <c r="K874">
@@ -43729,7 +43983,7 @@
       <c r="I875" s="2">
         <v>44474</v>
       </c>
-      <c r="J875" s="3" t="s">
+      <c r="J875" t="s">
         <v>3313</v>
       </c>
       <c r="K875">
@@ -43764,7 +44018,7 @@
       <c r="I876" s="2">
         <v>44474</v>
       </c>
-      <c r="J876" s="3" t="s">
+      <c r="J876" t="s">
         <v>3313</v>
       </c>
       <c r="K876">
@@ -43799,7 +44053,7 @@
       <c r="I877" s="2">
         <v>44474</v>
       </c>
-      <c r="J877" s="3" t="s">
+      <c r="J877" t="s">
         <v>3313</v>
       </c>
       <c r="K877">
@@ -43834,7 +44088,7 @@
       <c r="I878" s="2">
         <v>44474</v>
       </c>
-      <c r="J878" s="3" t="s">
+      <c r="J878" t="s">
         <v>3313</v>
       </c>
       <c r="K878">
@@ -43869,7 +44123,7 @@
       <c r="I879" s="2">
         <v>44474</v>
       </c>
-      <c r="J879" s="3" t="s">
+      <c r="J879" t="s">
         <v>3313</v>
       </c>
       <c r="K879">
@@ -43904,7 +44158,7 @@
       <c r="I880" s="2">
         <v>44474</v>
       </c>
-      <c r="J880" s="3" t="s">
+      <c r="J880" t="s">
         <v>3313</v>
       </c>
       <c r="K880">
@@ -43939,7 +44193,7 @@
       <c r="I881" s="2">
         <v>44472</v>
       </c>
-      <c r="J881" s="3" t="s">
+      <c r="J881" t="s">
         <v>3313</v>
       </c>
       <c r="K881">
@@ -43974,7 +44228,7 @@
       <c r="I882" s="2">
         <v>44470</v>
       </c>
-      <c r="J882" s="3" t="s">
+      <c r="J882" t="s">
         <v>3313</v>
       </c>
       <c r="K882">
@@ -44009,7 +44263,7 @@
       <c r="I883" s="2">
         <v>44470</v>
       </c>
-      <c r="J883" s="3" t="s">
+      <c r="J883" t="s">
         <v>3313</v>
       </c>
       <c r="K883">
@@ -44044,7 +44298,7 @@
       <c r="I884" s="2">
         <v>44469</v>
       </c>
-      <c r="J884" s="3" t="s">
+      <c r="J884" t="s">
         <v>3313</v>
       </c>
       <c r="K884">
@@ -44079,7 +44333,7 @@
       <c r="I885" s="2">
         <v>44469</v>
       </c>
-      <c r="J885" s="3" t="s">
+      <c r="J885" t="s">
         <v>3313</v>
       </c>
       <c r="K885">
@@ -44114,7 +44368,7 @@
       <c r="I886" s="2">
         <v>44469</v>
       </c>
-      <c r="J886" s="3" t="s">
+      <c r="J886" t="s">
         <v>3313</v>
       </c>
       <c r="K886">
@@ -44149,7 +44403,7 @@
       <c r="I887" s="2">
         <v>44467</v>
       </c>
-      <c r="J887" s="3" t="s">
+      <c r="J887" t="s">
         <v>3313</v>
       </c>
       <c r="K887">
@@ -44184,7 +44438,7 @@
       <c r="I888" s="2">
         <v>44467</v>
       </c>
-      <c r="J888" s="3" t="s">
+      <c r="J888" t="s">
         <v>3313</v>
       </c>
       <c r="K888">
@@ -44219,7 +44473,7 @@
       <c r="I889" s="2">
         <v>44467</v>
       </c>
-      <c r="J889" s="3" t="s">
+      <c r="J889" t="s">
         <v>3313</v>
       </c>
       <c r="K889">
@@ -44254,7 +44508,7 @@
       <c r="I890" s="2">
         <v>44467</v>
       </c>
-      <c r="J890" s="3" t="s">
+      <c r="J890" t="s">
         <v>3313</v>
       </c>
       <c r="K890">
@@ -44289,7 +44543,7 @@
       <c r="I891" s="2">
         <v>44467</v>
       </c>
-      <c r="J891" s="3" t="s">
+      <c r="J891" t="s">
         <v>3313</v>
       </c>
       <c r="K891">
@@ -44324,7 +44578,7 @@
       <c r="I892" s="2">
         <v>44467</v>
       </c>
-      <c r="J892" s="3" t="s">
+      <c r="J892" t="s">
         <v>3313</v>
       </c>
       <c r="K892">
@@ -44359,7 +44613,7 @@
       <c r="I893" s="2">
         <v>44467</v>
       </c>
-      <c r="J893" s="3" t="s">
+      <c r="J893" t="s">
         <v>3313</v>
       </c>
       <c r="K893">
@@ -44394,7 +44648,7 @@
       <c r="I894" s="2">
         <v>44467</v>
       </c>
-      <c r="J894" s="3" t="s">
+      <c r="J894" t="s">
         <v>3313</v>
       </c>
       <c r="K894">
@@ -44429,7 +44683,7 @@
       <c r="I895" s="2">
         <v>44467</v>
       </c>
-      <c r="J895" s="3" t="s">
+      <c r="J895" t="s">
         <v>3313</v>
       </c>
       <c r="K895">
@@ -44464,7 +44718,7 @@
       <c r="I896" s="2">
         <v>44467</v>
       </c>
-      <c r="J896" s="3" t="s">
+      <c r="J896" t="s">
         <v>3313</v>
       </c>
       <c r="K896">
@@ -44499,7 +44753,7 @@
       <c r="I897" s="2">
         <v>44467</v>
       </c>
-      <c r="J897" s="3" t="s">
+      <c r="J897" t="s">
         <v>3313</v>
       </c>
       <c r="K897">
@@ -44534,7 +44788,7 @@
       <c r="I898" s="2">
         <v>44467</v>
       </c>
-      <c r="J898" s="3" t="s">
+      <c r="J898" t="s">
         <v>3313</v>
       </c>
       <c r="K898">
@@ -44569,7 +44823,7 @@
       <c r="I899" s="2">
         <v>44467</v>
       </c>
-      <c r="J899" s="3" t="s">
+      <c r="J899" t="s">
         <v>3313</v>
       </c>
       <c r="K899">
@@ -44604,7 +44858,7 @@
       <c r="I900" s="2">
         <v>44467</v>
       </c>
-      <c r="J900" s="3" t="s">
+      <c r="J900" t="s">
         <v>3313</v>
       </c>
       <c r="K900">
@@ -44639,7 +44893,7 @@
       <c r="I901" s="2">
         <v>44467</v>
       </c>
-      <c r="J901" s="3" t="s">
+      <c r="J901" t="s">
         <v>3313</v>
       </c>
       <c r="K901">
@@ -44674,7 +44928,7 @@
       <c r="I902" s="2">
         <v>44466</v>
       </c>
-      <c r="J902" s="3" t="s">
+      <c r="J902" t="s">
         <v>3313</v>
       </c>
       <c r="K902">
@@ -44709,7 +44963,7 @@
       <c r="I903" s="2">
         <v>44463</v>
       </c>
-      <c r="J903" s="3" t="s">
+      <c r="J903" t="s">
         <v>3313</v>
       </c>
       <c r="K903">
@@ -44744,7 +44998,7 @@
       <c r="I904" s="2">
         <v>44462</v>
       </c>
-      <c r="J904" s="3" t="s">
+      <c r="J904" t="s">
         <v>3313</v>
       </c>
       <c r="K904">
@@ -44779,7 +45033,7 @@
       <c r="I905" s="2">
         <v>44462</v>
       </c>
-      <c r="J905" s="3" t="s">
+      <c r="J905" t="s">
         <v>3313</v>
       </c>
       <c r="K905">
@@ -44814,7 +45068,7 @@
       <c r="I906" s="2">
         <v>44461</v>
       </c>
-      <c r="J906" s="3" t="s">
+      <c r="J906" t="s">
         <v>3313</v>
       </c>
       <c r="K906">
@@ -44849,7 +45103,7 @@
       <c r="I907" s="2">
         <v>44460</v>
       </c>
-      <c r="J907" s="3" t="s">
+      <c r="J907" t="s">
         <v>3313</v>
       </c>
       <c r="K907">
@@ -44884,7 +45138,7 @@
       <c r="I908" s="2">
         <v>44460</v>
       </c>
-      <c r="J908" s="3" t="s">
+      <c r="J908" t="s">
         <v>3313</v>
       </c>
       <c r="K908">
@@ -44919,7 +45173,7 @@
       <c r="I909" s="2">
         <v>44460</v>
       </c>
-      <c r="J909" s="3" t="s">
+      <c r="J909" t="s">
         <v>3313</v>
       </c>
       <c r="K909">
@@ -44954,7 +45208,7 @@
       <c r="I910" s="2">
         <v>44460</v>
       </c>
-      <c r="J910" s="3" t="s">
+      <c r="J910" t="s">
         <v>3313</v>
       </c>
       <c r="K910">
@@ -44989,7 +45243,7 @@
       <c r="I911" s="2">
         <v>44460</v>
       </c>
-      <c r="J911" s="3" t="s">
+      <c r="J911" t="s">
         <v>3313</v>
       </c>
       <c r="K911">
@@ -45024,7 +45278,7 @@
       <c r="I912" s="2">
         <v>44460</v>
       </c>
-      <c r="J912" s="3" t="s">
+      <c r="J912" t="s">
         <v>3313</v>
       </c>
       <c r="K912">
@@ -45059,7 +45313,7 @@
       <c r="I913" s="2">
         <v>44460</v>
       </c>
-      <c r="J913" s="3" t="s">
+      <c r="J913" t="s">
         <v>3313</v>
       </c>
       <c r="K913">
@@ -45094,7 +45348,7 @@
       <c r="I914" s="2">
         <v>44460</v>
       </c>
-      <c r="J914" s="3" t="s">
+      <c r="J914" t="s">
         <v>3313</v>
       </c>
       <c r="K914">
@@ -45129,7 +45383,7 @@
       <c r="I915" s="2">
         <v>44460</v>
       </c>
-      <c r="J915" s="3" t="s">
+      <c r="J915" t="s">
         <v>3313</v>
       </c>
       <c r="K915">
@@ -45164,7 +45418,7 @@
       <c r="I916" s="2">
         <v>44460</v>
       </c>
-      <c r="J916" s="3" t="s">
+      <c r="J916" t="s">
         <v>3313</v>
       </c>
       <c r="K916">
@@ -45199,7 +45453,7 @@
       <c r="I917" s="2">
         <v>44459</v>
       </c>
-      <c r="J917" s="3" t="s">
+      <c r="J917" t="s">
         <v>3313</v>
       </c>
       <c r="K917">
@@ -45234,7 +45488,7 @@
       <c r="I918" s="2">
         <v>44459</v>
       </c>
-      <c r="J918" s="3" t="s">
+      <c r="J918" t="s">
         <v>3313</v>
       </c>
       <c r="K918">
@@ -45269,7 +45523,7 @@
       <c r="I919" s="2">
         <v>44459</v>
       </c>
-      <c r="J919" s="3" t="s">
+      <c r="J919" t="s">
         <v>3313</v>
       </c>
       <c r="K919">
@@ -45304,7 +45558,7 @@
       <c r="I920" s="2">
         <v>44458</v>
       </c>
-      <c r="J920" s="3" t="s">
+      <c r="J920" t="s">
         <v>3313</v>
       </c>
       <c r="K920">
@@ -45339,7 +45593,7 @@
       <c r="I921" s="2">
         <v>44458</v>
       </c>
-      <c r="J921" s="3" t="s">
+      <c r="J921" t="s">
         <v>3313</v>
       </c>
       <c r="K921">
@@ -45374,7 +45628,7 @@
       <c r="I922" s="2">
         <v>44456</v>
       </c>
-      <c r="J922" s="3" t="s">
+      <c r="J922" t="s">
         <v>3313</v>
       </c>
       <c r="K922">
@@ -45409,7 +45663,7 @@
       <c r="I923" s="2">
         <v>44456</v>
       </c>
-      <c r="J923" s="3" t="s">
+      <c r="J923" t="s">
         <v>3313</v>
       </c>
       <c r="K923">
@@ -45444,7 +45698,7 @@
       <c r="I924" s="2">
         <v>44455</v>
       </c>
-      <c r="J924" s="3" t="s">
+      <c r="J924" t="s">
         <v>3313</v>
       </c>
       <c r="K924">
@@ -45479,7 +45733,7 @@
       <c r="I925" s="2">
         <v>44455</v>
       </c>
-      <c r="J925" s="3" t="s">
+      <c r="J925" t="s">
         <v>3313</v>
       </c>
       <c r="K925">
@@ -45514,7 +45768,7 @@
       <c r="I926" s="2">
         <v>44455</v>
       </c>
-      <c r="J926" s="3" t="s">
+      <c r="J926" t="s">
         <v>3313</v>
       </c>
       <c r="K926">
@@ -45549,7 +45803,7 @@
       <c r="I927" s="2">
         <v>44455</v>
       </c>
-      <c r="J927" s="3" t="s">
+      <c r="J927" t="s">
         <v>3313</v>
       </c>
       <c r="K927">
@@ -45584,7 +45838,7 @@
       <c r="I928" s="2">
         <v>44454</v>
       </c>
-      <c r="J928" s="3" t="s">
+      <c r="J928" t="s">
         <v>3313</v>
       </c>
       <c r="K928">
@@ -45619,7 +45873,7 @@
       <c r="I929" s="2">
         <v>44454</v>
       </c>
-      <c r="J929" s="3" t="s">
+      <c r="J929" t="s">
         <v>3313</v>
       </c>
       <c r="K929">
@@ -45654,7 +45908,7 @@
       <c r="I930" s="2">
         <v>44454</v>
       </c>
-      <c r="J930" s="3" t="s">
+      <c r="J930" t="s">
         <v>3313</v>
       </c>
       <c r="K930">
@@ -45689,7 +45943,7 @@
       <c r="I931" s="2">
         <v>44453</v>
       </c>
-      <c r="J931" s="3" t="s">
+      <c r="J931" t="s">
         <v>3313</v>
       </c>
       <c r="K931">
@@ -45724,7 +45978,7 @@
       <c r="I932" s="2">
         <v>44453</v>
       </c>
-      <c r="J932" s="3" t="s">
+      <c r="J932" t="s">
         <v>3313</v>
       </c>
       <c r="K932">
@@ -45759,7 +46013,7 @@
       <c r="I933" s="2">
         <v>44453</v>
       </c>
-      <c r="J933" s="3" t="s">
+      <c r="J933" t="s">
         <v>3313</v>
       </c>
       <c r="K933">
@@ -45794,7 +46048,7 @@
       <c r="I934" s="2">
         <v>44453</v>
       </c>
-      <c r="J934" s="3" t="s">
+      <c r="J934" t="s">
         <v>3313</v>
       </c>
       <c r="K934">
@@ -45829,7 +46083,7 @@
       <c r="I935" s="2">
         <v>44453</v>
       </c>
-      <c r="J935" s="3" t="s">
+      <c r="J935" t="s">
         <v>3313</v>
       </c>
       <c r="K935">
@@ -45864,7 +46118,7 @@
       <c r="I936" s="2">
         <v>44453</v>
       </c>
-      <c r="J936" s="3" t="s">
+      <c r="J936" t="s">
         <v>3313</v>
       </c>
       <c r="K936">
@@ -45899,7 +46153,7 @@
       <c r="I937" s="2">
         <v>44453</v>
       </c>
-      <c r="J937" s="3" t="s">
+      <c r="J937" t="s">
         <v>3313</v>
       </c>
       <c r="K937">
@@ -45934,7 +46188,7 @@
       <c r="I938" s="2">
         <v>44453</v>
       </c>
-      <c r="J938" s="3" t="s">
+      <c r="J938" t="s">
         <v>3313</v>
       </c>
       <c r="K938">
@@ -45969,7 +46223,7 @@
       <c r="I939" s="2">
         <v>44453</v>
       </c>
-      <c r="J939" s="3" t="s">
+      <c r="J939" t="s">
         <v>3313</v>
       </c>
       <c r="K939">
@@ -46004,7 +46258,7 @@
       <c r="I940" s="2">
         <v>44453</v>
       </c>
-      <c r="J940" s="3" t="s">
+      <c r="J940" t="s">
         <v>3313</v>
       </c>
       <c r="K940">
@@ -46039,7 +46293,7 @@
       <c r="I941" s="2">
         <v>44453</v>
       </c>
-      <c r="J941" s="3" t="s">
+      <c r="J941" t="s">
         <v>3313</v>
       </c>
       <c r="K941">
@@ -46074,7 +46328,7 @@
       <c r="I942" s="2">
         <v>44453</v>
       </c>
-      <c r="J942" s="3" t="s">
+      <c r="J942" t="s">
         <v>3313</v>
       </c>
       <c r="K942">
@@ -46109,7 +46363,7 @@
       <c r="I943" s="2">
         <v>44453</v>
       </c>
-      <c r="J943" s="3" t="s">
+      <c r="J943" t="s">
         <v>3313</v>
       </c>
       <c r="K943">
@@ -46144,7 +46398,7 @@
       <c r="I944" s="2">
         <v>44453</v>
       </c>
-      <c r="J944" s="3" t="s">
+      <c r="J944" t="s">
         <v>3313</v>
       </c>
       <c r="K944">
@@ -46179,7 +46433,7 @@
       <c r="I945" s="2">
         <v>44453</v>
       </c>
-      <c r="J945" s="3" t="s">
+      <c r="J945" t="s">
         <v>3313</v>
       </c>
       <c r="K945">
@@ -46214,7 +46468,7 @@
       <c r="I946" s="2">
         <v>44453</v>
       </c>
-      <c r="J946" s="3" t="s">
+      <c r="J946" t="s">
         <v>3313</v>
       </c>
       <c r="K946">
@@ -46249,7 +46503,7 @@
       <c r="I947" s="2">
         <v>44453</v>
       </c>
-      <c r="J947" s="3" t="s">
+      <c r="J947" t="s">
         <v>3313</v>
       </c>
       <c r="K947">
@@ -46284,7 +46538,7 @@
       <c r="I948" s="2">
         <v>44453</v>
       </c>
-      <c r="J948" s="3" t="s">
+      <c r="J948" t="s">
         <v>3313</v>
       </c>
       <c r="K948">
@@ -46319,7 +46573,7 @@
       <c r="I949" s="2">
         <v>44453</v>
       </c>
-      <c r="J949" s="3" t="s">
+      <c r="J949" t="s">
         <v>3313</v>
       </c>
       <c r="K949">
@@ -46354,7 +46608,7 @@
       <c r="I950" s="2">
         <v>44453</v>
       </c>
-      <c r="J950" s="3" t="s">
+      <c r="J950" t="s">
         <v>3313</v>
       </c>
       <c r="K950">
@@ -46389,7 +46643,7 @@
       <c r="I951" s="2">
         <v>44453</v>
       </c>
-      <c r="J951" s="3" t="s">
+      <c r="J951" t="s">
         <v>3313</v>
       </c>
       <c r="K951">
@@ -46424,7 +46678,7 @@
       <c r="I952" s="2">
         <v>44453</v>
       </c>
-      <c r="J952" s="3" t="s">
+      <c r="J952" t="s">
         <v>3313</v>
       </c>
       <c r="K952">
@@ -46459,7 +46713,7 @@
       <c r="I953" s="2">
         <v>44452</v>
       </c>
-      <c r="J953" s="3" t="s">
+      <c r="J953" t="s">
         <v>3313</v>
       </c>
       <c r="K953">
@@ -46494,7 +46748,7 @@
       <c r="I954" s="2">
         <v>44451</v>
       </c>
-      <c r="J954" s="3" t="s">
+      <c r="J954" t="s">
         <v>3313</v>
       </c>
       <c r="K954">
@@ -46529,7 +46783,7 @@
       <c r="I955" s="2">
         <v>44449</v>
       </c>
-      <c r="J955" s="3" t="s">
+      <c r="J955" t="s">
         <v>3313</v>
       </c>
       <c r="K955">
@@ -46564,7 +46818,7 @@
       <c r="I956" s="2">
         <v>44449</v>
       </c>
-      <c r="J956" s="3" t="s">
+      <c r="J956" t="s">
         <v>3313</v>
       </c>
       <c r="K956">
@@ -46599,7 +46853,7 @@
       <c r="I957" s="2">
         <v>44449</v>
       </c>
-      <c r="J957" s="3" t="s">
+      <c r="J957" t="s">
         <v>3313</v>
       </c>
       <c r="K957">
@@ -46634,7 +46888,7 @@
       <c r="I958" s="2">
         <v>44449</v>
       </c>
-      <c r="J958" s="3" t="s">
+      <c r="J958" t="s">
         <v>3313</v>
       </c>
       <c r="K958">
@@ -46669,7 +46923,7 @@
       <c r="I959" s="2">
         <v>44449</v>
       </c>
-      <c r="J959" s="3" t="s">
+      <c r="J959" t="s">
         <v>3313</v>
       </c>
       <c r="K959">
@@ -46704,7 +46958,7 @@
       <c r="I960" s="2">
         <v>44448</v>
       </c>
-      <c r="J960" s="3" t="s">
+      <c r="J960" t="s">
         <v>3313</v>
       </c>
       <c r="K960">
@@ -46739,7 +46993,7 @@
       <c r="I961" s="2">
         <v>44448</v>
       </c>
-      <c r="J961" s="3" t="s">
+      <c r="J961" t="s">
         <v>3313</v>
       </c>
       <c r="K961">
@@ -46774,7 +47028,7 @@
       <c r="I962" s="2">
         <v>44448</v>
       </c>
-      <c r="J962" s="3" t="s">
+      <c r="J962" t="s">
         <v>3313</v>
       </c>
       <c r="K962">
@@ -46809,7 +47063,7 @@
       <c r="I963" s="2">
         <v>44446</v>
       </c>
-      <c r="J963" s="3" t="s">
+      <c r="J963" t="s">
         <v>3313</v>
       </c>
       <c r="K963">
@@ -46844,7 +47098,7 @@
       <c r="I964" s="2">
         <v>44446</v>
       </c>
-      <c r="J964" s="3" t="s">
+      <c r="J964" t="s">
         <v>3313</v>
       </c>
       <c r="K964">
@@ -46879,7 +47133,7 @@
       <c r="I965" s="2">
         <v>44446</v>
       </c>
-      <c r="J965" s="3" t="s">
+      <c r="J965" t="s">
         <v>3313</v>
       </c>
       <c r="K965">
@@ -46914,7 +47168,7 @@
       <c r="I966" s="2">
         <v>44446</v>
       </c>
-      <c r="J966" s="3" t="s">
+      <c r="J966" t="s">
         <v>3313</v>
       </c>
       <c r="K966">
@@ -46949,7 +47203,7 @@
       <c r="I967" s="2">
         <v>44446</v>
       </c>
-      <c r="J967" s="3" t="s">
+      <c r="J967" t="s">
         <v>3313</v>
       </c>
       <c r="K967">
@@ -46984,7 +47238,7 @@
       <c r="I968" s="2">
         <v>44446</v>
       </c>
-      <c r="J968" s="3" t="s">
+      <c r="J968" t="s">
         <v>3313</v>
       </c>
       <c r="K968">
@@ -47019,7 +47273,7 @@
       <c r="I969" s="2">
         <v>44446</v>
       </c>
-      <c r="J969" s="3" t="s">
+      <c r="J969" t="s">
         <v>3313</v>
       </c>
       <c r="K969">
@@ -47054,7 +47308,7 @@
       <c r="I970" s="2">
         <v>44446</v>
       </c>
-      <c r="J970" s="3" t="s">
+      <c r="J970" t="s">
         <v>3313</v>
       </c>
       <c r="K970">
@@ -47089,7 +47343,7 @@
       <c r="I971" s="2">
         <v>44446</v>
       </c>
-      <c r="J971" s="3" t="s">
+      <c r="J971" t="s">
         <v>3313</v>
       </c>
       <c r="K971">
@@ -47124,7 +47378,7 @@
       <c r="I972" s="2">
         <v>44446</v>
       </c>
-      <c r="J972" s="3" t="s">
+      <c r="J972" t="s">
         <v>3313</v>
       </c>
       <c r="K972">
@@ -47159,7 +47413,7 @@
       <c r="I973" s="2">
         <v>44446</v>
       </c>
-      <c r="J973" s="3" t="s">
+      <c r="J973" t="s">
         <v>3313</v>
       </c>
       <c r="K973">
@@ -47194,7 +47448,7 @@
       <c r="I974" s="2">
         <v>44446</v>
       </c>
-      <c r="J974" s="3" t="s">
+      <c r="J974" t="s">
         <v>3313</v>
       </c>
       <c r="K974">
@@ -47229,7 +47483,7 @@
       <c r="I975" s="2">
         <v>44446</v>
       </c>
-      <c r="J975" s="3" t="s">
+      <c r="J975" t="s">
         <v>3313</v>
       </c>
       <c r="K975">
@@ -47264,7 +47518,7 @@
       <c r="I976" s="2">
         <v>44446</v>
       </c>
-      <c r="J976" s="3" t="s">
+      <c r="J976" t="s">
         <v>3313</v>
       </c>
       <c r="K976">
@@ -47299,7 +47553,7 @@
       <c r="I977" s="2">
         <v>44446</v>
       </c>
-      <c r="J977" s="3" t="s">
+      <c r="J977" t="s">
         <v>3313</v>
       </c>
       <c r="K977">
@@ -47334,7 +47588,7 @@
       <c r="I978" s="2">
         <v>44446</v>
       </c>
-      <c r="J978" s="3" t="s">
+      <c r="J978" t="s">
         <v>3313</v>
       </c>
       <c r="K978">
@@ -47369,7 +47623,7 @@
       <c r="I979" s="2">
         <v>44446</v>
       </c>
-      <c r="J979" s="3" t="s">
+      <c r="J979" t="s">
         <v>3313</v>
       </c>
       <c r="K979">
@@ -47404,7 +47658,7 @@
       <c r="I980" s="2">
         <v>44446</v>
       </c>
-      <c r="J980" s="3" t="s">
+      <c r="J980" t="s">
         <v>3313</v>
       </c>
       <c r="K980">
@@ -47439,7 +47693,7 @@
       <c r="I981" s="2">
         <v>44446</v>
       </c>
-      <c r="J981" s="3" t="s">
+      <c r="J981" t="s">
         <v>3313</v>
       </c>
       <c r="K981">
@@ -47474,7 +47728,7 @@
       <c r="I982" s="2">
         <v>44446</v>
       </c>
-      <c r="J982" s="3" t="s">
+      <c r="J982" t="s">
         <v>3313</v>
       </c>
       <c r="K982">
@@ -47509,7 +47763,7 @@
       <c r="I983" s="2">
         <v>44445</v>
       </c>
-      <c r="J983" s="3" t="s">
+      <c r="J983" t="s">
         <v>3313</v>
       </c>
       <c r="K983">
@@ -47544,7 +47798,7 @@
       <c r="I984" s="2">
         <v>44443</v>
       </c>
-      <c r="J984" s="3" t="s">
+      <c r="J984" t="s">
         <v>3313</v>
       </c>
       <c r="K984">
@@ -47579,7 +47833,7 @@
       <c r="I985" s="2">
         <v>44442</v>
       </c>
-      <c r="J985" s="3" t="s">
+      <c r="J985" t="s">
         <v>3313</v>
       </c>
       <c r="K985">
@@ -47614,7 +47868,7 @@
       <c r="I986" s="2">
         <v>44442</v>
       </c>
-      <c r="J986" s="3" t="s">
+      <c r="J986" t="s">
         <v>3313</v>
       </c>
       <c r="K986">
@@ -47640,16 +47894,16 @@
       <c r="F987">
         <v>25000</v>
       </c>
-      <c r="G987" t="s">
+      <c r="G987" s="3" t="s">
+        <v>4240</v>
+      </c>
+      <c r="H987" t="s">
         <v>4226</v>
-      </c>
-      <c r="H987" t="s">
-        <v>4227</v>
       </c>
       <c r="I987" s="2">
         <v>44441</v>
       </c>
-      <c r="J987" s="3" t="s">
+      <c r="J987" t="s">
         <v>3313</v>
       </c>
       <c r="K987">
@@ -47664,35 +47918,394 @@
         <v>9781922503084</v>
       </c>
       <c r="C988" t="s">
+        <v>4227</v>
+      </c>
+      <c r="D988" t="s">
+        <v>4235</v>
+      </c>
+      <c r="E988" t="s">
         <v>4228</v>
-      </c>
-      <c r="D988" t="s">
-        <v>4229</v>
-      </c>
-      <c r="E988" t="s">
-        <v>4230</v>
       </c>
       <c r="F988">
         <v>25060</v>
       </c>
-      <c r="G988" t="s">
-        <v>4231</v>
+      <c r="G988" s="3" t="s">
+        <v>4238</v>
       </c>
       <c r="H988" t="s">
-        <v>4232</v>
+        <v>4239</v>
       </c>
       <c r="I988" s="2">
         <v>44440</v>
       </c>
-      <c r="J988" s="3" t="s">
+      <c r="J988" t="s">
         <v>3313</v>
       </c>
       <c r="K988">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="989" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A989" s="4">
+        <v>988</v>
+      </c>
+      <c r="B989" s="5">
+        <v>9791133487707</v>
+      </c>
+      <c r="C989" s="4" t="s">
+        <v>4234</v>
+      </c>
+      <c r="D989" s="4" t="s">
+        <v>4236</v>
+      </c>
+      <c r="E989" s="4" t="s">
+        <v>4237</v>
+      </c>
+      <c r="F989" s="4">
+        <v>7000</v>
+      </c>
+      <c r="G989" s="4" t="s">
+        <v>4241</v>
+      </c>
+      <c r="H989" s="4" t="s">
+        <v>4242</v>
+      </c>
+      <c r="I989" s="6">
+        <v>43434</v>
+      </c>
+      <c r="J989" s="4" t="s">
+        <v>4243</v>
+      </c>
+      <c r="K989" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="990" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A990" s="4">
+        <v>989</v>
+      </c>
+      <c r="B990" s="5">
+        <v>9788959897094</v>
+      </c>
+      <c r="C990" s="4" t="s">
+        <v>4244</v>
+      </c>
+      <c r="D990" s="4" t="s">
+        <v>4245</v>
+      </c>
+      <c r="E990" s="4" t="s">
+        <v>4246</v>
+      </c>
+      <c r="F990" s="4">
+        <v>19000</v>
+      </c>
+      <c r="G990" s="4" t="s">
+        <v>4247</v>
+      </c>
+      <c r="H990" s="4" t="s">
+        <v>4248</v>
+      </c>
+      <c r="I990" s="6">
+        <v>44839</v>
+      </c>
+      <c r="J990" s="4" t="s">
+        <v>4243</v>
+      </c>
+      <c r="K990" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="991" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A991" s="4">
+        <v>990</v>
+      </c>
+      <c r="B991" s="5">
+        <v>9788936438753</v>
+      </c>
+      <c r="C991" s="4" t="s">
+        <v>4249</v>
+      </c>
+      <c r="D991" s="4" t="s">
+        <v>4250</v>
+      </c>
+      <c r="E991" s="4" t="s">
+        <v>4251</v>
+      </c>
+      <c r="F991" s="4">
+        <v>14000</v>
+      </c>
+      <c r="G991" s="4" t="s">
+        <v>4272</v>
+      </c>
+      <c r="H991" s="4" t="s">
+        <v>4252</v>
+      </c>
+      <c r="I991" s="6">
+        <v>42825</v>
+      </c>
+      <c r="J991" s="4" t="s">
+        <v>4243</v>
+      </c>
+      <c r="K991" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="992" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A992" s="4">
+        <v>991</v>
+      </c>
+      <c r="B992" s="5">
+        <v>9791190538510</v>
+      </c>
+      <c r="C992" s="4" t="s">
+        <v>4253</v>
+      </c>
+      <c r="D992" s="4" t="s">
+        <v>4254</v>
+      </c>
+      <c r="E992" s="4" t="s">
+        <v>4255</v>
+      </c>
+      <c r="F992" s="4">
+        <v>17200</v>
+      </c>
+      <c r="G992" s="4" t="s">
+        <v>4256</v>
+      </c>
+      <c r="H992" s="4" t="s">
+        <v>4257</v>
+      </c>
+      <c r="I992" s="6">
+        <v>44876</v>
+      </c>
+      <c r="J992" s="4" t="s">
+        <v>4243</v>
+      </c>
+      <c r="K992" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="993" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A993" s="4">
+        <v>992</v>
+      </c>
+      <c r="B993" s="5">
+        <v>9791187824725</v>
+      </c>
+      <c r="C993" s="4" t="s">
+        <v>4258</v>
+      </c>
+      <c r="D993" s="4" t="s">
+        <v>4259</v>
+      </c>
+      <c r="E993" s="4" t="s">
+        <v>4260</v>
+      </c>
+      <c r="F993" s="4">
+        <v>15000</v>
+      </c>
+      <c r="G993" s="4" t="s">
+        <v>4261</v>
+      </c>
+      <c r="H993" s="4" t="s">
+        <v>4262</v>
+      </c>
+      <c r="I993" s="6">
+        <v>43077</v>
+      </c>
+      <c r="J993" s="4" t="s">
+        <v>4243</v>
+      </c>
+      <c r="K993" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="994" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A994" s="4">
+        <v>993</v>
+      </c>
+      <c r="B994" s="5">
+        <v>9788932040448</v>
+      </c>
+      <c r="C994" s="4" t="s">
+        <v>4263</v>
+      </c>
+      <c r="D994" s="4" t="s">
+        <v>4270</v>
+      </c>
+      <c r="E994" s="4" t="s">
+        <v>4264</v>
+      </c>
+      <c r="F994" s="4">
+        <v>12000</v>
+      </c>
+      <c r="G994" s="4" t="s">
+        <v>4265</v>
+      </c>
+      <c r="H994" s="4" t="s">
+        <v>4271</v>
+      </c>
+      <c r="I994" s="6">
+        <v>44804</v>
+      </c>
+      <c r="J994" s="4" t="s">
+        <v>4243</v>
+      </c>
+      <c r="K994" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="995" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A995" s="4">
+        <v>994</v>
+      </c>
+      <c r="B995" s="5">
+        <v>9791161571188</v>
+      </c>
+      <c r="C995" s="4" t="s">
+        <v>4266</v>
+      </c>
+      <c r="D995" s="4" t="s">
+        <v>4267</v>
+      </c>
+      <c r="E995" s="4" t="s">
+        <v>4268</v>
+      </c>
+      <c r="F995" s="4">
+        <v>14000</v>
+      </c>
+      <c r="G995" s="4" t="s">
+        <v>4269</v>
+      </c>
+      <c r="H995" s="4" t="s">
+        <v>4289</v>
+      </c>
+      <c r="I995" s="6">
+        <v>44306</v>
+      </c>
+      <c r="J995" s="4" t="s">
+        <v>4243</v>
+      </c>
+      <c r="K995" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="996" spans="1:11" ht="15.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A996" s="4">
+        <v>995</v>
+      </c>
+      <c r="B996" s="5">
+        <v>9791187444725</v>
+      </c>
+      <c r="C996" s="4" t="s">
+        <v>4273</v>
+      </c>
+      <c r="D996" s="4" t="s">
+        <v>4274</v>
+      </c>
+      <c r="E996" s="4" t="s">
+        <v>4275</v>
+      </c>
+      <c r="F996" s="4">
+        <v>17500</v>
+      </c>
+      <c r="G996" s="4" t="s">
+        <v>4276</v>
+      </c>
+      <c r="H996" s="7" t="s">
+        <v>4277</v>
+      </c>
+      <c r="I996" s="6">
+        <v>44596</v>
+      </c>
+      <c r="J996" s="4" t="s">
+        <v>4243</v>
+      </c>
+      <c r="K996" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="997" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A997" s="4">
+        <v>996</v>
+      </c>
+      <c r="B997" s="5">
+        <v>8937460289</v>
+      </c>
+      <c r="C997" s="4" t="s">
+        <v>4279</v>
+      </c>
+      <c r="D997" s="4" t="s">
+        <v>4280</v>
+      </c>
+      <c r="E997" s="4" t="s">
+        <v>4281</v>
+      </c>
+      <c r="F997" s="4">
+        <v>11000</v>
+      </c>
+      <c r="G997" s="4" t="s">
+        <v>4282</v>
+      </c>
+      <c r="H997" s="7" t="s">
+        <v>4288</v>
+      </c>
+      <c r="I997" s="6">
+        <v>36336</v>
+      </c>
+      <c r="J997" s="4" t="s">
+        <v>4243</v>
+      </c>
+      <c r="K997" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="998" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A998" s="4">
+        <v>997</v>
+      </c>
+      <c r="B998" s="5">
+        <v>9791190313254</v>
+      </c>
+      <c r="C998" s="4" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D998" s="4" t="s">
+        <v>4284</v>
+      </c>
+      <c r="E998" s="4" t="s">
+        <v>4285</v>
+      </c>
+      <c r="F998" s="4">
+        <v>16000</v>
+      </c>
+      <c r="G998" s="4" t="s">
+        <v>4286</v>
+      </c>
+      <c r="H998" s="7" t="s">
+        <v>4287</v>
+      </c>
+      <c r="I998" s="6">
+        <v>43866</v>
+      </c>
+      <c r="J998" s="4" t="s">
+        <v>4243</v>
+      </c>
+      <c r="K998" s="4">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G988" r:id="rId1" xr:uid="{7CEDA3B4-02C4-4908-AB84-512191A62759}"/>
+    <hyperlink ref="G987" r:id="rId2" xr:uid="{B9CF61E7-2147-4AC3-B14F-7656F1718EF2}"/>
+    <hyperlink ref="G989" r:id="rId3" xr:uid="{3C6C4900-97A1-49B7-922C-9FE00354EDE2}"/>
+    <hyperlink ref="G990" r:id="rId4" xr:uid="{E1C7909A-58C9-489E-97CD-08C48CDD2F79}"/>
+    <hyperlink ref="G992" r:id="rId5" xr:uid="{22726523-962E-41C4-BC43-E2CAC926F194}"/>
+    <hyperlink ref="G991" r:id="rId6" xr:uid="{5FAD5E4A-9E81-4D75-8618-7524B896E1E7}"/>
+    <hyperlink ref="G997" r:id="rId7" xr:uid="{0F4EC766-BE67-493C-AE5A-CA82AA9D4791}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>